--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90036DB8-8619-4594-A9A5-F72FADB728A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38DE9B-AA9E-4712-9FF8-304683C6DFB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t>Prob of decay in volume</t>
   </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>prod Br</t>
+  </si>
 </sst>
 </file>
 
@@ -68,7 +74,7 @@
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +96,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.95"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -139,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +199,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,13 +2278,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78668FEE-D4F4-4D8E-8014-4C86F283E0EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5.31218202498E-9</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.10588332084800001</v>
+      </c>
+      <c r="H2" s="19">
+        <v>1.0933118E-6</v>
+      </c>
+      <c r="I2" s="14">
+        <v>2.517598E-8</v>
+      </c>
+      <c r="J2" s="14">
+        <f t="shared" ref="J2:J6" si="0">(G2*I2)/(F2*H2)</f>
+        <v>7.3892951383343359E-3</v>
+      </c>
+      <c r="K2" s="15">
+        <f t="shared" ref="K2:K6" si="1">F2*H2+G2*I2</f>
+        <v>3.6341952550651906E-7</v>
+      </c>
+      <c r="L2" s="18">
+        <f t="shared" ref="L2:L6" si="2">(4.8*(10^16))*E2*F2*H2</f>
+        <v>91.986715216737196</v>
+      </c>
+      <c r="M2" s="18">
+        <f>(4.8*(10^16))*E2*G2*I2</f>
+        <v>0.6797169875423813</v>
+      </c>
+      <c r="N2" s="15">
+        <v>8.3452680136899995E-4</v>
+      </c>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>6.93613874235E-9</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.47782701477599998</v>
+      </c>
+      <c r="G3" s="14">
+        <v>7.6665746319900002E-2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3.0743766999999999E-6</v>
+      </c>
+      <c r="I3" s="14">
+        <v>2.0350186000000001E-7</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0620426826302031E-2</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4846218628322779E-6</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" si="2"/>
+        <v>489.08775388371544</v>
+      </c>
+      <c r="M3" s="18">
+        <f t="shared" ref="M3:M6" si="3">(4.8*(10^16))*E3*G3*I3</f>
+        <v>5.1943207017624173</v>
+      </c>
+      <c r="N3" s="15">
+        <v>8.2736851705699996E-4</v>
+      </c>
+      <c r="O3" s="15">
+        <v>8.2736851705699996E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="K14" s="20"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38DE9B-AA9E-4712-9FF8-304683C6DFB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -65,16 +64,82 @@
   <si>
     <t>prod Br</t>
   </si>
+  <si>
+    <t>Plan 3</t>
+  </si>
+  <si>
+    <t>(1000 eve</t>
+  </si>
+  <si>
+    <t>λ/m_sf^2</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Acc (Kμ)</t>
+  </si>
+  <si>
+    <t>Br(N-&gt;Kμ)</t>
+  </si>
+  <si>
+    <t>Acc (K*μ)</t>
+  </si>
+  <si>
+    <t>Br(N-&gt;mupipipi)</t>
+  </si>
+  <si>
+    <t>Acc Ratio</t>
+  </si>
+  <si>
+    <t>Total Acc</t>
+  </si>
+  <si>
+    <t>Br(D-&gt;Nl)</t>
+  </si>
+  <si>
+    <t>No. (Kμ) Nlinos</t>
+  </si>
+  <si>
+    <t>No. (K*μ) Nlinos</t>
+  </si>
+  <si>
+    <t>Tot Νο. Nlinos</t>
+  </si>
+  <si>
+    <t>(No. D+)</t>
+  </si>
+  <si>
+    <t>Br(K*-&gt;K_s pi+)</t>
+  </si>
+  <si>
+    <t>Br(K_s -&gt; pi+ pi-)</t>
+  </si>
+  <si>
+    <t>nts each)</t>
+  </si>
+  <si>
+    <t>m_N (GeV)</t>
+  </si>
+  <si>
+    <t>m_sf (GeV)</t>
+  </si>
+  <si>
+    <t>reference the particle physics review for these ratios</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +173,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -157,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +277,88 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,21 +377,10 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -271,7 +415,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -279,14 +422,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.1572352171447452"/>
-          <c:w val="0.75722462817147862"/>
-          <c:h val="0.72088764946048411"/>
+          <c:y val="0.15723521714474525"/>
+          <c:w val="0.75722462817147884"/>
+          <c:h val="0.72088764946048434"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -362,35 +504,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE65-446F-B5B0-96B8AF12F512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="422912720"/>
-        <c:axId val="422915344"/>
+        <c:marker val="1"/>
+        <c:axId val="96956800"/>
+        <c:axId val="96958336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422912720"/>
+        <c:axId val="96956800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -424,19 +555,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422915344"/>
+        <c:crossAx val="96958336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422915344"/>
+        <c:axId val="96958336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -454,7 +583,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -482,7 +610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422912720"/>
+        <c:crossAx val="96956800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -496,7 +624,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -536,7 +663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1098,7 +1225,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,6 +1241,112 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113242</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>188814</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="656167" y="4265083"/>
+          <a:ext cx="4166658" cy="2781731"/>
+          <a:chOff x="142875" y="3057525"/>
+          <a:chExt cx="3658658" cy="2781731"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="142875" y="3057525"/>
+            <a:ext cx="3658658" cy="2781731"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2254236" y="3171825"/>
+            <a:ext cx="45719" cy="2232000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1162,7 +1395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1197,7 +1430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1374,21 +1607,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:N16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1404,7 +1635,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1484,7 +1715,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1525,7 +1756,7 @@
         <v>1.66287837877E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1">
       <c r="A4" s="16">
         <v>0.85</v>
       </c>
@@ -1566,7 +1797,7 @@
         <v>2.0395659816199998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>0.9</v>
       </c>
@@ -1607,7 +1838,7 @@
         <v>2.42437635812E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>0.95</v>
       </c>
@@ -1648,7 +1879,7 @@
         <v>3.8551089506200001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1696,7 +1927,7 @@
         <v>7.7840949854600001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -1744,7 +1975,7 @@
         <v>2.8806060876899998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -1786,7 +2017,7 @@
         <v>4.2301875617800001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -1834,7 +2065,7 @@
         <v>5.75017429156E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>1.25</v>
       </c>
@@ -1876,7 +2107,7 @@
         <v>7.3992581073399996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -1924,7 +2155,7 @@
         <v>9.1342470927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>1.35</v>
       </c>
@@ -1966,7 +2197,7 @@
         <v>0.109110206391</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>1.4</v>
       </c>
@@ -2014,7 +2245,7 @@
         <v>0.12685350035500001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>1.45</v>
       </c>
@@ -2056,7 +2287,7 @@
         <v>0.144138075324</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2104,7 +2335,7 @@
         <v>0.16054767188399999</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12">
       <c r="C18" s="10">
         <v>5.0134391530400001E-8</v>
       </c>
@@ -2120,7 +2351,7 @@
         <v>1.3137592759449035E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12">
       <c r="C19" s="10">
         <v>4.1948867536799998E-8</v>
       </c>
@@ -2136,7 +2367,7 @@
         <v>1.0765397746581584E-5</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12">
       <c r="C20" s="10">
         <v>3.3808652123E-8</v>
       </c>
@@ -2152,7 +2383,7 @@
         <v>7.3408464231761172E-6</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12">
       <c r="C21" s="10">
         <v>2.5938578555499999E-8</v>
       </c>
@@ -2175,7 +2406,7 @@
         <v>3.7665085983462632E-6</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12">
       <c r="C22" s="10">
         <v>1.8582804287899999E-8</v>
       </c>
@@ -2198,7 +2429,7 @@
         <v>6.3069364841794595E-7</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12">
       <c r="C23" s="10">
         <v>1.20043081179E-8</v>
       </c>
@@ -2221,7 +2452,7 @@
         <v>1.7426759768568445E-7</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12">
       <c r="I24">
         <v>5689.9093270000003</v>
       </c>
@@ -2237,7 +2468,7 @@
         <v>6.3365405367221683E-8</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12">
       <c r="I25">
         <v>11906.962123900001</v>
       </c>
@@ -2253,7 +2484,7 @@
         <v>1.3891394701204263E-8</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12">
       <c r="I26">
         <v>9615.4596280000005</v>
       </c>
@@ -2277,14 +2508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78668FEE-D4F4-4D8E-8014-4C86F283E0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2293,7 +2524,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2340,7 +2571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2389,7 +2620,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2440,7 +2671,7 @@
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2475,7 +2706,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2510,7 +2741,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2545,13 +2776,13 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="H10" s="21"/>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18">
       <c r="K14" s="20"/>
     </row>
   </sheetData>
@@ -2561,13 +2792,1523 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14E8BA-5342-4C40-814F-F6C17614A61F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="27">
+        <v>1E-10</v>
+      </c>
+      <c r="E3" s="28">
+        <f>D3*(B5^2)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1.0017E-10</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H3" s="30">
+        <v>3.12E-12</v>
+      </c>
+      <c r="I3" s="28">
+        <f>0.105883320848*Q3*R3</f>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J3" s="30">
+        <f>H3/F3</f>
+        <v>3.1147050014974541E-2</v>
+      </c>
+      <c r="K3" s="28">
+        <f t="shared" ref="K3:K4" si="0">(F3*G3) + (H3*I3)</f>
+        <v>3.3281125342404652E-11</v>
+      </c>
+      <c r="L3" s="31">
+        <v>4.3114861009499998E-13</v>
+      </c>
+      <c r="M3" s="31">
+        <f>P3*L3*G3*F3</f>
+        <v>6.8402628645473969E-7</v>
+      </c>
+      <c r="N3" s="31">
+        <f>P3*L3*I3*H3</f>
+        <v>4.7310383664721125E-9</v>
+      </c>
+      <c r="O3" s="32">
+        <f>P3*L3*K3</f>
+        <v>6.8875732482121175E-7</v>
+      </c>
+      <c r="P3" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>1</v>
+      </c>
+      <c r="R3" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S3" s="13">
+        <f>SQRT(M3)</f>
+        <v>8.2705881680491123E-4</v>
+      </c>
+      <c r="T3" s="13">
+        <f>SQRT(N3)</f>
+        <v>6.8782544053503224E-5</v>
+      </c>
+      <c r="U3" s="13">
+        <f>S3+T3</f>
+        <v>8.9584136085841442E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D12" si="1">D3*SQRT(10)</f>
+        <v>3.1622776601683795E-10</v>
+      </c>
+      <c r="E4" s="28">
+        <f>D4*(B5^2)</f>
+        <v>3.1622776601683794E-4</v>
+      </c>
+      <c r="F4" s="29">
+        <v>8.2169999999999996E-10</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H4" s="30">
+        <v>2.6510000000000001E-11</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I21" si="2">0.105883320848*Q4*R4</f>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J4" s="30">
+        <f>H4/F4</f>
+        <v>3.2262382864792508E-2</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="0"/>
+        <v>2.7307404605344077E-10</v>
+      </c>
+      <c r="L4" s="31">
+        <v>4.3114870276100001E-12</v>
+      </c>
+      <c r="M4" s="31">
+        <f t="shared" ref="M4:M10" si="3">P4*L4*G4*F4</f>
+        <v>5.6111063230843195E-5</v>
+      </c>
+      <c r="N4" s="31">
+        <f t="shared" ref="N4:N21" si="4">P4*L4*I4*H4</f>
+        <v>4.0198671170331718E-7</v>
+      </c>
+      <c r="O4" s="32">
+        <f>P4*L4*K4</f>
+        <v>5.651304994254651E-5</v>
+      </c>
+      <c r="P4" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>1</v>
+      </c>
+      <c r="R4" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" ref="S4:T21" si="5">SQRT(M4)</f>
+        <v>7.4907318221147925E-3</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="5"/>
+        <v>6.3402422012358262E-4</v>
+      </c>
+      <c r="U4" s="13">
+        <f t="shared" ref="U4:U21" si="6">S4+T4</f>
+        <v>8.1247560422383746E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E5" s="28">
+        <f>D5*(B5^2)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="28">
+        <v>8.9577799999999992E-9</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H5" s="28">
+        <v>2.3815999999999998E-10</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J5" s="28">
+        <f>H5/F5</f>
+        <v>2.6586944533132092E-2</v>
+      </c>
+      <c r="K5" s="28">
+        <f>(F5*G5) + (H5*I5)</f>
+        <v>2.973197450659684E-9</v>
+      </c>
+      <c r="L5" s="32">
+        <v>4.3114861009500003E-11</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" si="3"/>
+        <v>6.1169581594075458E-3</v>
+      </c>
+      <c r="N5" s="31">
+        <f t="shared" si="4"/>
+        <v>3.6113592864070463E-5</v>
+      </c>
+      <c r="O5" s="32">
+        <f>P5*L5*K5</f>
+        <v>6.1530717522716169E-3</v>
+      </c>
+      <c r="P5" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>1</v>
+      </c>
+      <c r="R5" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="5"/>
+        <v>7.8210984902426242E-2</v>
+      </c>
+      <c r="T5" s="13">
+        <f t="shared" si="5"/>
+        <v>6.0094586165536134E-3</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="6"/>
+        <v>8.4220443518979851E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="36"/>
+      <c r="B6" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="35">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683795E-9</v>
+      </c>
+      <c r="E6" s="28">
+        <f>D6*(B5^2)</f>
+        <v>3.1622776601683794E-3</v>
+      </c>
+      <c r="F6" s="37">
+        <v>8.4650160000000005E-8</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H6" s="28">
+        <v>2.8373499999999999E-9</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" ref="J6:J21" si="7">H6/F6</f>
+        <v>3.3518542670208769E-2</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" ref="K6:K21" si="8">(F6*G6) + (H6*I6)</f>
+        <v>2.813942284090609E-8</v>
+      </c>
+      <c r="L6" s="32">
+        <v>4.31148702761E-10</v>
+      </c>
+      <c r="M6" s="31">
+        <f t="shared" si="3"/>
+        <v>0.5780467908313246</v>
+      </c>
+      <c r="N6" s="31">
+        <f t="shared" si="4"/>
+        <v>4.3024405750713189E-3</v>
+      </c>
+      <c r="O6" s="32">
+        <f t="shared" ref="O6:O21" si="9">P6*L6*K6</f>
+        <v>0.58234923140639594</v>
+      </c>
+      <c r="P6" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1</v>
+      </c>
+      <c r="R6" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="5"/>
+        <v>0.76029388451527391</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" si="5"/>
+        <v>6.5592991813693935E-2</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.82588687632896784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="36"/>
+      <c r="B7" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-8</v>
+      </c>
+      <c r="E7" s="28">
+        <f>D7*(B5^2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>7.9057876999999996E-7</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H7" s="28">
+        <v>3.4995669999999999E-8</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="7"/>
+        <v>4.4265886370816659E-2</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="8"/>
+        <v>2.6342690842404188E-7</v>
+      </c>
+      <c r="L7" s="32">
+        <v>4.3114861009500004E-9</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" si="3"/>
+        <v>53.985890006294888</v>
+      </c>
+      <c r="N7" s="31">
+        <f t="shared" si="4"/>
+        <v>0.53065979945640107</v>
+      </c>
+      <c r="O7" s="32">
+        <f t="shared" si="9"/>
+        <v>54.516549805751282</v>
+      </c>
+      <c r="P7" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>1</v>
+      </c>
+      <c r="R7" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="5"/>
+        <v>7.3475091021580159</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="5"/>
+        <v>0.72846400011009538</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="6"/>
+        <v>8.0759731022681116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="36"/>
+      <c r="B8" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="35">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683799E-8</v>
+      </c>
+      <c r="E8" s="28">
+        <f>D8*(B5^2)</f>
+        <v>3.1622776601683798E-2</v>
+      </c>
+      <c r="F8" s="37">
+        <v>9.9379628899999994E-6</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H8" s="28">
+        <v>8.8955709999999999E-8</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" si="7"/>
+        <v>8.9511010440088291E-3</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="8"/>
+        <v>3.2856903777183016E-6</v>
+      </c>
+      <c r="L8" s="32">
+        <v>4.3114870276100002E-8</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" si="3"/>
+        <v>6786.2926141726075</v>
+      </c>
+      <c r="N8" s="31">
+        <f t="shared" si="4"/>
+        <v>13.488877159612931</v>
+      </c>
+      <c r="O8" s="32">
+        <f t="shared" si="9"/>
+        <v>6799.78149133222</v>
+      </c>
+      <c r="P8" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>1</v>
+      </c>
+      <c r="R8" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="5"/>
+        <v>82.378957350603841</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="5"/>
+        <v>3.672720675413927</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="6"/>
+        <v>86.051678026017768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="36"/>
+      <c r="B9" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-7</v>
+      </c>
+      <c r="E9" s="28">
+        <f>D9*(B5^2)</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="F9" s="28">
+        <v>8.1416362770000001E-5</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2.1578645000000001E-6</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="7"/>
+        <v>2.6504064128926207E-2</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="8"/>
+        <v>2.7022598602798677E-5</v>
+      </c>
+      <c r="L9" s="32">
+        <v>4.3114861009500002E-7</v>
+      </c>
+      <c r="M9" s="31">
+        <f t="shared" si="3"/>
+        <v>555964.18370984367</v>
+      </c>
+      <c r="N9" s="31">
+        <f t="shared" si="4"/>
+        <v>3272.0960702397956</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="9"/>
+        <v>559236.27978008345</v>
+      </c>
+      <c r="P9" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>1</v>
+      </c>
+      <c r="R9" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="5"/>
+        <v>745.6300582124112</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="5"/>
+        <v>57.202238332427129</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="6"/>
+        <v>802.8322965448383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="36"/>
+      <c r="B10" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="35">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683802E-7</v>
+      </c>
+      <c r="E10" s="28">
+        <f>D10*(B5^2)</f>
+        <v>0.31622776601683805</v>
+      </c>
+      <c r="F10" s="28">
+        <v>8.8810537231999995E-4</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H10" s="28">
+        <v>2.000833704E-5</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="7"/>
+        <v>2.252923770490451E-2</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="8"/>
+        <v>2.9450905996552065E-4</v>
+      </c>
+      <c r="L10" s="32">
+        <v>4.3114870276099999E-6</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" si="3"/>
+        <v>60645657.419860117</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="4"/>
+        <v>303398.17477786803</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" si="9"/>
+        <v>60949055.594637975</v>
+      </c>
+      <c r="P10" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>1</v>
+      </c>
+      <c r="R10" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="5"/>
+        <v>7787.5321777736572</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="5"/>
+        <v>550.81591732435254</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="6"/>
+        <v>8338.3480950980102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="36"/>
+      <c r="B11" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004E-6</v>
+      </c>
+      <c r="E11" s="28">
+        <f>D11*(B5^2)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F11" s="28">
+        <v>6.3069414272900002E-3</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1.5675302781E-4</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="7"/>
+        <v>2.4854048450764582E-2</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="8"/>
+        <v>2.0925506953694993E-3</v>
+      </c>
+      <c r="L11" s="32">
+        <v>4.3114861009499999E-5</v>
+      </c>
+      <c r="M11" s="31">
+        <f>P11*L11*G11*F11</f>
+        <v>4306792176.6963511</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="4"/>
+        <v>23769377.840698078</v>
+      </c>
+      <c r="O11" s="32">
+        <f t="shared" si="9"/>
+        <v>4330561554.5370493</v>
+      </c>
+      <c r="P11" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>1</v>
+      </c>
+      <c r="R11" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="5"/>
+        <v>65626.154669433061</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="5"/>
+        <v>4875.3848915442641</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="6"/>
+        <v>70501.539560977326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="38"/>
+      <c r="B12" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="39">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683809E-6</v>
+      </c>
+      <c r="E12" s="37">
+        <f>D12*(B5^2)</f>
+        <v>3.1622776601683809</v>
+      </c>
+      <c r="F12" s="37">
+        <v>2.6973519019779998E-2</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1.6263458058200001E-3</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="7"/>
+        <v>6.0294164978154374E-2</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="8"/>
+        <v>9.019461401945433E-3</v>
+      </c>
+      <c r="L12" s="40">
+        <v>4.3114870276100001E-4</v>
+      </c>
+      <c r="M12" s="41">
+        <f t="shared" ref="M12:M21" si="10">P12*L12*G12*F12</f>
+        <v>184192872249.87552</v>
+      </c>
+      <c r="N12" s="41">
+        <f t="shared" si="4"/>
+        <v>2466123736.6052938</v>
+      </c>
+      <c r="O12" s="42">
+        <f t="shared" si="9"/>
+        <v>186658995986.48083</v>
+      </c>
+      <c r="P12" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>1</v>
+      </c>
+      <c r="R12" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="5"/>
+        <v>429176.97078230506</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="5"/>
+        <v>49660.081923062651</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="6"/>
+        <v>478837.05270536768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="38"/>
+      <c r="B13" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="39">
+        <f>D12*(10^(0.25))</f>
+        <v>5.6234132519034937E-6</v>
+      </c>
+      <c r="E13" s="37">
+        <f>D13*(B5^2)</f>
+        <v>5.6234132519034938</v>
+      </c>
+      <c r="F13" s="37">
+        <v>1.5089088069389999E-2</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1.45958890021E-3</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="7"/>
+        <v>9.6731418989524545E-2</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="8"/>
+        <v>5.0858055572099489E-3</v>
+      </c>
+      <c r="L13" s="40">
+        <v>1.3634116179599999E-3</v>
+      </c>
+      <c r="M13" s="41">
+        <f t="shared" si="10"/>
+        <v>325835283863.50995</v>
+      </c>
+      <c r="N13" s="41">
+        <f t="shared" si="4"/>
+        <v>6998942538.997695</v>
+      </c>
+      <c r="O13" s="42">
+        <f t="shared" si="9"/>
+        <v>332834226402.50763</v>
+      </c>
+      <c r="P13" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q13" s="34">
+        <v>1</v>
+      </c>
+      <c r="R13" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="5"/>
+        <v>570819.83485466754</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="5"/>
+        <v>83659.682876506864</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="6"/>
+        <v>654479.51773117436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="38"/>
+      <c r="B14" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="39">
+        <f>D12*SQRT(10)</f>
+        <v>1.0000000000000006E-5</v>
+      </c>
+      <c r="E14" s="37">
+        <f>D14*(B5^2)</f>
+        <v>10.000000000000005</v>
+      </c>
+      <c r="F14" s="37">
+        <v>2.1398983047100002E-3</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H14" s="37">
+        <v>1.26474465616E-3</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="7"/>
+        <v>0.59103026222145572</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="8"/>
+        <v>7.987593732559264E-4</v>
+      </c>
+      <c r="L14" s="37">
+        <v>4.3114861009499999E-3</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="10"/>
+        <v>146126254443.60333</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="4"/>
+        <v>19178062474.626732</v>
+      </c>
+      <c r="O14" s="42">
+        <f t="shared" si="9"/>
+        <v>165304316918.23007</v>
+      </c>
+      <c r="P14" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>1</v>
+      </c>
+      <c r="R14" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="5"/>
+        <v>382264.63927965314</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="5"/>
+        <v>138484.8817547487</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="6"/>
+        <v>520749.52103440184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="38"/>
+      <c r="B15" s="37">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="39">
+        <f>D14*(10^(0.125))</f>
+        <v>1.3335214321633247E-5</v>
+      </c>
+      <c r="E15" s="37">
+        <f>D15*(B6^2)</f>
+        <v>13.335214321633247</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2.1189477745000001E-4</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H15" s="37">
+        <v>3.3639387693000001E-4</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" si="7"/>
+        <v>1.5875515242907654</v>
+      </c>
+      <c r="K15" s="37">
+        <f t="shared" si="8"/>
+        <v>9.4565704076049538E-5</v>
+      </c>
+      <c r="L15" s="37">
+        <v>7.6670269580999999E-3</v>
+      </c>
+      <c r="M15" s="41">
+        <f t="shared" si="10"/>
+        <v>25730923315.627377</v>
+      </c>
+      <c r="N15" s="41">
+        <f t="shared" si="4"/>
+        <v>9070891202.58601</v>
+      </c>
+      <c r="O15" s="42">
+        <f t="shared" si="9"/>
+        <v>34801814518.213387</v>
+      </c>
+      <c r="P15" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>1</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S15" s="47">
+        <f t="shared" si="5"/>
+        <v>160408.61359549049</v>
+      </c>
+      <c r="T15" s="47">
+        <f t="shared" si="5"/>
+        <v>95241.226381152868</v>
+      </c>
+      <c r="U15" s="47">
+        <f t="shared" si="6"/>
+        <v>255649.83997664336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="39">
+        <f>D15*(10^(0.125))</f>
+        <v>1.7782794100389236E-5</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" ref="E16" si="11">D16*(B6^2)</f>
+        <v>17.782794100389236</v>
+      </c>
+      <c r="F16" s="37">
+        <v>3.773607313E-5</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H16" s="37">
+        <v>4.4876935098000001E-4</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="7"/>
+        <v>11.892317185044632</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" si="8"/>
+        <v>4.5333450014203996E-5</v>
+      </c>
+      <c r="L16" s="37">
+        <v>1.3634116178599999E-2</v>
+      </c>
+      <c r="M16" s="41">
+        <f t="shared" si="10"/>
+        <v>8148765546.8386164</v>
+      </c>
+      <c r="N16" s="41">
+        <f t="shared" si="4"/>
+        <v>21519147618.141212</v>
+      </c>
+      <c r="O16" s="42">
+        <f t="shared" si="9"/>
+        <v>29667913164.979828</v>
+      </c>
+      <c r="P16" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>1</v>
+      </c>
+      <c r="R16" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="5"/>
+        <v>90270.513163704876</v>
+      </c>
+      <c r="T16" s="13">
+        <f t="shared" si="5"/>
+        <v>146694.06129131885</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="6"/>
+        <v>236964.57445502374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="39">
+        <f>D16*(10^(0.125))</f>
+        <v>2.3713737056616561E-5</v>
+      </c>
+      <c r="E17" s="37">
+        <f>D17*(B7^2)</f>
+        <v>23.713737056616562</v>
+      </c>
+      <c r="F17" s="37">
+        <v>8.4716690000000004E-8</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1.7866261775E-4</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="7"/>
+        <v>2108.9423790046567</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" si="8"/>
+        <v>1.3118788244065206E-5</v>
+      </c>
+      <c r="L17" s="37">
+        <v>2.42452680824E-2</v>
+      </c>
+      <c r="M17" s="41">
+        <f t="shared" si="10"/>
+        <v>32531500.609682359</v>
+      </c>
+      <c r="N17" s="41">
+        <f t="shared" si="4"/>
+        <v>15234758318.283045</v>
+      </c>
+      <c r="O17" s="42">
+        <f t="shared" si="9"/>
+        <v>15267289818.892727</v>
+      </c>
+      <c r="P17" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>1</v>
+      </c>
+      <c r="R17" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="5"/>
+        <v>5703.639242596113</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="5"/>
+        <v>123429.16315961574</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="6"/>
+        <v>129132.80240221185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="39">
+        <f>D14*SQRT(10)</f>
+        <v>3.1622776601683816E-5</v>
+      </c>
+      <c r="E18" s="37">
+        <f>D18*(B7^2)</f>
+        <v>31.622776601683814</v>
+      </c>
+      <c r="F18" s="37">
+        <v>5.7439999999999998E-11</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H18" s="37">
+        <v>4.8907538800000002E-6</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J18" s="37">
+        <f t="shared" si="7"/>
+        <v>85145.436629526477</v>
+      </c>
+      <c r="K18" s="37">
+        <f t="shared" si="8"/>
+        <v>3.583706426337059E-7</v>
+      </c>
+      <c r="L18" s="37">
+        <v>4.3114870276099997E-2</v>
+      </c>
+      <c r="M18" s="41">
+        <f t="shared" si="10"/>
+        <v>39223.797882190978</v>
+      </c>
+      <c r="N18" s="41">
+        <f t="shared" si="4"/>
+        <v>741613757.06202912</v>
+      </c>
+      <c r="O18" s="42">
+        <f t="shared" si="9"/>
+        <v>741652980.85991132</v>
+      </c>
+      <c r="P18" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>1</v>
+      </c>
+      <c r="R18" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" si="5"/>
+        <v>198.04998834180975</v>
+      </c>
+      <c r="T18" s="13">
+        <f t="shared" si="5"/>
+        <v>27232.586308722664</v>
+      </c>
+      <c r="U18" s="13">
+        <f t="shared" si="6"/>
+        <v>27430.636297064473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="39">
+        <f>D18*(10^(0.125))</f>
+        <v>4.2169650342858256E-5</v>
+      </c>
+      <c r="E19" s="37">
+        <f>D19*(B8^2)</f>
+        <v>42.169650342858255</v>
+      </c>
+      <c r="F19" s="40">
+        <v>3.4820001000000002E-15</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H19" s="37">
+        <v>4.7213999999999998E-9</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" si="7"/>
+        <v>1355944.8203347265</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="8"/>
+        <v>3.4594406658336381E-10</v>
+      </c>
+      <c r="L19" s="37">
+        <v>7.66702695894E-2</v>
+      </c>
+      <c r="M19" s="41">
+        <f t="shared" si="10"/>
+        <v>4.228281538890891</v>
+      </c>
+      <c r="N19" s="41">
+        <f t="shared" si="4"/>
+        <v>1273129.7644128539</v>
+      </c>
+      <c r="O19" s="42">
+        <f t="shared" si="9"/>
+        <v>1273133.9926943926</v>
+      </c>
+      <c r="P19" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>1</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S19" s="47">
+        <f t="shared" si="5"/>
+        <v>2.0562785654893383</v>
+      </c>
+      <c r="T19" s="47">
+        <f t="shared" si="5"/>
+        <v>1128.3305209081486</v>
+      </c>
+      <c r="U19" s="47">
+        <f t="shared" si="6"/>
+        <v>1130.3867994736379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="38"/>
+      <c r="B20" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="39">
+        <f>D18*(10^(0.25))</f>
+        <v>5.6234132519034954E-5</v>
+      </c>
+      <c r="E20" s="37">
+        <f>D20*(B8^2)</f>
+        <v>56.234132519034958</v>
+      </c>
+      <c r="F20" s="40">
+        <v>6.8345000000000003E-29</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H20" s="40">
+        <v>2.2324999999999998E-16</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="7"/>
+        <v>3266515472968.0293</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="8"/>
+        <v>1.6357808354509222E-17</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0.136341161796</v>
+      </c>
+      <c r="M20" s="41">
+        <f t="shared" si="10"/>
+        <v>1.4758487970407779E-13</v>
+      </c>
+      <c r="N20" s="41">
+        <f t="shared" si="4"/>
+        <v>0.10705164458337732</v>
+      </c>
+      <c r="O20" s="42">
+        <f t="shared" si="9"/>
+        <v>0.10705164458352491</v>
+      </c>
+      <c r="P20" s="43">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>1</v>
+      </c>
+      <c r="R20" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="5"/>
+        <v>3.8416777546285396E-7</v>
+      </c>
+      <c r="T20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.32718747620191291</v>
+      </c>
+      <c r="U20" s="13">
+        <f t="shared" si="6"/>
+        <v>0.32718786036968839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="36"/>
+      <c r="B21" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="35">
+        <f>D18*SQRT(10)</f>
+        <v>1.0000000000000007E-4</v>
+      </c>
+      <c r="E21" s="37">
+        <f>D21*(B9^2)</f>
+        <v>100.00000000000007</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="H21" s="45">
+        <v>4.23178778348E-24</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3271258026816E-2</v>
+      </c>
+      <c r="J21" s="37" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="37">
+        <f t="shared" si="8"/>
+        <v>3.1006841459809084E-25</v>
+      </c>
+      <c r="L21" s="28">
+        <v>0.431148610095</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="41">
+        <f t="shared" si="4"/>
+        <v>6.4169071674396993E-9</v>
+      </c>
+      <c r="O21" s="42">
+        <f t="shared" si="9"/>
+        <v>6.4169071674396993E-9</v>
+      </c>
+      <c r="P21" s="33">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>1</v>
+      </c>
+      <c r="R21" s="34">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <f t="shared" si="5"/>
+        <v>8.0105600100365633E-5</v>
+      </c>
+      <c r="U21" s="13">
+        <f t="shared" si="6"/>
+        <v>8.0105600100365633E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F41D82-76F4-44E6-8F5C-D03C34286A1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -127,19 +128,29 @@
   <si>
     <t>reference the particle physics review for these ratios</t>
   </si>
+  <si>
+    <t>K*mu-&gt;mupipi</t>
+  </si>
+  <si>
+    <t>Prob of decay in volume for K</t>
+  </si>
+  <si>
+    <t>Prob of decay in volume for K*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,11 +237,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,9 +279,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -359,6 +380,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +415,21 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -415,6 +464,7 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -429,6 +479,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -452,7 +503,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$K$2:$K$16</c:f>
+              <c:f>Plan1!$L$2:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -504,13 +555,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE65-446F-B5B0-96B8AF12F512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="96956800"/>
         <c:axId val="96958336"/>
       </c:lineChart>
@@ -519,9 +579,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -560,12 +622,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="96958336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -583,6 +647,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -624,6 +689,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1209,13 +1275,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1225,7 +1291,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,20 +1329,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="656167" y="4265083"/>
-          <a:ext cx="4166658" cy="2781731"/>
+          <a:ext cx="4918075" cy="2781731"/>
           <a:chOff x="142875" y="3057525"/>
           <a:chExt cx="3658658" cy="2781731"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw"/>
+          <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -1301,7 +1379,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1607,35 +1691,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1655,28 +1742,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1692,30 +1785,34 @@
       <c r="E2" s="1">
         <v>0.80601940019700002</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H2" s="4">
         <v>1.88311669E-6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I16" si="0">(F2*H2)/(E2*G2)</f>
+      <c r="I2" s="49"/>
+      <c r="J2" s="53">
+        <f>(F2*I2*G2)/(E2*H2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J16" si="1">E2*G2+F2*H2</f>
+      <c r="K2" s="55">
+        <f>E2*H2+F2*I2*G2</f>
         <v>1.51782858497476E-6</v>
       </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:K16" si="2">(4.8*(10^16))*D2*E2*G2</f>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L16" si="0">(4.8*(10^16))*D2*E2*H2</f>
         <v>5318.9704841075927</v>
       </c>
-      <c r="L2" s="6">
-        <f>(4.8*(10^16))*D2*F2*H2</f>
+      <c r="M2" s="6">
+        <f>(4.8*(10^16))*D2*F2*I2*0.692</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="2"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1731,563 +1828,606 @@
       <c r="E3" s="1">
         <v>0.815322621606</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H3" s="51">
         <v>4.8327330700000002E-6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="53">
+        <f t="shared" ref="J3:J16" si="1">(F3*I3*G3)/(E3*H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="55">
+        <f t="shared" ref="K3:K16" si="2">E3*H3+F3*I3*G3</f>
+        <v>3.9402365961544126E-6</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>12452.303753534603</v>
+      </c>
+      <c r="M3" s="17">
+        <f t="shared" ref="M3:M16" si="3">(4.8*(10^16))*D3*F3*I3*0.692</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.66287837877E-3</v>
+      </c>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6.2053742007999999E-8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.81673440942499997</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H4" s="51">
+        <v>5.3506629599999998E-6</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="55">
+        <f t="shared" si="2"/>
+        <v>4.3700705526678217E-6</v>
+      </c>
+      <c r="L4" s="14">
+        <f t="shared" si="0"/>
+        <v>13016.603070336336</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>2.0395659816199998E-3</v>
+      </c>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.81598630698E-8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.81545991430700004</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H5" s="51">
+        <v>6.6267680899999999E-6</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="55">
+        <f t="shared" si="2"/>
+        <v>5.4038637388037619E-6</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>15085.822804640846</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.42437635812E-3</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.4179206563700001E-8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.59161377325099995</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H6" s="51">
+        <v>7.0686097200000001E-6</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="55">
+        <f t="shared" si="2"/>
+        <v>4.181886868087894E-6</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="0"/>
+        <v>10875.422997703608</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.8551089506200001E-3</v>
+      </c>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.0134391530400001E-8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.32996425094699999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.10588332084800001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H7" s="51">
+        <v>1.101573253E-5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.3677489E-7</v>
+      </c>
+      <c r="J7" s="53">
+        <f t="shared" si="1"/>
+        <v>4.7729734581554084E-3</v>
+      </c>
+      <c r="K7" s="55">
+        <f t="shared" si="2"/>
+        <v>3.6521467269534123E-6</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>8746.9623696765084</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="3"/>
+        <v>41.749019229950122</v>
+      </c>
+      <c r="N7" s="2">
+        <v>7.8733266383400006E-3</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7.7840949854600001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.1948867536799998E-8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.10577999634099999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.40000993640400001</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H8" s="51">
+        <v>1.259418322E-5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.0411373199999998E-6</v>
+      </c>
+      <c r="J8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.63188689725750113</v>
+      </c>
+      <c r="K8" s="55">
+        <f t="shared" si="2"/>
+        <v>2.174020375940053E-6</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>2682.4709852393062</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="3"/>
+        <v>1695.0182678461376</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.8806060876899998E-2</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2.8806060876899998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.7859499562300002E-8</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13">
+        <v>0.42972501268699997</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="1">
+        <v>7.7434513800000007E-6</v>
+      </c>
+      <c r="J9" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="55">
+        <f t="shared" si="2"/>
+        <v>2.302667881818074E-6</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M9" s="17">
+        <f t="shared" si="3"/>
+        <v>4184.536975863055</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="14">
+        <v>4.2301875617800001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.3808652123E-8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.9288787928399998E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.44689036495000001</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H10" s="51">
+        <v>1.6168272070000001E-5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.9381630409999999E-5</v>
+      </c>
+      <c r="J10" s="53">
         <f t="shared" si="1"/>
-        <v>3.9402365961544126E-6</v>
-      </c>
-      <c r="K3" s="2">
+        <v>6.2526081578308812</v>
+      </c>
+      <c r="K10" s="55">
         <f t="shared" si="2"/>
-        <v>12452.303753534603</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L16" si="3">(4.8*(10^16))*D3*F3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.66287837877E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1">
-      <c r="A4" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="B4" s="16">
+        <v>6.9523302639045368E-6</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>1555.6262920357324</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="3"/>
+        <v>9726.7216441188248</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5.75017429156E-2</v>
+      </c>
+      <c r="O10" s="14">
+        <v>5.75017429156E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="B11" s="3">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C11" s="3">
         <v>1000</v>
       </c>
-      <c r="D4" s="17">
-        <v>6.2053742007999999E-8</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.81673440942499997</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
-        <v>5.3506629599999998E-6</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14">
+      <c r="D11" s="5">
+        <v>2.9825037703799999E-8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="13">
+        <v>0.45788365050800001</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="1">
+        <v>2.2677972969999999E-5</v>
+      </c>
+      <c r="J11" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="55">
+        <f t="shared" si="2"/>
+        <v>7.1856401503407415E-6</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="M11" s="17">
+        <f t="shared" si="3"/>
+        <v>10286.975443672882</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="14">
+        <v>7.3992581073399996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.5938578555499999E-8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.9835030102799998E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.46543865357199998</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H12" s="51">
+        <v>2.3069834469999999E-5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.4034804189999999E-5</v>
+      </c>
+      <c r="J12" s="53">
         <f t="shared" si="1"/>
-        <v>4.3700705526678217E-6</v>
-      </c>
-      <c r="K4" s="15">
+        <v>4.9188691728926326</v>
+      </c>
+      <c r="K12" s="55">
         <f t="shared" si="2"/>
-        <v>13016.603070336336</v>
-      </c>
-      <c r="L4" s="18">
+        <v>5.4393670833945252E-6</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>1144.1870770666346</v>
+      </c>
+      <c r="M12" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="15">
-        <v>2.0395659816199998E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="B5" s="3">
+        <v>5628.1065414051964</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.106580097336</v>
+      </c>
+      <c r="O12" s="14">
+        <v>9.1342470927E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="B13" s="3">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C13" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="5">
-        <v>5.81598630698E-8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.81545991430700004</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>6.6267680899999999E-6</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="14">
+      <c r="D13" s="5">
+        <v>2.21803979991E-8</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13">
+        <v>0.470906352237</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="1">
+        <v>2.6700619840000001E-5</v>
+      </c>
+      <c r="J13" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="55">
+        <f t="shared" si="2"/>
+        <v>8.7008561119943181E-6</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M13" s="17">
+        <f t="shared" si="3"/>
+        <v>9263.4456718529182</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="14">
+        <v>0.109110206391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.8582804287899999E-8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.9415175028E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.47502332664899999</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H14" s="51">
+        <v>2.4667161229999999E-5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.8101761589999999E-5</v>
+      </c>
+      <c r="J14" s="53">
         <f t="shared" si="1"/>
-        <v>5.4038637388037619E-6</v>
-      </c>
-      <c r="K5" s="2">
+        <v>12.731042467298398</v>
+      </c>
+      <c r="K14" s="55">
         <f t="shared" si="2"/>
-        <v>15085.822804640846</v>
-      </c>
-      <c r="L5" s="6">
+        <v>9.963091519448137E-6</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>647.20684186689141</v>
+      </c>
+      <c r="M14" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2.42437635812E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="B6" s="3">
+        <v>8239.617788933474</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.12685350035500001</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.12685350035500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="B15" s="3">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="D6" s="5">
-        <v>5.4179206563700001E-8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.59161377325099995</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="1">
-        <v>7.0686097200000001E-6</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="14">
+      <c r="D15" s="5">
+        <v>1.5179258772699999E-8</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="13">
+        <v>0.478221760853</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="1">
+        <v>4.0250268999999998E-5</v>
+      </c>
+      <c r="J15" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="55">
+        <f t="shared" si="2"/>
+        <v>1.3319999725062947E-5</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" si="1"/>
-        <v>4.181886868087894E-6</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="2"/>
-        <v>10875.422997703608</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="M15" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3.8551089506200001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5.0134391530400001E-8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.32996425094699999</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.10588332084800001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.101573253E-5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.3677489E-7</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8973604886638862E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6598684445405711E-6</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="2"/>
-        <v>8746.9623696765084</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="3"/>
-        <v>60.330952644436593</v>
-      </c>
-      <c r="M7" s="2">
-        <v>7.8733266383400006E-3</v>
-      </c>
-      <c r="N7">
-        <v>7.7840949854600001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.1948867536799998E-8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.10577999634099999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.40000993640400001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.259418322E-5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.0411373199999998E-6</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91313135441835436</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5486978008985142E-6</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
-        <v>2682.4709852393062</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="3"/>
-        <v>2449.4483639395053</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2.8806060876899998E-2</v>
-      </c>
-      <c r="N8">
-        <v>2.8806060876899998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3.7859499562300002E-8</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>0.42972501268699997</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>7.7434513800000007E-6</v>
-      </c>
-      <c r="I9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3275547425116677E-6</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="3"/>
-        <v>6047.0187512471903</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9">
-        <v>4.2301875617800001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3.3808652123E-8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5.9288787928399998E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.44689036495000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.6168272070000001E-5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.9381630409999999E-5</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0355609217209274</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="1"/>
-        <v>9.6200611411778201E-6</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>1555.6262920357324</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="3"/>
-        <v>14055.956133119691</v>
-      </c>
-      <c r="M10" s="2">
-        <v>5.75017429156E-2</v>
-      </c>
-      <c r="N10">
-        <v>5.75017429156E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2.9825037703799999E-8</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>0.45788365050800001</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>2.2677972969999999E-5</v>
-      </c>
-      <c r="I11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.038387304962535E-5</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="3"/>
-        <v>14865.571450394338</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11">
-        <v>7.3992581073399996E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2.5938578555499999E-8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3.9835030102799998E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.46543865357199998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2.3069834469999999E-5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.4034804189999999E-5</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1081924463766368</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4513279159193262E-6</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="2"/>
-        <v>1144.1870770666346</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="3"/>
-        <v>8133.1019384468163</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.106580097336</v>
-      </c>
-      <c r="N12">
-        <v>9.1342470927E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.21803979991E-8</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>0.470906352237</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>2.6700619840000001E-5</v>
-      </c>
-      <c r="I13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2573491491321271E-5</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="3"/>
-        <v>13386.482184758554</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13">
-        <v>0.109110206391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.8582804287899999E-8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.9415175028E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.47502332664899999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.4667161229999999E-5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2.8101761589999999E-5</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>18.397460212858959</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4074581140203237E-5</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="2"/>
-        <v>647.20684186689141</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="3"/>
-        <v>11906.962122736235</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.12685350035500001</v>
-      </c>
-      <c r="N14">
-        <v>0.12685350035500001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.5179258772699999E-8</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>0.478221760853</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>4.0250268999999998E-5</v>
-      </c>
-      <c r="I15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.924855451598692E-5</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="3"/>
-        <v>14024.581919932252</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15">
+        <v>9705.0106885931182</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="14">
         <v>0.144138075324</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2303,202 +2443,59 @@
       <c r="E16" s="1">
         <v>2.2998912913200002E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="13">
         <v>0.480770216561</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H16" s="51">
         <v>2.9713407810000001E-5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>3.470996069E-5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="53">
+        <f t="shared" si="1"/>
+        <v>16.89810480919893</v>
+      </c>
+      <c r="K16" s="55">
+        <f t="shared" si="2"/>
+        <v>1.2231136678463114E-5</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>24.419226602888624</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7370891396331682E-5</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="2"/>
         <v>393.76593636650824</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="17">
         <f t="shared" si="3"/>
-        <v>9615.4596286323886</v>
-      </c>
-      <c r="M16" s="2">
+        <v>6653.898063013612</v>
+      </c>
+      <c r="N16" s="2">
         <v>0.16054767188399999</v>
       </c>
-      <c r="N16">
+      <c r="O16" s="14">
         <v>0.16054767188399999</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="10">
-        <v>5.0134391530400001E-8</v>
-      </c>
-      <c r="D18">
-        <f>ABS(C18-D7)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5318.97047097</v>
-      </c>
-      <c r="L18">
-        <f>ABS(K2-K18)</f>
-        <v>1.3137592759449035E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="10">
-        <v>4.1948867536799998E-8</v>
-      </c>
-      <c r="D19">
-        <f>ABS(C19-D8)</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>12452.303764300001</v>
-      </c>
-      <c r="L19">
-        <f>ABS(K3-K19)</f>
-        <v>1.0765397746581584E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="10">
-        <v>3.3808652123E-8</v>
-      </c>
-      <c r="D20">
-        <f>ABS(C20-D10)</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>15085.822797299999</v>
-      </c>
-      <c r="L20">
-        <f>ABS(K5-K20)</f>
-        <v>7.3408464231761172E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="10">
-        <v>2.5938578555499999E-8</v>
-      </c>
-      <c r="D21">
-        <f>ABS(C21-D12)</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>60.330953868100003</v>
-      </c>
-      <c r="J21">
-        <f>ABS(I21-L7)</f>
-        <v>1.2236634105988742E-6</v>
-      </c>
-      <c r="K21">
-        <v>8746.9623659099998</v>
-      </c>
-      <c r="L21">
-        <f>ABS(K7-K21)</f>
-        <v>3.7665085983462632E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="10">
-        <v>1.8582804287899999E-8</v>
-      </c>
-      <c r="D22">
-        <f>ABS(C22-D14)</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>2449.4483602800001</v>
-      </c>
-      <c r="J22">
-        <f>ABS(I22-L8)</f>
-        <v>3.6595051824406255E-6</v>
-      </c>
-      <c r="K22">
-        <v>2682.4709858699998</v>
-      </c>
-      <c r="L22">
-        <f>ABS(K8-K22)</f>
-        <v>6.3069364841794595E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="10">
-        <v>1.20043081179E-8</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23" si="4">ABS(C23-D16)</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>14055.956132400001</v>
-      </c>
-      <c r="J23">
-        <f>ABS(I23-L10)</f>
-        <v>7.196904334705323E-7</v>
-      </c>
-      <c r="K23">
-        <v>1555.62629221</v>
-      </c>
-      <c r="L23">
-        <f>ABS(K10-K23)</f>
-        <v>1.7426759768568445E-7</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="I24">
-        <v>5689.9093270000003</v>
-      </c>
-      <c r="J24">
-        <f>ABS(I24-L12)</f>
-        <v>2443.192611446816</v>
-      </c>
-      <c r="K24">
-        <v>1144.18707713</v>
-      </c>
-      <c r="L24">
-        <f>ABS(K12-K24)</f>
-        <v>6.3365405367221683E-8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="I25">
-        <v>11906.962123900001</v>
-      </c>
-      <c r="J25">
-        <f>ABS(I25-L14)</f>
-        <v>1.1637657735263929E-6</v>
-      </c>
-      <c r="K25">
-        <v>647.20684185300001</v>
-      </c>
-      <c r="L25">
-        <f>ABS(K14-K25)</f>
-        <v>1.3891394701204263E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="I26">
-        <v>9615.4596280000005</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ref="J26" si="5">ABS(I26-L16)</f>
-        <v>6.3238803704734892E-7</v>
-      </c>
-      <c r="K26">
-        <v>393.76593636600001</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26" si="6">ABS(K16-K26)</f>
-        <v>5.0823700803448446E-10</v>
-      </c>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2508,23 +2505,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2571,219 +2568,219 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="16">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1.11E-2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>10000</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>5.31218202498E-9</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>0.32996425094699999</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>0.10588332084800001</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>1.0933118E-6</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>2.517598E-8</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f t="shared" ref="J2:J6" si="0">(G2*I2)/(F2*H2)</f>
         <v>7.3892951383343359E-3</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <f t="shared" ref="K2:K6" si="1">F2*H2+G2*I2</f>
         <v>3.6341952550651906E-7</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <f t="shared" ref="L2:L6" si="2">(4.8*(10^16))*E2*F2*H2</f>
         <v>91.986715216737196</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <f>(4.8*(10^16))*E2*G2*I2</f>
         <v>0.6797169875423813</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>8.3452680136899995E-4</v>
       </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="16">
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>10000</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>6.93613874235E-9</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0.47782701477599998</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>7.6665746319900002E-2</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>3.0743766999999999E-6</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>2.0350186000000001E-7</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <f t="shared" si="0"/>
         <v>1.0620426826302031E-2</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f t="shared" si="1"/>
         <v>1.4846218628322779E-6</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <f t="shared" si="2"/>
         <v>489.08775388371544</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <f t="shared" ref="M3:M6" si="3">(4.8*(10^16))*E3*G3*I3</f>
         <v>5.1943207017624173</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>8.2736851705699996E-4</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="16">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
         <v>10000</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="e">
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="16">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>10000</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="e">
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="16">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>10000</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="e">
+      <c r="E6" s="16"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="H10" s="21"/>
-    </row>
-    <row r="14" spans="1:15" ht="18">
-      <c r="K14" s="20"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="K14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2792,1520 +2789,1521 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="22" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="22" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="27">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26">
         <v>1E-10</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <f>D3*(B5^2)</f>
         <v>1E-4</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>1.0017E-10</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>3.12E-12</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <f>0.105883320848*Q3*R3</f>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <f>H3/F3</f>
         <v>3.1147050014974541E-2</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <f t="shared" ref="K3:K4" si="0">(F3*G3) + (H3*I3)</f>
         <v>3.3281125342404652E-11</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <v>4.3114861009499998E-13</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <f>P3*L3*G3*F3</f>
         <v>6.8402628645473969E-7</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <f>P3*L3*I3*H3</f>
         <v>4.7310383664721125E-9</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="31">
         <f>P3*L3*K3</f>
         <v>6.8875732482121175E-7</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="33">
         <v>1</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <f>SQRT(M3)</f>
         <v>8.2705881680491123E-4</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="12">
         <f>SQRT(N3)</f>
         <v>6.8782544053503224E-5</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="12">
         <f>S3+T3</f>
         <v>8.9584136085841442E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="27">
+      <c r="C4" s="22"/>
+      <c r="D4" s="26">
         <f t="shared" ref="D4:D12" si="1">D3*SQRT(10)</f>
         <v>3.1622776601683795E-10</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <f>D4*(B5^2)</f>
         <v>3.1622776601683794E-4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>8.2169999999999996E-10</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>2.6510000000000001E-11</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <f t="shared" ref="I4:I21" si="2">0.105883320848*Q4*R4</f>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <f>H4/F4</f>
         <v>3.2262382864792508E-2</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <f t="shared" si="0"/>
         <v>2.7307404605344077E-10</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <v>4.3114870276100001E-12</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <f t="shared" ref="M4:M10" si="3">P4*L4*G4*F4</f>
         <v>5.6111063230843195E-5</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="30">
         <f t="shared" ref="N4:N21" si="4">P4*L4*I4*H4</f>
         <v>4.0198671170331718E-7</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="31">
         <f>P4*L4*K4</f>
         <v>5.651304994254651E-5</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="33">
         <v>1</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <f t="shared" ref="S4:T21" si="5">SQRT(M4)</f>
         <v>7.4907318221147925E-3</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <f t="shared" si="5"/>
         <v>6.3402422012358262E-4</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <f t="shared" ref="U4:U21" si="6">S4+T4</f>
         <v>8.1247560422383746E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>1000</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="35">
+      <c r="C5" s="22"/>
+      <c r="D5" s="34">
         <f t="shared" si="1"/>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <f>D5*(B5^2)</f>
         <v>1E-3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>8.9577799999999992E-9</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>2.3815999999999998E-10</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f>H5/F5</f>
         <v>2.6586944533132092E-2</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <f>(F5*G5) + (H5*I5)</f>
         <v>2.973197450659684E-9</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="31">
         <v>4.3114861009500003E-11</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <f t="shared" si="3"/>
         <v>6.1169581594075458E-3</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <f t="shared" si="4"/>
         <v>3.6113592864070463E-5</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="31">
         <f>P5*L5*K5</f>
         <v>6.1530717522716169E-3</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>1</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <f t="shared" si="5"/>
         <v>7.8210984902426242E-2</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="12">
         <f t="shared" si="5"/>
         <v>6.0094586165536134E-3</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="12">
         <f t="shared" si="6"/>
         <v>8.4220443518979851E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27">
         <v>1000</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="35">
+      <c r="C6" s="22"/>
+      <c r="D6" s="34">
         <f t="shared" si="1"/>
         <v>3.1622776601683795E-9</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <f>D6*(B5^2)</f>
         <v>3.1622776601683794E-3</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>8.4650160000000005E-8</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>2.8373499999999999E-9</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
         <f t="shared" ref="J6:J21" si="7">H6/F6</f>
         <v>3.3518542670208769E-2</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="27">
         <f t="shared" ref="K6:K21" si="8">(F6*G6) + (H6*I6)</f>
         <v>2.813942284090609E-8</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <v>4.31148702761E-10</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="3"/>
         <v>0.5780467908313246</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <f t="shared" si="4"/>
         <v>4.3024405750713189E-3</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <f t="shared" ref="O6:O21" si="9">P6*L6*K6</f>
         <v>0.58234923140639594</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <v>1</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <f t="shared" si="5"/>
         <v>0.76029388451527391</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="12">
         <f t="shared" si="5"/>
         <v>6.5592991813693935E-2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <f t="shared" si="6"/>
         <v>0.82588687632896784</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="27">
         <v>1000</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="35">
+      <c r="C7" s="22"/>
+      <c r="D7" s="34">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-8</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <f>D7*(B5^2)</f>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>7.9057876999999996E-7</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>3.4995669999999999E-8</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <f t="shared" si="7"/>
         <v>4.4265886370816659E-2</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <f t="shared" si="8"/>
         <v>2.6342690842404188E-7</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <v>4.3114861009500004E-9</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <f t="shared" si="3"/>
         <v>53.985890006294888</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <f t="shared" si="4"/>
         <v>0.53065979945640107</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="31">
         <f t="shared" si="9"/>
         <v>54.516549805751282</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="33">
         <v>1</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <f t="shared" si="5"/>
         <v>7.3475091021580159</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <f t="shared" si="5"/>
         <v>0.72846400011009538</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <f t="shared" si="6"/>
         <v>8.0759731022681116</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="27">
         <v>1000</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="35">
+      <c r="C8" s="22"/>
+      <c r="D8" s="34">
         <f t="shared" si="1"/>
         <v>3.1622776601683799E-8</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <f>D8*(B5^2)</f>
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>8.8955709999999999E-8</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <f t="shared" si="7"/>
         <v>8.9511010440088291E-3</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <f t="shared" si="8"/>
         <v>3.2856903777183016E-6</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>4.3114870276100002E-8</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <f t="shared" si="3"/>
         <v>6786.2926141726075</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <f t="shared" si="4"/>
         <v>13.488877159612931</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="31">
         <f t="shared" si="9"/>
         <v>6799.78149133222</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="33">
         <v>1</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <f t="shared" si="5"/>
         <v>82.378957350603841</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <f t="shared" si="5"/>
         <v>3.672720675413927</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <f t="shared" si="6"/>
         <v>86.051678026017768</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="27">
         <v>1000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="35">
+      <c r="C9" s="22"/>
+      <c r="D9" s="34">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-7</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <f>D9*(B5^2)</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>8.1416362770000001E-5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>2.1578645000000001E-6</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <f t="shared" si="7"/>
         <v>2.6504064128926207E-2</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <f t="shared" si="8"/>
         <v>2.7022598602798677E-5</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <v>4.3114861009500002E-7</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <f t="shared" si="3"/>
         <v>555964.18370984367</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="30">
         <f t="shared" si="4"/>
         <v>3272.0960702397956</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="31">
         <f t="shared" si="9"/>
         <v>559236.27978008345</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <v>1</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <f t="shared" si="5"/>
         <v>745.6300582124112</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <f t="shared" si="5"/>
         <v>57.202238332427129</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <f t="shared" si="6"/>
         <v>802.8322965448383</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="27">
         <v>1000</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="35">
+      <c r="C10" s="22"/>
+      <c r="D10" s="34">
         <f t="shared" si="1"/>
         <v>3.1622776601683802E-7</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <f>D10*(B5^2)</f>
         <v>0.31622776601683805</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>8.8810537231999995E-4</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>2.000833704E-5</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <f t="shared" si="7"/>
         <v>2.252923770490451E-2</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <f t="shared" si="8"/>
         <v>2.9450905996552065E-4</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <v>4.3114870276099999E-6</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <f t="shared" si="3"/>
         <v>60645657.419860117</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <f t="shared" si="4"/>
         <v>303398.17477786803</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="31">
         <f t="shared" si="9"/>
         <v>60949055.594637975</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="33">
         <v>1</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <f t="shared" si="5"/>
         <v>7787.5321777736572</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="12">
         <f t="shared" si="5"/>
         <v>550.81591732435254</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <f t="shared" si="6"/>
         <v>8338.3480950980102</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="27">
         <v>1000</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="35">
+      <c r="C11" s="22"/>
+      <c r="D11" s="34">
         <f t="shared" si="1"/>
         <v>1.0000000000000004E-6</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <f>D11*(B5^2)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>6.3069414272900002E-3</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>1.5675302781E-4</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <f t="shared" si="7"/>
         <v>2.4854048450764582E-2</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <f t="shared" si="8"/>
         <v>2.0925506953694993E-3</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <v>4.3114861009499999E-5</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <f>P11*L11*G11*F11</f>
         <v>4306792176.6963511</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <f t="shared" si="4"/>
         <v>23769377.840698078</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <f t="shared" si="9"/>
         <v>4330561554.5370493</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="33">
         <v>1</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="12">
         <f t="shared" si="5"/>
         <v>65626.154669433061</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="12">
         <f t="shared" si="5"/>
         <v>4875.3848915442641</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="12">
         <f t="shared" si="6"/>
         <v>70501.539560977326</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="38"/>
-      <c r="B12" s="28">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="27">
         <v>1000</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="39">
+      <c r="C12" s="22"/>
+      <c r="D12" s="38">
         <f t="shared" si="1"/>
         <v>3.1622776601683809E-6</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <f>D12*(B5^2)</f>
         <v>3.1622776601683809</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <v>2.6973519019779998E-2</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>1.6263458058200001E-3</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <f t="shared" si="7"/>
         <v>6.0294164978154374E-2</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="36">
         <f t="shared" si="8"/>
         <v>9.019461401945433E-3</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="39">
         <v>4.3114870276100001E-4</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="40">
         <f t="shared" ref="M12:M21" si="10">P12*L12*G12*F12</f>
         <v>184192872249.87552</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="40">
         <f t="shared" si="4"/>
         <v>2466123736.6052938</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="41">
         <f t="shared" si="9"/>
         <v>186658995986.48083</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="33">
         <v>1</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="12">
         <f t="shared" si="5"/>
         <v>429176.97078230506</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="12">
         <f t="shared" si="5"/>
         <v>49660.081923062651</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="12">
         <f t="shared" si="6"/>
         <v>478837.05270536768</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="27">
         <v>1000</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="39">
+      <c r="C13" s="22"/>
+      <c r="D13" s="38">
         <f>D12*(10^(0.25))</f>
         <v>5.6234132519034937E-6</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <f>D13*(B5^2)</f>
         <v>5.6234132519034938</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <v>1.5089088069389999E-2</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>1.45958890021E-3</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <f t="shared" si="7"/>
         <v>9.6731418989524545E-2</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="36">
         <f t="shared" si="8"/>
         <v>5.0858055572099489E-3</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="39">
         <v>1.3634116179599999E-3</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="40">
         <f t="shared" si="10"/>
         <v>325835283863.50995</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="40">
         <f t="shared" si="4"/>
         <v>6998942538.997695</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="41">
         <f t="shared" si="9"/>
         <v>332834226402.50763</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="33">
         <v>1</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <f t="shared" si="5"/>
         <v>570819.83485466754</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <f t="shared" si="5"/>
         <v>83659.682876506864</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="12">
         <f t="shared" si="6"/>
         <v>654479.51773117436</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="38"/>
-      <c r="B14" s="28">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="27">
         <v>1000</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="39">
+      <c r="C14" s="22"/>
+      <c r="D14" s="38">
         <f>D12*SQRT(10)</f>
         <v>1.0000000000000006E-5</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <f>D14*(B5^2)</f>
         <v>10.000000000000005</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>2.1398983047100002E-3</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>1.26474465616E-3</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <f t="shared" si="7"/>
         <v>0.59103026222145572</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <f t="shared" si="8"/>
         <v>7.987593732559264E-4</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="36">
         <v>4.3114861009499999E-3</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="40">
         <f t="shared" si="10"/>
         <v>146126254443.60333</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="40">
         <f t="shared" si="4"/>
         <v>19178062474.626732</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="41">
         <f t="shared" si="9"/>
         <v>165304316918.23007</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="33">
         <v>1</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="12">
         <f t="shared" si="5"/>
         <v>382264.63927965314</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="12">
         <f t="shared" si="5"/>
         <v>138484.8817547487</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="12">
         <f t="shared" si="6"/>
         <v>520749.52103440184</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="36">
         <v>1000</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="39">
+      <c r="C15" s="43"/>
+      <c r="D15" s="38">
         <f>D14*(10^(0.125))</f>
         <v>1.3335214321633247E-5</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <f>D15*(B6^2)</f>
         <v>13.335214321633247</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>2.1189477745000001E-4</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>3.3639387693000001E-4</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <f t="shared" si="7"/>
         <v>1.5875515242907654</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <f t="shared" si="8"/>
         <v>9.4565704076049538E-5</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="36">
         <v>7.6670269580999999E-3</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="40">
         <f t="shared" si="10"/>
         <v>25730923315.627377</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="40">
         <f t="shared" si="4"/>
         <v>9070891202.58601</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="41">
         <f t="shared" si="9"/>
         <v>34801814518.213387</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="45">
         <v>1</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="45">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="46">
         <f t="shared" si="5"/>
         <v>160408.61359549049</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="46">
         <f t="shared" si="5"/>
         <v>95241.226381152868</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="46">
         <f t="shared" si="6"/>
         <v>255649.83997664336</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36">
         <v>1000</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="39">
+      <c r="C16" s="43"/>
+      <c r="D16" s="38">
         <f>D15*(10^(0.125))</f>
         <v>1.7782794100389236E-5</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <f t="shared" ref="E16" si="11">D16*(B6^2)</f>
         <v>17.782794100389236</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>3.773607313E-5</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>4.4876935098000001E-4</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <f t="shared" si="7"/>
         <v>11.892317185044632</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <f t="shared" si="8"/>
         <v>4.5333450014203996E-5</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="36">
         <v>1.3634116178599999E-2</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="40">
         <f t="shared" si="10"/>
         <v>8148765546.8386164</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="40">
         <f t="shared" si="4"/>
         <v>21519147618.141212</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="41">
         <f t="shared" si="9"/>
         <v>29667913164.979828</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="33">
         <v>1</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="12">
         <f t="shared" si="5"/>
         <v>90270.513163704876</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <f t="shared" si="5"/>
         <v>146694.06129131885</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <f t="shared" si="6"/>
         <v>236964.57445502374</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="36">
         <v>1000</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="39">
+      <c r="C17" s="43"/>
+      <c r="D17" s="38">
         <f>D16*(10^(0.125))</f>
         <v>2.3713737056616561E-5</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <f>D17*(B7^2)</f>
         <v>23.713737056616562</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <v>8.4716690000000004E-8</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>1.7866261775E-4</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <f t="shared" si="7"/>
         <v>2108.9423790046567</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <f t="shared" si="8"/>
         <v>1.3118788244065206E-5</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <v>2.42452680824E-2</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="40">
         <f t="shared" si="10"/>
         <v>32531500.609682359</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="40">
         <f t="shared" si="4"/>
         <v>15234758318.283045</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="41">
         <f t="shared" si="9"/>
         <v>15267289818.892727</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <v>1</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <f t="shared" si="5"/>
         <v>5703.639242596113</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <f t="shared" si="5"/>
         <v>123429.16315961574</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12">
         <f t="shared" si="6"/>
         <v>129132.80240221185</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36">
         <v>1000</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="39">
+      <c r="C18" s="43"/>
+      <c r="D18" s="38">
         <f>D14*SQRT(10)</f>
         <v>3.1622776601683816E-5</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <f>D18*(B7^2)</f>
         <v>31.622776601683814</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>5.7439999999999998E-11</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>4.8907538800000002E-6</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <f t="shared" si="7"/>
         <v>85145.436629526477</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="36">
         <f t="shared" si="8"/>
         <v>3.583706426337059E-7</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="36">
         <v>4.3114870276099997E-2</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="40">
         <f t="shared" si="10"/>
         <v>39223.797882190978</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="40">
         <f t="shared" si="4"/>
         <v>741613757.06202912</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="41">
         <f t="shared" si="9"/>
         <v>741652980.85991132</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="33">
         <v>1</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="12">
         <f t="shared" si="5"/>
         <v>198.04998834180975</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="12">
         <f t="shared" si="5"/>
         <v>27232.586308722664</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="12">
         <f t="shared" si="6"/>
         <v>27430.636297064473</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="36">
         <v>1000</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="39">
+      <c r="C19" s="43"/>
+      <c r="D19" s="38">
         <f>D18*(10^(0.125))</f>
         <v>4.2169650342858256E-5</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <f>D19*(B8^2)</f>
         <v>42.169650342858255</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>3.4820001000000002E-15</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>4.7213999999999998E-9</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <f t="shared" si="7"/>
         <v>1355944.8203347265</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="36">
         <f t="shared" si="8"/>
         <v>3.4594406658336381E-10</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="36">
         <v>7.66702695894E-2</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="40">
         <f t="shared" si="10"/>
         <v>4.228281538890891</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="40">
         <f t="shared" si="4"/>
         <v>1273129.7644128539</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="41">
         <f t="shared" si="9"/>
         <v>1273133.9926943926</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <v>1</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S19" s="47">
+      <c r="S19" s="46">
         <f t="shared" si="5"/>
         <v>2.0562785654893383</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="46">
         <f t="shared" si="5"/>
         <v>1128.3305209081486</v>
       </c>
-      <c r="U19" s="47">
+      <c r="U19" s="46">
         <f t="shared" si="6"/>
         <v>1130.3867994736379</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="38"/>
-      <c r="B20" s="28">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="27">
         <v>1000</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="39">
+      <c r="C20" s="22"/>
+      <c r="D20" s="38">
         <f>D18*(10^(0.25))</f>
         <v>5.6234132519034954E-5</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <f>D20*(B8^2)</f>
         <v>56.234132519034958</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>6.8345000000000003E-29</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="39">
         <v>2.2324999999999998E-16</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <f t="shared" si="7"/>
         <v>3266515472968.0293</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="36">
         <f t="shared" si="8"/>
         <v>1.6357808354509222E-17</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="36">
         <v>0.136341161796</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="40">
         <f t="shared" si="10"/>
         <v>1.4758487970407779E-13</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="40">
         <f t="shared" si="4"/>
         <v>0.10705164458337732</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="41">
         <f t="shared" si="9"/>
         <v>0.10705164458352491</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="42">
         <v>4.8E+16</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="33">
         <v>1</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="12">
         <f t="shared" si="5"/>
         <v>3.8416777546285396E-7</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="12">
         <f t="shared" si="5"/>
         <v>0.32718747620191291</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="12">
         <f t="shared" si="6"/>
         <v>0.32718786036968839</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="27">
         <v>1000</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="35">
+      <c r="C21" s="22"/>
+      <c r="D21" s="34">
         <f>D18*SQRT(10)</f>
         <v>1.0000000000000007E-4</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <f>D21*(B9^2)</f>
         <v>100.00000000000007</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>0</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="44">
         <v>4.23178778348E-24</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <f t="shared" si="2"/>
         <v>7.3271258026816E-2</v>
       </c>
-      <c r="J21" s="37" t="e">
+      <c r="J21" s="36" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="36">
         <f t="shared" si="8"/>
         <v>3.1006841459809084E-25</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="27">
         <v>0.431148610095</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="40">
         <f t="shared" si="4"/>
         <v>6.4169071674396993E-9</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="41">
         <f t="shared" si="9"/>
         <v>6.4169071674396993E-9</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="32">
         <v>4.8E+16</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="33">
         <v>1</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="33">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="12">
         <f t="shared" si="5"/>
         <v>8.0105600100365633E-5</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="12">
         <f t="shared" si="6"/>
         <v>8.0105600100365633E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="36"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="23"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="22"/>
       <c r="Q23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="R23" s="11"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -422,9 +422,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474525"/>
-          <c:w val="0.75722462817147884"/>
-          <c:h val="0.72088764946048434"/>
+          <c:y val="0.15723521714474528"/>
+          <c:w val="0.75722462817147895"/>
+          <c:h val="0.72088764946048445"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -511,11 +511,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96956800"/>
-        <c:axId val="96958336"/>
+        <c:axId val="114062464"/>
+        <c:axId val="114064000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96956800"/>
+        <c:axId val="114062464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,14 +555,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96958336"/>
+        <c:crossAx val="114064000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96958336"/>
+        <c:axId val="114064000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96956800"/>
+        <c:crossAx val="114062464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -663,7 +663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1225,7 +1225,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="656167" y="4265083"/>
-          <a:ext cx="4166658" cy="2781731"/>
+          <a:ext cx="4738158" cy="2781731"/>
           <a:chOff x="142875" y="3057525"/>
           <a:chExt cx="3658658" cy="2781731"/>
         </a:xfrm>
@@ -1607,7 +1607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,7 +1617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2512,7 +2514,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2796,7 +2798,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2804,6 +2806,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E226024-6E9C-4567-AB20-639DC5324B85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -127,11 +128,14 @@
   <si>
     <t>reference the particle physics review for these ratios</t>
   </si>
+  <si>
+    <t>10000all?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -139,7 +143,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,10 +381,21 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -415,6 +430,7 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -429,6 +445,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -504,13 +521,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE65-446F-B5B0-96B8AF12F512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="114062464"/>
         <c:axId val="114064000"/>
       </c:lineChart>
@@ -519,9 +545,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -560,12 +588,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="114064000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -583,6 +613,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -624,6 +655,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1225,7 +1257,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1295,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1276,7 +1314,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw"/>
+          <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -1301,7 +1345,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1607,21 +1657,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1637,7 +1687,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1717,7 +1767,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1758,7 +1808,7 @@
         <v>1.66287837877E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1">
+    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>0.85</v>
       </c>
@@ -1799,7 +1849,7 @@
         <v>2.0395659816199998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.9</v>
       </c>
@@ -1840,7 +1890,7 @@
         <v>2.42437635812E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.95</v>
       </c>
@@ -1881,7 +1931,7 @@
         <v>3.8551089506200001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1929,7 +1979,7 @@
         <v>7.7840949854600001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -1977,7 +2027,7 @@
         <v>2.8806060876899998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>4.2301875617800001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -2067,7 +2117,7 @@
         <v>5.75017429156E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1.25</v>
       </c>
@@ -2109,7 +2159,7 @@
         <v>7.3992581073399996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -2157,7 +2207,7 @@
         <v>9.1342470927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1.35</v>
       </c>
@@ -2199,7 +2249,7 @@
         <v>0.109110206391</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1.4</v>
       </c>
@@ -2247,7 +2297,7 @@
         <v>0.12685350035500001</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1.45</v>
       </c>
@@ -2289,7 +2339,7 @@
         <v>0.144138075324</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2337,7 +2387,7 @@
         <v>0.16054767188399999</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="10">
         <v>5.0134391530400001E-8</v>
       </c>
@@ -2353,7 +2403,7 @@
         <v>1.3137592759449035E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="10">
         <v>4.1948867536799998E-8</v>
       </c>
@@ -2369,7 +2419,7 @@
         <v>1.0765397746581584E-5</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="10">
         <v>3.3808652123E-8</v>
       </c>
@@ -2385,7 +2435,7 @@
         <v>7.3408464231761172E-6</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="10">
         <v>2.5938578555499999E-8</v>
       </c>
@@ -2408,7 +2458,7 @@
         <v>3.7665085983462632E-6</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="10">
         <v>1.8582804287899999E-8</v>
       </c>
@@ -2431,7 +2481,7 @@
         <v>6.3069364841794595E-7</v>
       </c>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="10">
         <v>1.20043081179E-8</v>
       </c>
@@ -2454,7 +2504,7 @@
         <v>1.7426759768568445E-7</v>
       </c>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>5689.9093270000003</v>
       </c>
@@ -2470,7 +2520,7 @@
         <v>6.3365405367221683E-8</v>
       </c>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>11906.962123900001</v>
       </c>
@@ -2486,7 +2536,7 @@
         <v>1.3891394701204263E-8</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>9615.4596280000005</v>
       </c>
@@ -2510,14 +2560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2526,7 +2576,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2602,15 +2652,15 @@
         <v>2.517598E-8</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:J6" si="0">(G2*I2)/(F2*H2)</f>
+        <f t="shared" ref="J2:J4" si="0">(G2*I2)/(F2*H2)</f>
         <v>7.3892951383343359E-3</v>
       </c>
       <c r="K2" s="15">
-        <f t="shared" ref="K2:K6" si="1">F2*H2+G2*I2</f>
+        <f t="shared" ref="K2:K4" si="1">F2*H2+G2*I2</f>
         <v>3.6341952550651906E-7</v>
       </c>
       <c r="L2" s="18">
-        <f t="shared" ref="L2:L6" si="2">(4.8*(10^16))*E2*F2*H2</f>
+        <f t="shared" ref="L2:L4" si="2">(4.8*(10^16))*E2*F2*H2</f>
         <v>91.986715216737196</v>
       </c>
       <c r="M2" s="18">
@@ -2622,7 +2672,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2632,8 +2682,8 @@
       <c r="C3" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="D3" s="16">
-        <v>10000</v>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="17">
         <v>6.93613874235E-9</v>
@@ -2663,7 +2713,7 @@
         <v>489.08775388371544</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M6" si="3">(4.8*(10^16))*E3*G3*I3</f>
+        <f t="shared" ref="M3:M4" si="3">(4.8*(10^16))*E3*G3*I3</f>
         <v>5.1943207017624173</v>
       </c>
       <c r="N3" s="15">
@@ -2673,119 +2723,59 @@
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="16">
+        <v>1.3299999999999999E-2</v>
+      </c>
       <c r="D4" s="16">
         <v>10000</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="17">
+        <v>6.93613874235E-9</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.47782701477599998</v>
+      </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14">
+        <v>1.4349264000000001E-6</v>
+      </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="14" t="e">
+      <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.8564659813527253E-7</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>228.27551677855413</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="15">
+        <v>8.2736851705699996E-4</v>
+      </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="H10" s="21"/>
-    </row>
-    <row r="14" spans="1:15" ht="18">
-      <c r="K14" s="20"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="K12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2794,14 +2784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -2811,7 +2801,7 @@
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -2836,7 +2826,7 @@
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
@@ -2891,7 +2881,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
@@ -2962,7 +2952,7 @@
         <v>8.9584136085841442E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
@@ -3036,7 +3026,7 @@
         <v>8.1247560422383746E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
@@ -3110,7 +3100,7 @@
         <v>8.4220443518979851E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="28">
         <v>1000</v>
@@ -3182,7 +3172,7 @@
         <v>0.82588687632896784</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="28">
         <v>1000</v>
@@ -3254,7 +3244,7 @@
         <v>8.0759731022681116</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="28">
         <v>1000</v>
@@ -3326,7 +3316,7 @@
         <v>86.051678026017768</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="28">
         <v>1000</v>
@@ -3398,7 +3388,7 @@
         <v>802.8322965448383</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="28">
         <v>1000</v>
@@ -3470,7 +3460,7 @@
         <v>8338.3480950980102</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="28">
         <v>1000</v>
@@ -3542,7 +3532,7 @@
         <v>70501.539560977326</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="28">
         <v>1000</v>
@@ -3614,7 +3604,7 @@
         <v>478837.05270536768</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="28">
         <v>1000</v>
@@ -3686,7 +3676,7 @@
         <v>654479.51773117436</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="28">
         <v>1000</v>
@@ -3758,7 +3748,7 @@
         <v>520749.52103440184</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="37">
         <v>1000</v>
@@ -3830,7 +3820,7 @@
         <v>255649.83997664336</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="37">
         <v>1000</v>
@@ -3902,7 +3892,7 @@
         <v>236964.57445502374</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="37">
         <v>1000</v>
@@ -3974,7 +3964,7 @@
         <v>129132.80240221185</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4046,7 +4036,7 @@
         <v>27430.636297064473</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4118,7 +4108,7 @@
         <v>1130.3867994736379</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="28">
         <v>1000</v>
@@ -4190,7 +4180,7 @@
         <v>0.32718786036968839</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="28">
         <v>1000</v>
@@ -4262,7 +4252,7 @@
         <v>8.0105600100365633E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4285,7 +4275,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -422,9 +422,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474528"/>
-          <c:w val="0.75722462817147895"/>
-          <c:h val="0.72088764946048445"/>
+          <c:y val="0.15723521714474531"/>
+          <c:w val="0.75722462817147906"/>
+          <c:h val="0.72088764946048456"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -511,11 +511,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114062464"/>
-        <c:axId val="114064000"/>
+        <c:axId val="111768704"/>
+        <c:axId val="111770240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114062464"/>
+        <c:axId val="111768704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,14 +555,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114064000"/>
+        <c:crossAx val="111770240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114064000"/>
+        <c:axId val="111770240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114062464"/>
+        <c:crossAx val="111768704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -663,7 +663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1225,7 +1225,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2514,7 +2514,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2798,7 +2798,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E226024-6E9C-4567-AB20-639DC5324B85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A2BD4-5C41-473B-BEAC-17BFBECD0C92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>10000all?</t>
+  </si>
+  <si>
+    <t>wrote something to push it again</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2567,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,6 +2776,11 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="K12" s="20"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A2BD4-5C41-473B-BEAC-17BFBECD0C92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -138,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -146,7 +145,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,21 +383,10 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -433,7 +421,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -441,14 +428,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474528"/>
-          <c:w val="0.75722462817147895"/>
-          <c:h val="0.72088764946048445"/>
+          <c:y val="0.15723521714474531"/>
+          <c:w val="0.75722462817147906"/>
+          <c:h val="0.72088764946048456"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -524,35 +510,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE65-446F-B5B0-96B8AF12F512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="114062464"/>
-        <c:axId val="114064000"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="150119936"/>
+        <c:axId val="150121472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114062464"/>
+        <c:axId val="150119936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -586,19 +562,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114064000"/>
+        <c:crossAx val="150121472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114064000"/>
+        <c:axId val="150121472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -616,7 +590,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -644,7 +617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114062464"/>
+        <c:crossAx val="150119936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -658,7 +631,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -698,7 +670,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1260,7 +1232,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1273,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1292,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1351,7 +1323,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1660,21 +1632,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1690,7 +1662,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1770,7 +1742,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1811,7 +1783,7 @@
         <v>1.66287837877E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1">
       <c r="A4" s="16">
         <v>0.85</v>
       </c>
@@ -1852,7 +1824,7 @@
         <v>2.0395659816199998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>0.9</v>
       </c>
@@ -1893,7 +1865,7 @@
         <v>2.42437635812E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>0.95</v>
       </c>
@@ -1934,7 +1906,7 @@
         <v>3.8551089506200001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1982,7 +1954,7 @@
         <v>7.7840949854600001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -2030,7 +2002,7 @@
         <v>2.8806060876899998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -2072,7 +2044,7 @@
         <v>4.2301875617800001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -2120,7 +2092,7 @@
         <v>5.75017429156E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>1.25</v>
       </c>
@@ -2162,7 +2134,7 @@
         <v>7.3992581073399996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -2210,7 +2182,7 @@
         <v>9.1342470927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>1.35</v>
       </c>
@@ -2252,7 +2224,7 @@
         <v>0.109110206391</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>1.4</v>
       </c>
@@ -2300,7 +2272,7 @@
         <v>0.12685350035500001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>1.45</v>
       </c>
@@ -2342,7 +2314,7 @@
         <v>0.144138075324</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2390,7 +2362,7 @@
         <v>0.16054767188399999</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12">
       <c r="C18" s="10">
         <v>5.0134391530400001E-8</v>
       </c>
@@ -2406,7 +2378,7 @@
         <v>1.3137592759449035E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12">
       <c r="C19" s="10">
         <v>4.1948867536799998E-8</v>
       </c>
@@ -2422,7 +2394,7 @@
         <v>1.0765397746581584E-5</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12">
       <c r="C20" s="10">
         <v>3.3808652123E-8</v>
       </c>
@@ -2438,7 +2410,7 @@
         <v>7.3408464231761172E-6</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12">
       <c r="C21" s="10">
         <v>2.5938578555499999E-8</v>
       </c>
@@ -2461,7 +2433,7 @@
         <v>3.7665085983462632E-6</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12">
       <c r="C22" s="10">
         <v>1.8582804287899999E-8</v>
       </c>
@@ -2484,7 +2456,7 @@
         <v>6.3069364841794595E-7</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12">
       <c r="C23" s="10">
         <v>1.20043081179E-8</v>
       </c>
@@ -2507,7 +2479,7 @@
         <v>1.7426759768568445E-7</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12">
       <c r="I24">
         <v>5689.9093270000003</v>
       </c>
@@ -2523,7 +2495,7 @@
         <v>6.3365405367221683E-8</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12">
       <c r="I25">
         <v>11906.962123900001</v>
       </c>
@@ -2539,7 +2511,7 @@
         <v>1.3891394701204263E-8</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12">
       <c r="I26">
         <v>9615.4596280000005</v>
       </c>
@@ -2563,14 +2535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2579,7 +2551,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2675,7 +2647,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2726,7 +2698,7 @@
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -2745,18 +2717,22 @@
       <c r="F4" s="14">
         <v>0.47782701477599998</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14">
+        <v>7.6665746319900002E-2</v>
+      </c>
       <c r="H4" s="14">
         <v>1.4349264000000001E-6</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="14">
+        <v>2.1770589999999999E-8</v>
+      </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4342839805722482E-3</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>6.8564659813527253E-7</v>
+        <v>6.8731565666544709E-7</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
@@ -2764,25 +2740,25 @@
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5556874336508858</v>
       </c>
       <c r="N4" s="15">
         <v>8.2736851705699996E-4</v>
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="J9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18">
       <c r="K12" s="20"/>
     </row>
   </sheetData>
@@ -2792,14 +2768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -2809,7 +2785,7 @@
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2810,7 @@
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
@@ -2889,7 +2865,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
@@ -2960,7 +2936,7 @@
         <v>8.9584136085841442E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
@@ -3034,7 +3010,7 @@
         <v>8.1247560422383746E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3084,7 @@
         <v>8.4220443518979851E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="36"/>
       <c r="B6" s="28">
         <v>1000</v>
@@ -3180,7 +3156,7 @@
         <v>0.82588687632896784</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="36"/>
       <c r="B7" s="28">
         <v>1000</v>
@@ -3252,7 +3228,7 @@
         <v>8.0759731022681116</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="36"/>
       <c r="B8" s="28">
         <v>1000</v>
@@ -3324,7 +3300,7 @@
         <v>86.051678026017768</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="36"/>
       <c r="B9" s="28">
         <v>1000</v>
@@ -3396,7 +3372,7 @@
         <v>802.8322965448383</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="36"/>
       <c r="B10" s="28">
         <v>1000</v>
@@ -3468,7 +3444,7 @@
         <v>8338.3480950980102</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="36"/>
       <c r="B11" s="28">
         <v>1000</v>
@@ -3540,7 +3516,7 @@
         <v>70501.539560977326</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="38"/>
       <c r="B12" s="28">
         <v>1000</v>
@@ -3612,7 +3588,7 @@
         <v>478837.05270536768</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="38"/>
       <c r="B13" s="28">
         <v>1000</v>
@@ -3684,7 +3660,7 @@
         <v>654479.51773117436</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="38"/>
       <c r="B14" s="28">
         <v>1000</v>
@@ -3756,7 +3732,7 @@
         <v>520749.52103440184</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="38"/>
       <c r="B15" s="37">
         <v>1000</v>
@@ -3828,7 +3804,7 @@
         <v>255649.83997664336</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="38"/>
       <c r="B16" s="37">
         <v>1000</v>
@@ -3900,7 +3876,7 @@
         <v>236964.57445502374</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="38"/>
       <c r="B17" s="37">
         <v>1000</v>
@@ -3972,7 +3948,7 @@
         <v>129132.80240221185</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="38"/>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4044,7 +4020,7 @@
         <v>27430.636297064473</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="38"/>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4116,7 +4092,7 @@
         <v>1130.3867994736379</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="38"/>
       <c r="B20" s="28">
         <v>1000</v>
@@ -4188,7 +4164,7 @@
         <v>0.32718786036968839</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="36"/>
       <c r="B21" s="28">
         <v>1000</v>
@@ -4260,7 +4236,7 @@
         <v>8.0105600100365633E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="36"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4283,7 +4259,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="36"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>10000all?</t>
-  </si>
-  <si>
-    <t>wrote something to push it again</t>
   </si>
 </sst>
 </file>
@@ -428,9 +425,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474531"/>
-          <c:w val="0.75722462817147906"/>
-          <c:h val="0.72088764946048456"/>
+          <c:y val="0.15723521714474534"/>
+          <c:w val="0.75722462817147929"/>
+          <c:h val="0.72088764946048478"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -516,13 +513,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="150119936"/>
-        <c:axId val="150121472"/>
+        <c:axId val="76053120"/>
+        <c:axId val="76059008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150119936"/>
+        <c:axId val="76053120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,14 +558,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150121472"/>
+        <c:crossAx val="76059008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150121472"/>
+        <c:axId val="76059008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150119936"/>
+        <c:crossAx val="76053120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,7 +666,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1232,7 +1228,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1269,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1288,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1323,7 +1319,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1632,7 +1628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1643,7 +1639,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1923,7 +1919,8 @@
         <v>0.32996425094699999</v>
       </c>
       <c r="F7" s="11">
-        <v>0.10588332084800001</v>
+        <f>0.105883320848*0.5</f>
+        <v>5.2941660424000003E-2</v>
       </c>
       <c r="G7" s="1">
         <v>1.101573253E-5</v>
@@ -1933,11 +1930,11 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>6.8973604886638862E-3</v>
+        <v>3.4486802443319431E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
-        <v>3.6598684445405711E-6</v>
+        <v>3.6473331887172615E-6</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="2"/>
@@ -1945,7 +1942,7 @@
       </c>
       <c r="L7" s="6">
         <f t="shared" si="3"/>
-        <v>60.330952644436593</v>
+        <v>30.165476322218296</v>
       </c>
       <c r="M7" s="2">
         <v>7.8733266383400006E-3</v>
@@ -1971,7 +1968,8 @@
         <v>0.10577999634099999</v>
       </c>
       <c r="F8" s="1">
-        <v>0.40000993640400001</v>
+        <f>0.400009936404*0.5</f>
+        <v>0.20000496820200001</v>
       </c>
       <c r="G8" s="1">
         <v>1.259418322E-5</v>
@@ -1981,11 +1979,11 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0.91313135441835436</v>
+        <v>0.45656567720917718</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>2.5486978008985142E-6</v>
+        <v>1.9404552279139992E-6</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="2"/>
@@ -1993,7 +1991,7 @@
       </c>
       <c r="L8" s="6">
         <f t="shared" si="3"/>
-        <v>2449.4483639395053</v>
+        <v>1224.7241819697526</v>
       </c>
       <c r="M8" s="2">
         <v>2.8806060876899998E-2</v>
@@ -2017,7 +2015,8 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <v>0.42972501268699997</v>
+        <f>0.5*0.429725012687</f>
+        <v>0.21486250634349999</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -2029,7 +2028,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>3.3275547425116677E-6</v>
+        <v>1.6637773712558338E-6</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
@@ -2037,7 +2036,7 @@
       </c>
       <c r="L9" s="6">
         <f t="shared" si="3"/>
-        <v>6047.0187512471903</v>
+        <v>3023.5093756235951</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9">
@@ -2061,7 +2060,8 @@
         <v>5.9288787928399998E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>0.44689036495000001</v>
+        <f>0.5*0.44689036495</f>
+        <v>0.223445182475</v>
       </c>
       <c r="G10" s="1">
         <v>1.6168272070000001E-5</v>
@@ -2071,11 +2071,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>9.0355609217209274</v>
+        <v>4.5177804608604637</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>9.6200611411778201E-6</v>
+        <v>5.2893291975523615E-6</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="2"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="L10" s="6">
         <f t="shared" si="3"/>
-        <v>14055.956133119691</v>
+        <v>7027.9780665598455</v>
       </c>
       <c r="M10" s="2">
         <v>5.75017429156E-2</v>
@@ -2107,7 +2107,8 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <v>0.45788365050800001</v>
+        <f>0.5*0.457883650508</f>
+        <v>0.228941825254</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
@@ -2119,7 +2120,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>1.038387304962535E-5</v>
+        <v>5.1919365248126749E-6</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="2"/>
@@ -2127,7 +2128,7 @@
       </c>
       <c r="L11" s="6">
         <f t="shared" si="3"/>
-        <v>14865.571450394338</v>
+        <v>7432.7857251971691</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11">
@@ -2151,7 +2152,8 @@
         <v>3.9835030102799998E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>0.46543865357199998</v>
+        <f>0.5*0.465438653572</f>
+        <v>0.23271932678599999</v>
       </c>
       <c r="G12" s="1">
         <v>2.3069834469999999E-5</v>
@@ -2161,11 +2163,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>7.1081924463766368</v>
+        <v>3.5540962231883184</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
-        <v>7.4513279159193262E-6</v>
+        <v>4.1851577332491946E-6</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="2"/>
@@ -2173,7 +2175,7 @@
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>8133.1019384468163</v>
+        <v>4066.5509692234082</v>
       </c>
       <c r="M12" s="2">
         <v>0.106580097336</v>
@@ -2197,7 +2199,8 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <v>0.470906352237</v>
+        <f>0.5*0.470906352237</f>
+        <v>0.2354531761185</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -2209,7 +2212,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>1.2573491491321271E-5</v>
+        <v>6.2867457456606354E-6</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="2"/>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="3"/>
-        <v>13386.482184758554</v>
+        <v>6693.2410923792768</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13">
@@ -2241,7 +2244,8 @@
         <v>2.9415175028E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.47502332664899999</v>
+        <f>0.5*0.475023326649</f>
+        <v>0.23751166332449999</v>
       </c>
       <c r="G14" s="1">
         <v>2.4667161229999999E-5</v>
@@ -2251,11 +2255,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>18.397460212858959</v>
+        <v>9.1987301064294797</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
-        <v>1.4074581140203237E-5</v>
+        <v>7.4000850026137907E-6</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="2"/>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="L14" s="6">
         <f t="shared" si="3"/>
-        <v>11906.962122736235</v>
+        <v>5953.4810613681175</v>
       </c>
       <c r="M14" s="2">
         <v>0.12685350035500001</v>
@@ -2287,7 +2291,8 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <v>0.478221760853</v>
+        <f>0.5*0.478221760853</f>
+        <v>0.2391108804265</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
@@ -2299,7 +2304,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>1.924855451598692E-5</v>
+        <v>9.6242772579934598E-6</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="2"/>
@@ -2307,7 +2312,7 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="3"/>
-        <v>14024.581919932252</v>
+        <v>7012.2909599661261</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15">
@@ -2331,7 +2336,8 @@
         <v>2.2998912913200002E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>0.480770216561</v>
+        <f>0.5*0.480770216561</f>
+        <v>0.2403851082805</v>
       </c>
       <c r="G16" s="1">
         <v>2.9713407810000001E-5</v>
@@ -2341,11 +2347,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>24.419226602888624</v>
+        <v>12.209613301444312</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
-        <v>1.7370891396331682E-5</v>
+        <v>9.0271337374541353E-6</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="2"/>
@@ -2353,7 +2359,7 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="3"/>
-        <v>9615.4596286323886</v>
+        <v>4807.7298143161943</v>
       </c>
       <c r="M16" s="2">
         <v>0.16054767188399999</v>
@@ -2423,7 +2429,7 @@
       </c>
       <c r="J21">
         <f>ABS(I21-L7)</f>
-        <v>1.2236634105988742E-6</v>
+        <v>30.165477545881707</v>
       </c>
       <c r="K21">
         <v>8746.9623659099998</v>
@@ -2446,7 +2452,7 @@
       </c>
       <c r="J22">
         <f>ABS(I22-L8)</f>
-        <v>3.6595051824406255E-6</v>
+        <v>1224.7241783102475</v>
       </c>
       <c r="K22">
         <v>2682.4709858699998</v>
@@ -2469,7 +2475,7 @@
       </c>
       <c r="J23">
         <f>ABS(I23-L10)</f>
-        <v>7.196904334705323E-7</v>
+        <v>7027.9780658401551</v>
       </c>
       <c r="K23">
         <v>1555.62629221</v>
@@ -2485,7 +2491,7 @@
       </c>
       <c r="J24">
         <f>ABS(I24-L12)</f>
-        <v>2443.192611446816</v>
+        <v>1623.3583577765921</v>
       </c>
       <c r="K24">
         <v>1144.18707713</v>
@@ -2501,7 +2507,7 @@
       </c>
       <c r="J25">
         <f>ABS(I25-L14)</f>
-        <v>1.1637657735263929E-6</v>
+        <v>5953.4810625318833</v>
       </c>
       <c r="K25">
         <v>647.20684185300001</v>
@@ -2517,7 +2523,7 @@
       </c>
       <c r="J26">
         <f t="shared" ref="J26" si="5">ABS(I26-L16)</f>
-        <v>6.3238803704734892E-7</v>
+        <v>4807.7298136838062</v>
       </c>
       <c r="K26">
         <v>393.76593636600001</v>
@@ -2539,7 +2545,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2618,7 +2624,8 @@
         <v>0.32996425094699999</v>
       </c>
       <c r="G2" s="14">
-        <v>0.10588332084800001</v>
+        <f>0.5*0.692*0.105883320848</f>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="H2" s="19">
         <v>1.0933118E-6</v>
@@ -2628,11 +2635,11 @@
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J4" si="0">(G2*I2)/(F2*H2)</f>
-        <v>7.3892951383343359E-3</v>
+        <v>2.55669611786368E-3</v>
       </c>
       <c r="K2" s="15">
         <f t="shared" ref="K2:K4" si="1">F2*H2+G2*I2</f>
-        <v>3.6341952550651906E-7</v>
+        <v>3.6167614700184525E-7</v>
       </c>
       <c r="L2" s="18">
         <f t="shared" ref="L2:L4" si="2">(4.8*(10^16))*E2*F2*H2</f>
@@ -2640,7 +2647,7 @@
       </c>
       <c r="M2" s="18">
         <f>(4.8*(10^16))*E2*G2*I2</f>
-        <v>0.6797169875423813</v>
+        <v>0.23518207768966393</v>
       </c>
       <c r="N2" s="15">
         <v>8.3452680136899995E-4</v>
@@ -2667,7 +2674,8 @@
         <v>0.47782701477599998</v>
       </c>
       <c r="G3" s="14">
-        <v>7.6665746319900002E-2</v>
+        <f>0.5*0.692*0.0766657463199</f>
+        <v>2.6526348226685398E-2</v>
       </c>
       <c r="H3" s="14">
         <v>3.0743766999999999E-6</v>
@@ -2677,11 +2685,11 @@
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>1.0620426826302031E-2</v>
+        <v>3.6746676819005026E-3</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="1"/>
-        <v>1.4846218628322779E-6</v>
+        <v>1.4744184020610282E-6</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="2"/>
@@ -2689,7 +2697,7 @@
       </c>
       <c r="M3" s="18">
         <f t="shared" ref="M3:M4" si="3">(4.8*(10^16))*E3*G3*I3</f>
-        <v>5.1943207017624173</v>
+        <v>1.7972349628097963</v>
       </c>
       <c r="N3" s="15">
         <v>8.2736851705699996E-4</v>
@@ -2718,7 +2726,8 @@
         <v>0.47782701477599998</v>
       </c>
       <c r="G4" s="14">
-        <v>7.6665746319900002E-2</v>
+        <f>0.5*0.692*0.0766657463199</f>
+        <v>2.6526348226685398E-2</v>
       </c>
       <c r="H4" s="14">
         <v>1.4349264000000001E-6</v>
@@ -2728,11 +2737,11 @@
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>2.4342839805722482E-3</v>
+        <v>8.4226225727799761E-4</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>6.8731565666544709E-7</v>
+        <v>6.8622409238671293E-7</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
@@ -2740,7 +2749,7 @@
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>0.5556874336508858</v>
+        <v>0.19226785204320648</v>
       </c>
       <c r="N4" s="15">
         <v>8.2736851705699996E-4</v>
@@ -2752,11 +2761,6 @@
     </row>
     <row r="8" spans="1:15">
       <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="12" spans="1:15" ht="18">
       <c r="K12" s="20"/>
@@ -2772,7 +2776,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2889,7 +2893,7 @@
       </c>
       <c r="I3" s="28">
         <f>0.105883320848*Q3*R3</f>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J3" s="30">
         <f>H3/F3</f>
@@ -2897,7 +2901,7 @@
       </c>
       <c r="K3" s="28">
         <f t="shared" ref="K3:K4" si="0">(F3*G3) + (H3*I3)</f>
-        <v>3.3281125342404652E-11</v>
+        <v>3.316682217988282E-11</v>
       </c>
       <c r="L3" s="31">
         <v>4.3114861009499998E-13</v>
@@ -2908,17 +2912,17 @@
       </c>
       <c r="N3" s="31">
         <f>P3*L3*I3*H3</f>
-        <v>4.7310383664721125E-9</v>
+        <v>2.3655191832360563E-9</v>
       </c>
       <c r="O3" s="32">
         <f>P3*L3*K3</f>
-        <v>6.8875732482121175E-7</v>
+        <v>6.8639180563797572E-7</v>
       </c>
       <c r="P3" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q3" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="34">
         <v>0.69199999999999995</v>
@@ -2929,11 +2933,11 @@
       </c>
       <c r="T3" s="13">
         <f>SQRT(N3)</f>
-        <v>6.8782544053503224E-5</v>
+        <v>4.8636603327494572E-5</v>
       </c>
       <c r="U3" s="13">
         <f>S3+T3</f>
-        <v>8.9584136085841442E-4</v>
+        <v>8.7569542013240576E-4</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2963,7 +2967,7 @@
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4:I21" si="2">0.105883320848*Q4*R4</f>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J4" s="30">
         <f>H4/F4</f>
@@ -2971,7 +2975,7 @@
       </c>
       <c r="K4" s="28">
         <f t="shared" si="0"/>
-        <v>2.7307404605344077E-10</v>
+        <v>2.7210283552829532E-10</v>
       </c>
       <c r="L4" s="31">
         <v>4.3114870276100001E-12</v>
@@ -2982,17 +2986,17 @@
       </c>
       <c r="N4" s="31">
         <f t="shared" ref="N4:N21" si="4">P4*L4*I4*H4</f>
-        <v>4.0198671170331718E-7</v>
+        <v>2.0099335585165859E-7</v>
       </c>
       <c r="O4" s="32">
         <f>P4*L4*K4</f>
-        <v>5.651304994254651E-5</v>
+        <v>5.6312056586694856E-5</v>
       </c>
       <c r="P4" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q4" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="34">
         <v>0.69199999999999995</v>
@@ -3003,11 +3007,11 @@
       </c>
       <c r="T4" s="13">
         <f t="shared" si="5"/>
-        <v>6.3402422012358262E-4</v>
+        <v>4.483228254858976E-4</v>
       </c>
       <c r="U4" s="13">
         <f t="shared" ref="U4:U21" si="6">S4+T4</f>
-        <v>8.1247560422383746E-3</v>
+        <v>7.9390546476006893E-3</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -3037,7 +3041,7 @@
       </c>
       <c r="I5" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J5" s="28">
         <f>H5/F5</f>
@@ -3045,7 +3049,7 @@
       </c>
       <c r="K5" s="28">
         <f>(F5*G5) + (H5*I5)</f>
-        <v>2.973197450659684E-9</v>
+        <v>2.9644723092538508E-9</v>
       </c>
       <c r="L5" s="32">
         <v>4.3114861009500003E-11</v>
@@ -3056,17 +3060,17 @@
       </c>
       <c r="N5" s="31">
         <f t="shared" si="4"/>
-        <v>3.6113592864070463E-5</v>
+        <v>1.8056796432035232E-5</v>
       </c>
       <c r="O5" s="32">
         <f>P5*L5*K5</f>
-        <v>6.1530717522716169E-3</v>
+        <v>6.1350149558395822E-3</v>
       </c>
       <c r="P5" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q5" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="34">
         <v>0.69199999999999995</v>
@@ -3077,11 +3081,11 @@
       </c>
       <c r="T5" s="13">
         <f t="shared" si="5"/>
-        <v>6.0094586165536134E-3</v>
+        <v>4.2493289390249881E-3</v>
       </c>
       <c r="U5" s="13">
         <f t="shared" si="6"/>
-        <v>8.4220443518979851E-2</v>
+        <v>8.2460313841451235E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -3109,7 +3113,7 @@
       </c>
       <c r="I6" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" ref="J6:J21" si="7">H6/F6</f>
@@ -3117,7 +3121,7 @@
       </c>
       <c r="K6" s="28">
         <f t="shared" ref="K6:K21" si="8">(F6*G6) + (H6*I6)</f>
-        <v>2.813942284090609E-8</v>
+        <v>2.8035474738924896E-8</v>
       </c>
       <c r="L6" s="32">
         <v>4.31148702761E-10</v>
@@ -3128,17 +3132,17 @@
       </c>
       <c r="N6" s="31">
         <f t="shared" si="4"/>
-        <v>4.3024405750713189E-3</v>
+        <v>2.1512202875356595E-3</v>
       </c>
       <c r="O6" s="32">
         <f t="shared" ref="O6:O21" si="9">P6*L6*K6</f>
-        <v>0.58234923140639594</v>
+        <v>0.58019801111886027</v>
       </c>
       <c r="P6" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q6" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="34">
         <v>0.69199999999999995</v>
@@ -3149,11 +3153,11 @@
       </c>
       <c r="T6" s="13">
         <f t="shared" si="5"/>
-        <v>6.5592991813693935E-2</v>
+        <v>4.6381249309776676E-2</v>
       </c>
       <c r="U6" s="13">
         <f t="shared" si="6"/>
-        <v>0.82588687632896784</v>
+        <v>0.80667513382505063</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3181,7 +3185,7 @@
       </c>
       <c r="I7" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" si="7"/>
@@ -3189,7 +3193,7 @@
       </c>
       <c r="K7" s="28">
         <f t="shared" si="8"/>
-        <v>2.6342690842404188E-7</v>
+        <v>2.6214482004084626E-7</v>
       </c>
       <c r="L7" s="32">
         <v>4.3114861009500004E-9</v>
@@ -3200,17 +3204,17 @@
       </c>
       <c r="N7" s="31">
         <f t="shared" si="4"/>
-        <v>0.53065979945640107</v>
+        <v>0.26532989972820054</v>
       </c>
       <c r="O7" s="32">
         <f t="shared" si="9"/>
-        <v>54.516549805751282</v>
+        <v>54.251219906023088</v>
       </c>
       <c r="P7" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q7" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="34">
         <v>0.69199999999999995</v>
@@ -3221,11 +3225,11 @@
       </c>
       <c r="T7" s="13">
         <f t="shared" si="5"/>
-        <v>0.72846400011009538</v>
+        <v>0.5151018343281264</v>
       </c>
       <c r="U7" s="13">
         <f t="shared" si="6"/>
-        <v>8.0759731022681116</v>
+        <v>7.8626109364861421</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3253,7 +3257,7 @@
       </c>
       <c r="I8" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" si="7"/>
@@ -3261,7 +3265,7 @@
       </c>
       <c r="K8" s="28">
         <f t="shared" si="8"/>
-        <v>3.2856903777183016E-6</v>
+        <v>3.2824314293281174E-6</v>
       </c>
       <c r="L8" s="32">
         <v>4.3114870276100002E-8</v>
@@ -3272,17 +3276,17 @@
       </c>
       <c r="N8" s="31">
         <f t="shared" si="4"/>
-        <v>13.488877159612931</v>
+        <v>6.7444385798064657</v>
       </c>
       <c r="O8" s="32">
         <f t="shared" si="9"/>
-        <v>6799.78149133222</v>
+        <v>6793.0370527524137</v>
       </c>
       <c r="P8" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q8" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="34">
         <v>0.69199999999999995</v>
@@ -3293,11 +3297,11 @@
       </c>
       <c r="T8" s="13">
         <f t="shared" si="5"/>
-        <v>3.672720675413927</v>
+        <v>2.5970056949892246</v>
       </c>
       <c r="U8" s="13">
         <f t="shared" si="6"/>
-        <v>86.051678026017768</v>
+        <v>84.975963045593062</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3325,7 +3329,7 @@
       </c>
       <c r="I9" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" si="7"/>
@@ -3333,7 +3337,7 @@
       </c>
       <c r="K9" s="28">
         <f t="shared" si="8"/>
-        <v>2.7022598602798677E-5</v>
+        <v>2.6943543879515473E-5</v>
       </c>
       <c r="L9" s="32">
         <v>4.3114861009500002E-7</v>
@@ -3344,17 +3348,17 @@
       </c>
       <c r="N9" s="31">
         <f t="shared" si="4"/>
-        <v>3272.0960702397956</v>
+        <v>1636.0480351198978</v>
       </c>
       <c r="O9" s="32">
         <f t="shared" si="9"/>
-        <v>559236.27978008345</v>
+        <v>557600.23174496356</v>
       </c>
       <c r="P9" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q9" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="34">
         <v>0.69199999999999995</v>
@@ -3365,11 +3369,11 @@
       </c>
       <c r="T9" s="13">
         <f t="shared" si="5"/>
-        <v>57.202238332427129</v>
+        <v>40.448090623908293</v>
       </c>
       <c r="U9" s="13">
         <f t="shared" si="6"/>
-        <v>802.8322965448383</v>
+        <v>786.07814883631954</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3397,7 +3401,7 @@
       </c>
       <c r="I10" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="7"/>
@@ -3405,7 +3409,7 @@
       </c>
       <c r="K10" s="28">
         <f t="shared" si="8"/>
-        <v>2.9450905996552065E-4</v>
+        <v>2.9377604195254798E-4</v>
       </c>
       <c r="L10" s="32">
         <v>4.3114870276099999E-6</v>
@@ -3416,17 +3420,17 @@
       </c>
       <c r="N10" s="31">
         <f t="shared" si="4"/>
-        <v>303398.17477786803</v>
+        <v>151699.08738893401</v>
       </c>
       <c r="O10" s="32">
         <f t="shared" si="9"/>
-        <v>60949055.594637975</v>
+        <v>60797356.507249042</v>
       </c>
       <c r="P10" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q10" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R10" s="34">
         <v>0.69199999999999995</v>
@@ -3437,11 +3441,11 @@
       </c>
       <c r="T10" s="13">
         <f t="shared" si="5"/>
-        <v>550.81591732435254</v>
+        <v>389.48567032553842</v>
       </c>
       <c r="U10" s="13">
         <f t="shared" si="6"/>
-        <v>8338.3480950980102</v>
+        <v>8177.0178480991954</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3469,7 +3473,7 @@
       </c>
       <c r="I11" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="7"/>
@@ -3477,7 +3481,7 @@
       </c>
       <c r="K11" s="28">
         <f t="shared" si="8"/>
-        <v>2.0925506953694993E-3</v>
+        <v>2.0868079495959236E-3</v>
       </c>
       <c r="L11" s="32">
         <v>4.3114861009499999E-5</v>
@@ -3488,17 +3492,17 @@
       </c>
       <c r="N11" s="31">
         <f t="shared" si="4"/>
-        <v>23769377.840698078</v>
+        <v>11884688.920349039</v>
       </c>
       <c r="O11" s="32">
         <f t="shared" si="9"/>
-        <v>4330561554.5370493</v>
+        <v>4318676865.6167002</v>
       </c>
       <c r="P11" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q11" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="34">
         <v>0.69199999999999995</v>
@@ -3509,11 +3513,11 @@
       </c>
       <c r="T11" s="13">
         <f t="shared" si="5"/>
-        <v>4875.3848915442641</v>
+        <v>3447.4177177053898</v>
       </c>
       <c r="U11" s="13">
         <f t="shared" si="6"/>
-        <v>70501.539560977326</v>
+        <v>69073.572387138454</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3541,7 +3545,7 @@
       </c>
       <c r="I12" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J12" s="37">
         <f t="shared" si="7"/>
@@ -3549,7 +3553,7 @@
       </c>
       <c r="K12" s="37">
         <f t="shared" si="8"/>
-        <v>9.019461401945433E-3</v>
+        <v>8.959879200355899E-3</v>
       </c>
       <c r="L12" s="40">
         <v>4.3114870276100001E-4</v>
@@ -3560,17 +3564,17 @@
       </c>
       <c r="N12" s="41">
         <f t="shared" si="4"/>
-        <v>2466123736.6052938</v>
+        <v>1233061868.3026469</v>
       </c>
       <c r="O12" s="42">
         <f t="shared" si="9"/>
-        <v>186658995986.48083</v>
+        <v>185425934118.17816</v>
       </c>
       <c r="P12" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q12" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R12" s="34">
         <v>0.69199999999999995</v>
@@ -3581,11 +3585,11 @@
       </c>
       <c r="T12" s="13">
         <f t="shared" si="5"/>
-        <v>49660.081923062651</v>
+        <v>35114.980682077083</v>
       </c>
       <c r="U12" s="13">
         <f t="shared" si="6"/>
-        <v>478837.05270536768</v>
+        <v>464291.95146438212</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3613,7 +3617,7 @@
       </c>
       <c r="I13" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="7"/>
@@ -3621,7 +3625,7 @@
       </c>
       <c r="K13" s="37">
         <f t="shared" si="8"/>
-        <v>5.0858055572099489E-3</v>
+        <v>5.0323325997497677E-3</v>
       </c>
       <c r="L13" s="40">
         <v>1.3634116179599999E-3</v>
@@ -3632,17 +3636,17 @@
       </c>
       <c r="N13" s="41">
         <f t="shared" si="4"/>
-        <v>6998942538.997695</v>
+        <v>3499471269.4988475</v>
       </c>
       <c r="O13" s="42">
         <f t="shared" si="9"/>
-        <v>332834226402.50763</v>
+        <v>329334755133.00885</v>
       </c>
       <c r="P13" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q13" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R13" s="34">
         <v>0.69199999999999995</v>
@@ -3653,11 +3657,11 @@
       </c>
       <c r="T13" s="13">
         <f t="shared" si="5"/>
-        <v>83659.682876506864</v>
+        <v>59156.329073894092</v>
       </c>
       <c r="U13" s="13">
         <f t="shared" si="6"/>
-        <v>654479.51773117436</v>
+        <v>629976.16392856161</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3685,7 +3689,7 @@
       </c>
       <c r="I14" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J14" s="37">
         <f t="shared" si="7"/>
@@ -3693,7 +3697,7 @@
       </c>
       <c r="K14" s="37">
         <f t="shared" si="8"/>
-        <v>7.987593732559264E-4</v>
+        <v>7.5242465723615831E-4</v>
       </c>
       <c r="L14" s="37">
         <v>4.3114861009499999E-3</v>
@@ -3704,17 +3708,17 @@
       </c>
       <c r="N14" s="41">
         <f t="shared" si="4"/>
-        <v>19178062474.626732</v>
+        <v>9589031237.3133659</v>
       </c>
       <c r="O14" s="42">
         <f t="shared" si="9"/>
-        <v>165304316918.23007</v>
+        <v>155715285680.91669</v>
       </c>
       <c r="P14" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q14" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R14" s="34">
         <v>0.69199999999999995</v>
@@ -3725,11 +3729,11 @@
       </c>
       <c r="T14" s="13">
         <f t="shared" si="5"/>
-        <v>138484.8817547487</v>
+        <v>97923.5989806</v>
       </c>
       <c r="U14" s="13">
         <f t="shared" si="6"/>
-        <v>520749.52103440184</v>
+        <v>480188.23826025316</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3757,7 +3761,7 @@
       </c>
       <c r="I15" s="37">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J15" s="37">
         <f t="shared" si="7"/>
@@ -3765,7 +3769,7 @@
       </c>
       <c r="K15" s="37">
         <f t="shared" si="8"/>
-        <v>9.4565704076049538E-5</v>
+        <v>8.2241702798460027E-5</v>
       </c>
       <c r="L15" s="37">
         <v>7.6670269580999999E-3</v>
@@ -3776,17 +3780,17 @@
       </c>
       <c r="N15" s="41">
         <f t="shared" si="4"/>
-        <v>9070891202.58601</v>
+        <v>4535445601.293005</v>
       </c>
       <c r="O15" s="42">
         <f t="shared" si="9"/>
-        <v>34801814518.213387</v>
+        <v>30266368916.92038</v>
       </c>
       <c r="P15" s="43">
         <v>4.8E+16</v>
       </c>
-      <c r="Q15" s="46">
-        <v>1</v>
+      <c r="Q15" s="34">
+        <v>0.5</v>
       </c>
       <c r="R15" s="46">
         <v>0.69199999999999995</v>
@@ -3797,11 +3801,11 @@
       </c>
       <c r="T15" s="47">
         <f t="shared" si="5"/>
-        <v>95241.226381152868</v>
+        <v>67345.717022636309</v>
       </c>
       <c r="U15" s="47">
         <f t="shared" si="6"/>
-        <v>255649.83997664336</v>
+        <v>227754.33061812678</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3829,7 +3833,7 @@
       </c>
       <c r="I16" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J16" s="37">
         <f t="shared" si="7"/>
@@ -3837,7 +3841,7 @@
       </c>
       <c r="K16" s="37">
         <f t="shared" si="8"/>
-        <v>4.5333450014203996E-5</v>
+        <v>2.8892502559112829E-5</v>
       </c>
       <c r="L16" s="37">
         <v>1.3634116178599999E-2</v>
@@ -3848,17 +3852,17 @@
       </c>
       <c r="N16" s="41">
         <f t="shared" si="4"/>
-        <v>21519147618.141212</v>
+        <v>10759573809.070606</v>
       </c>
       <c r="O16" s="42">
         <f t="shared" si="9"/>
-        <v>29667913164.979828</v>
+        <v>18908339355.909222</v>
       </c>
       <c r="P16" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q16" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R16" s="34">
         <v>0.69199999999999995</v>
@@ -3869,11 +3873,11 @@
       </c>
       <c r="T16" s="13">
         <f t="shared" si="5"/>
-        <v>146694.06129131885</v>
+        <v>103728.36549888659</v>
       </c>
       <c r="U16" s="13">
         <f t="shared" si="6"/>
-        <v>236964.57445502374</v>
+        <v>193998.87866259145</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3901,7 +3905,7 @@
       </c>
       <c r="I17" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J17" s="37">
         <f t="shared" si="7"/>
@@ -3909,7 +3913,7 @@
       </c>
       <c r="K17" s="37">
         <f t="shared" si="8"/>
-        <v>1.3118788244065206E-5</v>
+        <v>6.5733708616118827E-6</v>
       </c>
       <c r="L17" s="37">
         <v>2.42452680824E-2</v>
@@ -3920,17 +3924,17 @@
       </c>
       <c r="N17" s="41">
         <f t="shared" si="4"/>
-        <v>15234758318.283045</v>
+        <v>7617379159.1415224</v>
       </c>
       <c r="O17" s="42">
         <f t="shared" si="9"/>
-        <v>15267289818.892727</v>
+        <v>7649910659.7512045</v>
       </c>
       <c r="P17" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q17" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R17" s="34">
         <v>0.69199999999999995</v>
@@ -3941,11 +3945,11 @@
       </c>
       <c r="T17" s="13">
         <f t="shared" si="5"/>
-        <v>123429.16315961574</v>
+        <v>87277.598266345085</v>
       </c>
       <c r="U17" s="13">
         <f t="shared" si="6"/>
-        <v>129132.80240221185</v>
+        <v>92981.237508941194</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3973,7 +3977,7 @@
       </c>
       <c r="I18" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J18" s="37">
         <f t="shared" si="7"/>
@@ -3981,7 +3985,7 @@
       </c>
       <c r="K18" s="37">
         <f t="shared" si="8"/>
-        <v>3.583706426337059E-7</v>
+        <v>1.7919479789014016E-7</v>
       </c>
       <c r="L18" s="37">
         <v>4.3114870276099997E-2</v>
@@ -3992,17 +3996,17 @@
       </c>
       <c r="N18" s="41">
         <f t="shared" si="4"/>
-        <v>741613757.06202912</v>
+        <v>370806878.53101456</v>
       </c>
       <c r="O18" s="42">
         <f t="shared" si="9"/>
-        <v>741652980.85991132</v>
+        <v>370846102.32889682</v>
       </c>
       <c r="P18" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q18" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R18" s="34">
         <v>0.69199999999999995</v>
@@ -4013,11 +4017,11 @@
       </c>
       <c r="T18" s="13">
         <f t="shared" si="5"/>
-        <v>27232.586308722664</v>
+        <v>19256.346448145727</v>
       </c>
       <c r="U18" s="13">
         <f t="shared" si="6"/>
-        <v>27430.636297064473</v>
+        <v>19454.396436487536</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -4045,7 +4049,7 @@
       </c>
       <c r="I19" s="37">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J19" s="37">
         <f t="shared" si="7"/>
@@ -4053,7 +4057,7 @@
       </c>
       <c r="K19" s="37">
         <f t="shared" si="8"/>
-        <v>3.4594406658336381E-10</v>
+        <v>1.7297260775945929E-10</v>
       </c>
       <c r="L19" s="37">
         <v>7.66702695894E-2</v>
@@ -4064,17 +4068,17 @@
       </c>
       <c r="N19" s="41">
         <f t="shared" si="4"/>
-        <v>1273129.7644128539</v>
+        <v>636564.88220642693</v>
       </c>
       <c r="O19" s="42">
         <f t="shared" si="9"/>
-        <v>1273133.9926943926</v>
+        <v>636569.11048796575</v>
       </c>
       <c r="P19" s="43">
         <v>4.8E+16</v>
       </c>
-      <c r="Q19" s="46">
-        <v>1</v>
+      <c r="Q19" s="34">
+        <v>0.5</v>
       </c>
       <c r="R19" s="46">
         <v>0.69199999999999995</v>
@@ -4085,11 +4089,11 @@
       </c>
       <c r="T19" s="47">
         <f t="shared" si="5"/>
-        <v>1128.3305209081486</v>
+        <v>797.85016275390137</v>
       </c>
       <c r="U19" s="47">
         <f t="shared" si="6"/>
-        <v>1130.3867994736379</v>
+        <v>799.90644131939075</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -4117,7 +4121,7 @@
       </c>
       <c r="I20" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J20" s="37">
         <f t="shared" si="7"/>
@@ -4125,7 +4129,7 @@
       </c>
       <c r="K20" s="37">
         <f t="shared" si="8"/>
-        <v>1.6357808354509222E-17</v>
+        <v>8.1789041772658878E-18</v>
       </c>
       <c r="L20" s="37">
         <v>0.136341161796</v>
@@ -4136,17 +4140,17 @@
       </c>
       <c r="N20" s="41">
         <f t="shared" si="4"/>
-        <v>0.10705164458337732</v>
+        <v>5.352582229168866E-2</v>
       </c>
       <c r="O20" s="42">
         <f t="shared" si="9"/>
-        <v>0.10705164458352491</v>
+        <v>5.3525822291836257E-2</v>
       </c>
       <c r="P20" s="43">
         <v>4.8E+16</v>
       </c>
       <c r="Q20" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R20" s="34">
         <v>0.69199999999999995</v>
@@ -4157,11 +4161,11 @@
       </c>
       <c r="T20" s="13">
         <f t="shared" si="5"/>
-        <v>0.32718747620191291</v>
+        <v>0.23135648314168475</v>
       </c>
       <c r="U20" s="13">
         <f t="shared" si="6"/>
-        <v>0.32718786036968839</v>
+        <v>0.2313568673094602</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -4189,7 +4193,7 @@
       </c>
       <c r="I21" s="28">
         <f t="shared" si="2"/>
-        <v>7.3271258026816E-2</v>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="J21" s="37" t="e">
         <f t="shared" si="7"/>
@@ -4197,7 +4201,7 @@
       </c>
       <c r="K21" s="37">
         <f t="shared" si="8"/>
-        <v>3.1006841459809084E-25</v>
+        <v>1.5503420729904542E-25</v>
       </c>
       <c r="L21" s="28">
         <v>0.431148610095</v>
@@ -4208,17 +4212,17 @@
       </c>
       <c r="N21" s="41">
         <f t="shared" si="4"/>
-        <v>6.4169071674396993E-9</v>
+        <v>3.2084535837198497E-9</v>
       </c>
       <c r="O21" s="42">
         <f t="shared" si="9"/>
-        <v>6.4169071674396993E-9</v>
+        <v>3.2084535837198497E-9</v>
       </c>
       <c r="P21" s="33">
         <v>4.8E+16</v>
       </c>
       <c r="Q21" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R21" s="34">
         <v>0.69199999999999995</v>
@@ -4229,11 +4233,11 @@
       </c>
       <c r="T21" s="13">
         <f t="shared" si="5"/>
-        <v>8.0105600100365633E-5</v>
+        <v>5.6643213041986328E-5</v>
       </c>
       <c r="U21" s="13">
         <f t="shared" si="6"/>
-        <v>8.0105600100365633E-5</v>
+        <v>5.6643213041986328E-5</v>
       </c>
     </row>
     <row r="22" spans="1:21">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -130,6 +130,30 @@
   <si>
     <t>10000all?</t>
   </si>
+  <si>
+    <t># Neutralinos expected for K*</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>(np(1-p))^0.5</t>
+  </si>
+  <si>
+    <t>Ka Mu Errors</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Ka* Mu Errors</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +166,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +209,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -206,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,11 +265,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,8 +323,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,13 +398,33 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,6 +447,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -425,9 +489,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474534"/>
-          <c:w val="0.75722462817147929"/>
-          <c:h val="0.72088764946048478"/>
+          <c:y val="0.15723521714474545"/>
+          <c:w val="0.75722462817147984"/>
+          <c:h val="0.72088764946048511"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -457,9 +521,9 @@
             <c:numRef>
               <c:f>Plan1!$K$2:$K$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="0.00000000">
+                <c:pt idx="0">
                   <c:v>5318.9704841075927</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -514,11 +578,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76053120"/>
-        <c:axId val="76059008"/>
+        <c:axId val="162458240"/>
+        <c:axId val="162513280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76053120"/>
+        <c:axId val="162458240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,14 +622,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76059008"/>
+        <c:crossAx val="162513280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76059008"/>
+        <c:axId val="162513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76053120"/>
+        <c:crossAx val="162458240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -666,7 +730,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1212,23 +1276,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1333,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1342,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="656167" y="4265083"/>
-          <a:ext cx="4738158" cy="2781731"/>
+          <a:ext cx="4707731" cy="2781731"/>
           <a:chOff x="142875" y="3057525"/>
           <a:chExt cx="3658658" cy="2781731"/>
         </a:xfrm>
@@ -1288,7 +1352,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1319,7 +1383,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1628,7 +1692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1636,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1656,9 +1720,10 @@
     <col min="12" max="12" width="19.28515625" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1">
+    <row r="1" spans="1:22" ht="37.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1693,13 +1758,37 @@
         <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1729,16 +1818,48 @@
         <v>1.51782858497476E-6</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K16" si="2">(4.8*(10^16))*D2*E2*G2</f>
+        <f>(4.8*(10^16))*D2*E2*G2</f>
         <v>5318.9704841075927</v>
       </c>
       <c r="L2" s="6">
-        <f>(4.8*(10^16))*D2*F2*H2</f>
+        <f>(4.8*(10^16))*D2*F2*H2*0.5*0.692</f>
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="10">
+        <f>4.8*(10^16)*D2*E2</f>
+        <v>2824557029.499639</v>
+      </c>
+      <c r="P2" s="59">
+        <f>G2</f>
+        <v>1.88311669E-6</v>
+      </c>
+      <c r="Q2">
+        <f>SQRT(O2*P2*(1-P2))</f>
+        <v>72.931203663901641</v>
+      </c>
+      <c r="R2" s="10">
+        <f>Q2/SQRT(1000)</f>
+        <v>2.3062871607554642</v>
+      </c>
+      <c r="S2" s="10">
+        <f>4.8*(10^16)*F2</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>SQRT(S2*T2*(1-T2))</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>U2/SQRT(1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1767,19 +1888,51 @@
         <f t="shared" si="1"/>
         <v>3.9402365961544126E-6</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" si="2"/>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3:K16" si="2">(4.8*(10^16))*D3*E3*G3</f>
         <v>12452.303753534603</v>
       </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L16" si="3">(4.8*(10^16))*D3*F3*H3</f>
+      <c r="L3" s="18">
+        <f t="shared" ref="L3:L16" si="3">(4.8*(10^16))*D3*F3*H3*0.5*0.692</f>
         <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>1.66287837877E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1">
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O16" si="4">4.8*(10^16)*D3*E3</f>
+        <v>2576658709.092452</v>
+      </c>
+      <c r="P3" s="59">
+        <f t="shared" ref="P3:P16" si="5">G3</f>
+        <v>4.8327330700000002E-6</v>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" ref="Q3:Q16" si="6">SQRT(O3*P3*(1-P3))</f>
+        <v>111.58962126862183</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R16" si="7">Q3/SQRT(1000)</f>
+        <v>3.5287736644441305</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S15" si="8">4.8*(10^16)*F3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <f t="shared" ref="T3:T16" si="9">H3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="13">
+        <f t="shared" ref="U3:U16" si="10">SQRT(S3*T3*(1-T3))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="13">
+        <f t="shared" ref="V3:V16" si="11">U3/SQRT(1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="13" customFormat="1">
       <c r="A4" s="16">
         <v>0.85</v>
       </c>
@@ -1808,7 +1961,7 @@
         <f t="shared" si="1"/>
         <v>4.3700705526678217E-6</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="18">
         <f t="shared" si="2"/>
         <v>13016.603070336336</v>
       </c>
@@ -1819,8 +1972,40 @@
       <c r="M4" s="15">
         <v>2.0395659816199998E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="10">
+        <f t="shared" si="4"/>
+        <v>2432708463.9127293</v>
+      </c>
+      <c r="P4" s="59">
+        <f t="shared" si="5"/>
+        <v>5.3506629599999998E-6</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" si="6"/>
+        <v>114.0900233275479</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="7"/>
+        <v>3.6078433201679401</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>0.9</v>
       </c>
@@ -1849,19 +2034,51 @@
         <f t="shared" si="1"/>
         <v>5.4038637388037619E-6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>15085.822804640846</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>2.42437635812E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="10">
+        <f t="shared" si="4"/>
+        <v>2276497773.8402863</v>
+      </c>
+      <c r="P5" s="59">
+        <f t="shared" si="5"/>
+        <v>6.6267680899999999E-6</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="6"/>
+        <v>122.82395057313403</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="7"/>
+        <v>3.8840343503104697</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>0.95</v>
       </c>
@@ -1890,7 +2107,7 @@
         <f t="shared" si="1"/>
         <v>4.181886868087894E-6</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
         <v>10875.422997703608</v>
       </c>
@@ -1901,8 +2118,40 @@
       <c r="M6" s="2">
         <v>3.8551089506200001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="10">
+        <f t="shared" si="4"/>
+        <v>1538551911.6910033</v>
+      </c>
+      <c r="P6" s="59">
+        <f t="shared" si="5"/>
+        <v>7.0686097200000001E-6</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="6"/>
+        <v>104.28492759542435</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="7"/>
+        <v>3.2977789682728735</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1919,8 +2168,8 @@
         <v>0.32996425094699999</v>
       </c>
       <c r="F7" s="11">
-        <f>0.105883320848*0.5</f>
-        <v>5.2941660424000003E-2</v>
+        <f>0.105883320848*0.5*0.692</f>
+        <v>3.6635629013408E-2</v>
       </c>
       <c r="G7" s="1">
         <v>1.101573253E-5</v>
@@ -1930,19 +2179,19 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>3.4486802443319431E-3</v>
+        <v>2.3864867290777042E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
-        <v>3.6473331887172615E-6</v>
-      </c>
-      <c r="K7" s="2">
+        <v>3.643472329923682E-6</v>
+      </c>
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
         <v>8746.9623696765084</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="18">
         <f t="shared" si="3"/>
-        <v>30.165476322218296</v>
+        <v>7.2225803267813706</v>
       </c>
       <c r="M7" s="2">
         <v>7.8733266383400006E-3</v>
@@ -1950,8 +2199,40 @@
       <c r="N7">
         <v>7.7840949854600001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="10">
+        <f t="shared" si="4"/>
+        <v>794042733.50457871</v>
+      </c>
+      <c r="P7" s="59">
+        <f t="shared" si="5"/>
+        <v>1.101573253E-5</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="6"/>
+        <v>93.524681317172067</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="7"/>
+        <v>2.9575101040366025</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="8"/>
+        <v>1758510192643584</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="9"/>
+        <v>2.3677489E-7</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="10"/>
+        <v>20405.169904728853</v>
+      </c>
+      <c r="V7" s="13">
+        <f t="shared" si="11"/>
+        <v>645.26812941664195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -1968,8 +2249,8 @@
         <v>0.10577999634099999</v>
       </c>
       <c r="F8" s="1">
-        <f>0.400009936404*0.5</f>
-        <v>0.20000496820200001</v>
+        <f>0.400009936404*0.5*0.692</f>
+        <v>0.138403437995784</v>
       </c>
       <c r="G8" s="1">
         <v>1.259418322E-5</v>
@@ -1979,19 +2260,19 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0.45656567720917718</v>
+        <v>0.31594344862875057</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>1.9404552279139992E-6</v>
-      </c>
-      <c r="K8" s="2">
+        <v>1.7531165154347681E-6</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="2"/>
         <v>2682.4709852393062</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="18">
         <f t="shared" si="3"/>
-        <v>1224.7241819697526</v>
+        <v>293.23816033738177</v>
       </c>
       <c r="M8" s="2">
         <v>2.8806060876899998E-2</v>
@@ -1999,8 +2280,40 @@
       <c r="N8">
         <v>2.8806060876899998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="10">
+        <f t="shared" si="4"/>
+        <v>212992850.61848626</v>
+      </c>
+      <c r="P8" s="59">
+        <f t="shared" si="5"/>
+        <v>1.259418322E-5</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="6"/>
+        <v>51.792250402046015</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6378147641623688</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="8"/>
+        <v>6643365023797632</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="9"/>
+        <v>3.0411373199999998E-6</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="10"/>
+        <v>142138.39686370685</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="11"/>
+        <v>4494.8107705424736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -2015,8 +2328,8 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <f>0.5*0.429725012687</f>
-        <v>0.21486250634349999</v>
+        <f>0.5*0.429725012687*0.692</f>
+        <v>0.14868485438970197</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -2028,22 +2341,54 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>1.6637773712558338E-6</v>
-      </c>
-      <c r="K9" s="2">
+        <v>1.1513339409090368E-6</v>
+      </c>
+      <c r="K9" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="18">
         <f t="shared" si="3"/>
-        <v>3023.5093756235951</v>
+        <v>723.92489682430835</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9">
         <v>4.2301875617800001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="8"/>
+        <v>7136873010705695</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="9"/>
+        <v>7.7434513800000007E-6</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="10"/>
+        <v>235082.1159282664</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="11"/>
+        <v>7433.9492350506998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -2060,8 +2405,8 @@
         <v>5.9288787928399998E-2</v>
       </c>
       <c r="F10" s="1">
-        <f>0.5*0.44689036495</f>
-        <v>0.223445182475</v>
+        <f>0.5*0.44689036495*0.692</f>
+        <v>0.15462406627269998</v>
       </c>
       <c r="G10" s="1">
         <v>1.6168272070000001E-5</v>
@@ -2071,19 +2416,19 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>4.5177804608604637</v>
+        <v>3.1263040789154406</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>5.2893291975523615E-6</v>
-      </c>
-      <c r="K10" s="2">
+        <v>3.9554637589157202E-6</v>
+      </c>
+      <c r="K10" s="18">
         <f t="shared" si="2"/>
         <v>1555.6262920357324</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="18">
         <f t="shared" si="3"/>
-        <v>7027.9780665598455</v>
+        <v>1682.7228444325569</v>
       </c>
       <c r="M10" s="2">
         <v>5.75017429156E-2</v>
@@ -2091,8 +2436,40 @@
       <c r="N10">
         <v>5.75017429156E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="10">
+        <f t="shared" si="4"/>
+        <v>96214752.281548679</v>
+      </c>
+      <c r="P10" s="59">
+        <f t="shared" si="5"/>
+        <v>1.6168272070000001E-5</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="6"/>
+        <v>39.441109774530986</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2472374033224805</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="8"/>
+        <v>7421955181089599</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="9"/>
+        <v>1.9381630409999999E-5</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="10"/>
+        <v>379271.41231554985</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="11"/>
+        <v>11993.615143059737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="3">
         <v>1.25</v>
       </c>
@@ -2107,8 +2484,8 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f>0.5*0.457883650508</f>
-        <v>0.228941825254</v>
+        <f>0.5*0.457883650508*0.692</f>
+        <v>0.15842774307576798</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
@@ -2120,22 +2497,54 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>5.1919365248126749E-6</v>
-      </c>
-      <c r="K11" s="2">
+        <v>3.5928200751703707E-6</v>
+      </c>
+      <c r="K11" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="18">
         <f t="shared" si="3"/>
-        <v>7432.7857251971691</v>
+        <v>1779.6467517554083</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11">
         <v>7.3992581073399996E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="8"/>
+        <v>7604531667636863</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2677972969999999E-5</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="10"/>
+        <v>415272.74491604115</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" si="11"/>
+        <v>13132.077241247989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -2152,8 +2561,8 @@
         <v>3.9835030102799998E-2</v>
       </c>
       <c r="F12" s="1">
-        <f>0.5*0.465438653572</f>
-        <v>0.23271932678599999</v>
+        <f>0.5*0.465438653572*0.692</f>
+        <v>0.16104177413591197</v>
       </c>
       <c r="G12" s="1">
         <v>2.3069834469999999E-5</v>
@@ -2163,19 +2572,19 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>3.5540962231883184</v>
+        <v>2.4594345864463163</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
-        <v>4.1851577332491946E-6</v>
-      </c>
-      <c r="K12" s="2">
+        <v>3.1791773169867941E-6</v>
+      </c>
+      <c r="K12" s="18">
         <f t="shared" si="2"/>
         <v>1144.1870770666346</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="18">
         <f t="shared" si="3"/>
-        <v>4066.5509692234082</v>
+        <v>973.66243166309891</v>
       </c>
       <c r="M12" s="2">
         <v>0.106580097336</v>
@@ -2183,8 +2592,40 @@
       <c r="N12">
         <v>9.1342470927E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
+        <v>49596674.763944879</v>
+      </c>
+      <c r="P12" s="59">
+        <f t="shared" si="5"/>
+        <v>2.3069834469999999E-5</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="6"/>
+        <v>33.82544428178533</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0696544679755999</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="8"/>
+        <v>7730005158523775</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="9"/>
+        <v>1.4034804189999999E-5</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="10"/>
+        <v>329374.53782005142</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="11"/>
+        <v>10415.737427766337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>1.35</v>
       </c>
@@ -2199,8 +2640,8 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f>0.5*0.470906352237</f>
-        <v>0.2354531761185</v>
+        <f>0.5*0.470906352237*0.692</f>
+        <v>0.162933597874002</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -2212,22 +2653,54 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>6.2867457456606354E-6</v>
-      </c>
-      <c r="K13" s="2">
+        <v>4.3504280559971599E-6</v>
+      </c>
+      <c r="K13" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="18">
         <f t="shared" si="3"/>
-        <v>6693.2410923792768</v>
+        <v>1602.5761012305547</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13">
         <v>0.109110206391</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="8"/>
+        <v>7820812697952096</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="9"/>
+        <v>2.6700619840000001E-5</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="10"/>
+        <v>456962.76768444909</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="11"/>
+        <v>14450.431517772464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="3">
         <v>1.4</v>
       </c>
@@ -2244,8 +2717,8 @@
         <v>2.9415175028E-2</v>
       </c>
       <c r="F14" s="1">
-        <f>0.5*0.475023326649</f>
-        <v>0.23751166332449999</v>
+        <f>0.5*0.475023326649*0.692</f>
+        <v>0.164358071020554</v>
       </c>
       <c r="G14" s="1">
         <v>2.4667161229999999E-5</v>
@@ -2255,19 +2728,19 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>9.1987301064294797</v>
+        <v>6.3655212336491998</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
-        <v>7.4000850026137907E-6</v>
-      </c>
-      <c r="K14" s="2">
+        <v>5.3443401922362416E-6</v>
+      </c>
+      <c r="K14" s="18">
         <f t="shared" si="2"/>
         <v>647.20684186689141</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="18">
         <f t="shared" si="3"/>
-        <v>5953.4810613681175</v>
+        <v>1425.4538774854909</v>
       </c>
       <c r="M14" s="2">
         <v>0.12685350035500001</v>
@@ -2275,8 +2748,40 @@
       <c r="N14">
         <v>0.12685350035500001</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="10">
+        <f t="shared" si="4"/>
+        <v>26237589.150703073</v>
+      </c>
+      <c r="P14" s="59">
+        <f t="shared" si="5"/>
+        <v>2.4667161229999999E-5</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="6"/>
+        <v>25.439946484050903</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="7"/>
+        <v>0.80448174442393283</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="8"/>
+        <v>7889187408986592</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="9"/>
+        <v>2.8101761589999999E-5</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="10"/>
+        <v>470843.74642107787</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="11"/>
+        <v>14889.386607373599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>1.45</v>
       </c>
@@ -2291,8 +2796,8 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <f>0.5*0.478221760853</f>
-        <v>0.2391108804265</v>
+        <f>0.5*0.478221760853*0.692</f>
+        <v>0.165464729255138</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
@@ -2304,22 +2809,54 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>9.6242772579934598E-6</v>
-      </c>
-      <c r="K15" s="2">
+        <v>6.6599998625314737E-6</v>
+      </c>
+      <c r="K15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="18">
         <f t="shared" si="3"/>
-        <v>7012.2909599661261</v>
+        <v>1678.9668491266095</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15">
         <v>0.144138075324</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="8"/>
+        <v>7942307004246624</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="9"/>
+        <v>4.0250268999999998E-5</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="10"/>
+        <v>565391.1267395186</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="11"/>
+        <v>17879.237293458085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2336,8 +2873,8 @@
         <v>2.2998912913200002E-2</v>
       </c>
       <c r="F16" s="1">
-        <f>0.5*0.480770216561</f>
-        <v>0.2403851082805</v>
+        <f>0.5*0.480770216561*0.692</f>
+        <v>0.16634649493010598</v>
       </c>
       <c r="G16" s="1">
         <v>2.9713407810000001E-5</v>
@@ -2347,25 +2884,57 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>12.209613301444312</v>
+        <v>8.4490524045994633</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
-        <v>9.0271337374541353E-6</v>
-      </c>
-      <c r="K16" s="2">
+        <v>6.4572563785198495E-6</v>
+      </c>
+      <c r="K16" s="18">
         <f t="shared" si="2"/>
         <v>393.76593636650824</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="18">
         <f t="shared" si="3"/>
-        <v>4807.7298143161943</v>
+        <v>1151.1243649013547</v>
       </c>
       <c r="M16" s="2">
         <v>0.16054767188399999</v>
       </c>
       <c r="N16">
         <v>0.16054767188399999</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="4"/>
+        <v>13252129.775366491</v>
+      </c>
+      <c r="P16" s="59">
+        <f t="shared" si="5"/>
+        <v>2.9713407810000001E-5</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="6"/>
+        <v>19.843241575878153</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="7"/>
+        <v>0.62749839540723873</v>
+      </c>
+      <c r="S16" s="10">
+        <f>4.8*(10^16)*F16</f>
+        <v>7984631756645087</v>
+      </c>
+      <c r="T16" s="13">
+        <f t="shared" si="9"/>
+        <v>3.470996069E-5</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="10"/>
+        <v>526437.68355018157</v>
+      </c>
+      <c r="V16" s="13">
+        <f t="shared" si="11"/>
+        <v>16647.421261615298</v>
       </c>
     </row>
     <row r="18" spans="3:12">
@@ -2429,7 +2998,7 @@
       </c>
       <c r="J21">
         <f>ABS(I21-L7)</f>
-        <v>30.165477545881707</v>
+        <v>53.108373541318635</v>
       </c>
       <c r="K21">
         <v>8746.9623659099998</v>
@@ -2452,7 +3021,7 @@
       </c>
       <c r="J22">
         <f>ABS(I22-L8)</f>
-        <v>1224.7241783102475</v>
+        <v>2156.2101999426181</v>
       </c>
       <c r="K22">
         <v>2682.4709858699998</v>
@@ -2467,7 +3036,7 @@
         <v>1.20043081179E-8</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23" si="4">ABS(C23-D16)</f>
+        <f t="shared" ref="D23" si="12">ABS(C23-D16)</f>
         <v>0</v>
       </c>
       <c r="I23">
@@ -2475,7 +3044,7 @@
       </c>
       <c r="J23">
         <f>ABS(I23-L10)</f>
-        <v>7027.9780658401551</v>
+        <v>12373.233287967443</v>
       </c>
       <c r="K23">
         <v>1555.62629221</v>
@@ -2491,7 +3060,7 @@
       </c>
       <c r="J24">
         <f>ABS(I24-L12)</f>
-        <v>1623.3583577765921</v>
+        <v>4716.2468953369016</v>
       </c>
       <c r="K24">
         <v>1144.18707713</v>
@@ -2507,7 +3076,7 @@
       </c>
       <c r="J25">
         <f>ABS(I25-L14)</f>
-        <v>5953.4810625318833</v>
+        <v>10481.508246414509</v>
       </c>
       <c r="K25">
         <v>647.20684185300001</v>
@@ -2522,14 +3091,14 @@
         <v>9615.4596280000005</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="5">ABS(I26-L16)</f>
-        <v>4807.7298136838062</v>
+        <f t="shared" ref="J26" si="13">ABS(I26-L16)</f>
+        <v>8464.3352630986465</v>
       </c>
       <c r="K26">
         <v>393.76593636600001</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26" si="6">ABS(K16-K26)</f>
+        <f t="shared" ref="L26" si="14">ABS(K16-K26)</f>
         <v>5.0823700803448446E-10</v>
       </c>
     </row>
@@ -2542,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2553,11 +3122,11 @@
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60">
+    <row r="1" spans="1:18" ht="60">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2604,7 +3173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2654,7 +3223,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2696,7 +3265,7 @@
         <v>489.08775388371544</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M4" si="3">(4.8*(10^16))*E3*G3*I3</f>
+        <f t="shared" ref="M3:M14" si="3">(4.8*(10^16))*E3*G3*I3</f>
         <v>1.7972349628097963</v>
       </c>
       <c r="N3" s="15">
@@ -2706,7 +3275,7 @@
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -2756,14 +3325,379 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="H8" s="21"/>
-    </row>
-    <row r="12" spans="1:15" ht="18">
-      <c r="K12" s="20"/>
+    <row r="5" spans="1:18">
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+    </row>
+    <row r="12" spans="1:18" ht="18">
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="4:18">
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="49"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="49"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="48"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="48"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="48"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="48"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="48"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="48"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="48"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="48"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="48"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="48"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="48"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="48"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="48"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="48"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="48"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="49"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="48"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="49"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="48"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="48"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="48"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="48"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="48"/>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="48"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="48"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="48"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="48"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2773,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2787,1509 +3721,2022 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="22" t="s">
+      <c r="S1" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="22" t="s">
+      <c r="S2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="27">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="25">
         <v>1E-10</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <f>D3*(B5^2)</f>
         <v>1E-4</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>1.0017E-10</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>3.12E-12</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <f>0.105883320848*Q3*R3</f>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="28">
         <f>H3/F3</f>
         <v>3.1147050014974541E-2</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="26">
         <f t="shared" ref="K3:K4" si="0">(F3*G3) + (H3*I3)</f>
         <v>3.316682217988282E-11</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="29">
         <v>4.3114861009499998E-13</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="29">
         <f>P3*L3*G3*F3</f>
         <v>6.8402628645473969E-7</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="29">
         <f>P3*L3*I3*H3</f>
         <v>2.3655191832360563E-9</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="30">
         <f>P3*L3*K3</f>
         <v>6.8639180563797572E-7</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="31">
         <v>4.8E+16</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="32">
         <v>0.5</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="32">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S3" s="13">
-        <f>SQRT(M3)</f>
-        <v>8.2705881680491123E-4</v>
-      </c>
-      <c r="T3" s="13">
-        <f>SQRT(N3)</f>
-        <v>4.8636603327494572E-5</v>
-      </c>
-      <c r="U3" s="13">
-        <f>S3+T3</f>
-        <v>8.7569542013240576E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="22" t="s">
+      <c r="S3" s="47">
+        <f>P3*G3*L3</f>
+        <v>6828.6541524881677</v>
+      </c>
+      <c r="T3">
+        <f>F3</f>
+        <v>1.0017E-10</v>
+      </c>
+      <c r="U3" s="47">
+        <f>SQRT(S3*T3*(1-T3))</f>
+        <v>8.2705881676348799E-4</v>
+      </c>
+      <c r="V3" s="47">
+        <f>U3/SQRT(1000)</f>
+        <v>2.6153896198964712E-5</v>
+      </c>
+      <c r="W3" s="10">
+        <f>P3*L3*I3</f>
+        <v>758.17922539617189</v>
+      </c>
+      <c r="X3">
+        <f>H3</f>
+        <v>3.12E-12</v>
+      </c>
+      <c r="Y3" s="10">
+        <f>SQRT(W3*X3*(1-X3))</f>
+        <v>4.8636603327418705E-5</v>
+      </c>
+      <c r="Z3" s="10">
+        <f>Y3/SQRT(1000)</f>
+        <v>1.5380244416876723E-6</v>
+      </c>
+      <c r="AE3" s="10"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="27">
+      <c r="C4" s="21"/>
+      <c r="D4" s="25">
         <f t="shared" ref="D4:D12" si="1">D3*SQRT(10)</f>
         <v>3.1622776601683795E-10</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <f>D4*(B5^2)</f>
         <v>3.1622776601683794E-4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>8.2169999999999996E-10</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <v>2.6510000000000001E-11</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <f t="shared" ref="I4:I21" si="2">0.105883320848*Q4*R4</f>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <f>H4/F4</f>
         <v>3.2262382864792508E-2</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <f t="shared" si="0"/>
         <v>2.7210283552829532E-10</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="29">
         <v>4.3114870276100001E-12</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="29">
         <f t="shared" ref="M4:M10" si="3">P4*L4*G4*F4</f>
         <v>5.6111063230843195E-5</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="29">
         <f t="shared" ref="N4:N21" si="4">P4*L4*I4*H4</f>
         <v>2.0099335585165859E-7</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="30">
         <f>P4*L4*K4</f>
         <v>5.6312056586694856E-5</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="31">
         <v>4.8E+16</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="32">
         <v>0.5</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="32">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S4" s="13">
-        <f t="shared" ref="S4:T21" si="5">SQRT(M4)</f>
-        <v>7.4907318221147925E-3</v>
+      <c r="S4" s="47">
+        <f t="shared" ref="S4:S21" si="5">P4*G4*L4</f>
+        <v>68286.556201585976</v>
       </c>
       <c r="T4" s="13">
-        <f t="shared" si="5"/>
-        <v>4.483228254858976E-4</v>
-      </c>
-      <c r="U4" s="13">
-        <f t="shared" ref="U4:U21" si="6">S4+T4</f>
-        <v>7.9390546476006893E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="22" t="s">
+        <f t="shared" ref="T4:T21" si="6">F4</f>
+        <v>8.2169999999999996E-10</v>
+      </c>
+      <c r="U4" s="47">
+        <f t="shared" ref="U4:U21" si="7">SQRT(S4*T4*(1-T4))</f>
+        <v>7.4907318190372248E-3</v>
+      </c>
+      <c r="V4" s="47">
+        <f t="shared" ref="V4:V21" si="8">U4/SQRT(1000)</f>
+        <v>2.3687773889653863E-4</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" ref="W4:W21" si="9">P4*L4*I4</f>
+        <v>7581.7938835027753</v>
+      </c>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X21" si="10">H4</f>
+        <v>2.6510000000000001E-11</v>
+      </c>
+      <c r="Y4" s="10">
+        <f t="shared" ref="Y4:Y21" si="11">SQRT(W4*X4*(1-X4))</f>
+        <v>4.4832282547995508E-4</v>
+      </c>
+      <c r="Z4" s="10">
+        <f>Y4/SQRT(1000)</f>
+        <v>1.417721255558829E-5</v>
+      </c>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="10"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>1000</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="35">
+      <c r="C5" s="21"/>
+      <c r="D5" s="33">
         <f t="shared" si="1"/>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <f>D5*(B5^2)</f>
         <v>1E-3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>8.9577799999999992E-9</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>2.3815999999999998E-10</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <f>H5/F5</f>
         <v>2.6586944533132092E-2</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <f>(F5*G5) + (H5*I5)</f>
         <v>2.9644723092538508E-9</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <v>4.3114861009500003E-11</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="29">
         <f t="shared" si="3"/>
         <v>6.1169581594075458E-3</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="29">
         <f t="shared" si="4"/>
         <v>1.8056796432035232E-5</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="30">
         <f>P5*L5*K5</f>
         <v>6.1350149558395822E-3</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="31">
         <v>4.8E+16</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="32">
         <v>0.5</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="32">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="47">
         <f t="shared" si="5"/>
-        <v>7.8210984902426242E-2</v>
+        <v>682865.41524881683</v>
       </c>
       <c r="T5" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2493289390249881E-3</v>
-      </c>
-      <c r="U5" s="13">
         <f t="shared" si="6"/>
-        <v>8.2460313841451235E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28">
+        <v>8.9577799999999992E-9</v>
+      </c>
+      <c r="U5" s="47">
+        <f t="shared" si="7"/>
+        <v>7.8210984552127841E-2</v>
+      </c>
+      <c r="V5" s="47">
+        <f t="shared" si="8"/>
+        <v>2.4732484922896807E-3</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" si="9"/>
+        <v>75817.922539617197</v>
+      </c>
+      <c r="X5" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3815999999999998E-10</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="11"/>
+        <v>4.2493289385189779E-3</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" ref="Z5:Z21" si="12">Y5/SQRT(1000)</f>
+        <v>1.3437557972985578E-4</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="10"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="34"/>
+      <c r="B6" s="26">
         <v>1000</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="35">
+      <c r="C6" s="21"/>
+      <c r="D6" s="33">
         <f t="shared" si="1"/>
         <v>3.1622776601683795E-9</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <f>D6*(B5^2)</f>
         <v>3.1622776601683794E-3</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="35">
         <v>8.4650160000000005E-8</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>2.8373499999999999E-9</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J6" s="28">
-        <f t="shared" ref="J6:J21" si="7">H6/F6</f>
+      <c r="J6" s="26">
+        <f t="shared" ref="J6:J21" si="13">H6/F6</f>
         <v>3.3518542670208769E-2</v>
       </c>
-      <c r="K6" s="28">
-        <f t="shared" ref="K6:K21" si="8">(F6*G6) + (H6*I6)</f>
+      <c r="K6" s="26">
+        <f t="shared" ref="K6:K21" si="14">(F6*G6) + (H6*I6)</f>
         <v>2.8035474738924896E-8</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <v>4.31148702761E-10</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="29">
         <f t="shared" si="3"/>
         <v>0.5780467908313246</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="29">
         <f t="shared" si="4"/>
         <v>2.1512202875356595E-3</v>
       </c>
-      <c r="O6" s="32">
-        <f t="shared" ref="O6:O21" si="9">P6*L6*K6</f>
+      <c r="O6" s="30">
+        <f t="shared" ref="O6:O21" si="15">P6*L6*K6</f>
         <v>0.58019801111886027</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="31">
         <v>4.8E+16</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="32">
         <v>0.5</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="32">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="47">
         <f t="shared" si="5"/>
-        <v>0.76029388451527391</v>
+        <v>6828655.6201585978</v>
       </c>
       <c r="T6" s="13">
-        <f t="shared" si="5"/>
-        <v>4.6381249309776676E-2</v>
-      </c>
-      <c r="U6" s="13">
         <f t="shared" si="6"/>
-        <v>0.80667513382505063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28">
+        <v>8.4650160000000005E-8</v>
+      </c>
+      <c r="U6" s="47">
+        <f t="shared" si="7"/>
+        <v>0.76029385233577373</v>
+      </c>
+      <c r="V6" s="47">
+        <f t="shared" si="8"/>
+        <v>2.4042602644047738E-2</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="9"/>
+        <v>758179.38835027744</v>
+      </c>
+      <c r="X6" s="13">
+        <f t="shared" si="10"/>
+        <v>2.8373499999999999E-9</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="11"/>
+        <v>4.6381249243976755E-2</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4667038833492923E-3</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="10"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="34"/>
+      <c r="B7" s="26">
         <v>1000</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="35">
+      <c r="C7" s="21"/>
+      <c r="D7" s="33">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-8</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <f>D7*(B5^2)</f>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <v>7.9057876999999996E-7</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>3.4995669999999999E-8</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J7" s="28">
-        <f t="shared" si="7"/>
+      <c r="J7" s="26">
+        <f t="shared" si="13"/>
         <v>4.4265886370816659E-2</v>
       </c>
-      <c r="K7" s="28">
-        <f t="shared" si="8"/>
+      <c r="K7" s="26">
+        <f t="shared" si="14"/>
         <v>2.6214482004084626E-7</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="30">
         <v>4.3114861009500004E-9</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="29">
         <f t="shared" si="3"/>
         <v>53.985890006294888</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="29">
         <f t="shared" si="4"/>
         <v>0.26532989972820054</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="30">
+        <f t="shared" si="15"/>
+        <v>54.251219906023088</v>
+      </c>
+      <c r="P7" s="31">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S7" s="47">
+        <f t="shared" si="5"/>
+        <v>68286541.524881691</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="6"/>
+        <v>7.9057876999999996E-7</v>
+      </c>
+      <c r="U7" s="47">
+        <f t="shared" si="7"/>
+        <v>7.3475061977650871</v>
+      </c>
+      <c r="V7" s="47">
+        <f t="shared" si="8"/>
+        <v>0.23234854707141245</v>
+      </c>
+      <c r="W7" s="10">
         <f t="shared" si="9"/>
-        <v>54.251219906023088</v>
-      </c>
-      <c r="P7" s="33">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S7" s="13">
-        <f t="shared" si="5"/>
-        <v>7.3475091021580159</v>
-      </c>
-      <c r="T7" s="13">
-        <f t="shared" si="5"/>
-        <v>0.5151018343281264</v>
-      </c>
-      <c r="U7" s="13">
-        <f t="shared" si="6"/>
-        <v>7.8626109364861421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28">
+        <v>7581792.2539617196</v>
+      </c>
+      <c r="X7" s="13">
+        <f t="shared" si="10"/>
+        <v>3.4995669999999999E-8</v>
+      </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="11"/>
+        <v>0.51510182531495941</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6288949949054513E-2</v>
+      </c>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="10"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="34"/>
+      <c r="B8" s="26">
         <v>1000</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="35">
+      <c r="C8" s="21"/>
+      <c r="D8" s="33">
         <f t="shared" si="1"/>
         <v>3.1622776601683799E-8</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <f>D8*(B5^2)</f>
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>8.8955709999999999E-8</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J8" s="28">
-        <f t="shared" si="7"/>
+      <c r="J8" s="26">
+        <f t="shared" si="13"/>
         <v>8.9511010440088291E-3</v>
       </c>
-      <c r="K8" s="28">
-        <f t="shared" si="8"/>
+      <c r="K8" s="26">
+        <f t="shared" si="14"/>
         <v>3.2824314293281174E-6</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="30">
         <v>4.3114870276100002E-8</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="29">
         <f t="shared" si="3"/>
         <v>6786.2926141726075</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="29">
         <f t="shared" si="4"/>
         <v>6.7444385798064657</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="30">
+        <f t="shared" si="15"/>
+        <v>6793.0370527524137</v>
+      </c>
+      <c r="P8" s="31">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S8" s="47">
+        <f t="shared" si="5"/>
+        <v>682865562.01585984</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="6"/>
+        <v>9.9379628899999994E-6</v>
+      </c>
+      <c r="U8" s="47">
+        <f t="shared" si="7"/>
+        <v>82.378548010076315</v>
+      </c>
+      <c r="V8" s="47">
+        <f t="shared" si="8"/>
+        <v>2.6050384204937265</v>
+      </c>
+      <c r="W8" s="10">
         <f t="shared" si="9"/>
-        <v>6793.0370527524137</v>
-      </c>
-      <c r="P8" s="33">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q8" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S8" s="13">
-        <f t="shared" si="5"/>
-        <v>82.378957350603841</v>
-      </c>
-      <c r="T8" s="13">
-        <f t="shared" si="5"/>
-        <v>2.5970056949892246</v>
-      </c>
-      <c r="U8" s="13">
-        <f t="shared" si="6"/>
-        <v>84.975963045593062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28">
+        <v>75817938.835027739</v>
+      </c>
+      <c r="X8" s="13">
+        <f t="shared" si="10"/>
+        <v>8.8955709999999999E-8</v>
+      </c>
+      <c r="Y8" s="10">
+        <f t="shared" si="11"/>
+        <v>2.5970055794799793</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="12"/>
+        <v>8.2124527273221753E-2</v>
+      </c>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="10"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="34"/>
+      <c r="B9" s="26">
         <v>1000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="35">
+      <c r="C9" s="21"/>
+      <c r="D9" s="33">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-7</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <f>D9*(B5^2)</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <v>8.1416362770000001E-5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>2.1578645000000001E-6</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J9" s="28">
-        <f t="shared" si="7"/>
+      <c r="J9" s="26">
+        <f t="shared" si="13"/>
         <v>2.6504064128926207E-2</v>
       </c>
-      <c r="K9" s="28">
-        <f t="shared" si="8"/>
+      <c r="K9" s="26">
+        <f t="shared" si="14"/>
         <v>2.6943543879515473E-5</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="30">
         <v>4.3114861009500002E-7</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="29">
         <f t="shared" si="3"/>
         <v>555964.18370984367</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="29">
         <f t="shared" si="4"/>
         <v>1636.0480351198978</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="30">
+        <f t="shared" si="15"/>
+        <v>557600.23174496356</v>
+      </c>
+      <c r="P9" s="31">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S9" s="47">
+        <f t="shared" si="5"/>
+        <v>6828654152.4881687</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="6"/>
+        <v>8.1416362770000001E-5</v>
+      </c>
+      <c r="U9" s="47">
+        <f t="shared" si="7"/>
+        <v>745.59970435091748</v>
+      </c>
+      <c r="V9" s="47">
+        <f t="shared" si="8"/>
+        <v>23.577932884970547</v>
+      </c>
+      <c r="W9" s="10">
         <f t="shared" si="9"/>
-        <v>557600.23174496356</v>
-      </c>
-      <c r="P9" s="33">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q9" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R9" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S9" s="13">
-        <f t="shared" si="5"/>
-        <v>745.6300582124112</v>
-      </c>
-      <c r="T9" s="13">
-        <f t="shared" si="5"/>
-        <v>40.448090623908293</v>
-      </c>
-      <c r="U9" s="13">
-        <f t="shared" si="6"/>
-        <v>786.07814883631954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28">
+        <v>758179225.39617193</v>
+      </c>
+      <c r="X9" s="13">
+        <f t="shared" si="10"/>
+        <v>2.1578645000000001E-6</v>
+      </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="11"/>
+        <v>40.44804698313532</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="12"/>
+        <v>1.2790795537220985</v>
+      </c>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="10"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="34"/>
+      <c r="B10" s="26">
         <v>1000</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="35">
+      <c r="C10" s="21"/>
+      <c r="D10" s="33">
         <f t="shared" si="1"/>
         <v>3.1622776601683802E-7</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <f>D10*(B5^2)</f>
         <v>0.31622776601683805</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>8.8810537231999995E-4</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>2.000833704E-5</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J10" s="28">
-        <f t="shared" si="7"/>
+      <c r="J10" s="26">
+        <f t="shared" si="13"/>
         <v>2.252923770490451E-2</v>
       </c>
-      <c r="K10" s="28">
-        <f t="shared" si="8"/>
+      <c r="K10" s="26">
+        <f t="shared" si="14"/>
         <v>2.9377604195254798E-4</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="30">
         <v>4.3114870276099999E-6</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="29">
         <f t="shared" si="3"/>
         <v>60645657.419860117</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="29">
         <f t="shared" si="4"/>
         <v>151699.08738893401</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="30">
+        <f t="shared" si="15"/>
+        <v>60797356.507249042</v>
+      </c>
+      <c r="P10" s="31">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S10" s="47">
+        <f t="shared" si="5"/>
+        <v>68286556201.585976</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="6"/>
+        <v>8.8810537231999995E-4</v>
+      </c>
+      <c r="U10" s="47">
+        <f t="shared" si="7"/>
+        <v>7784.0733350667797</v>
+      </c>
+      <c r="V10" s="47">
+        <f t="shared" si="8"/>
+        <v>246.15401212594048</v>
+      </c>
+      <c r="W10" s="10">
         <f t="shared" si="9"/>
-        <v>60797356.507249042</v>
-      </c>
-      <c r="P10" s="33">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S10" s="13">
-        <f t="shared" si="5"/>
-        <v>7787.5321777736572</v>
-      </c>
-      <c r="T10" s="13">
-        <f t="shared" si="5"/>
-        <v>389.48567032553842</v>
-      </c>
-      <c r="U10" s="13">
-        <f t="shared" si="6"/>
-        <v>8177.0178480991954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28">
+        <v>7581793883.5027742</v>
+      </c>
+      <c r="X10" s="13">
+        <f t="shared" si="10"/>
+        <v>2.000833704E-5</v>
+      </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="11"/>
+        <v>389.48177382576569</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="12"/>
+        <v>12.316495124119722</v>
+      </c>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="10"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="34"/>
+      <c r="B11" s="26">
         <v>1000</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="35">
+      <c r="C11" s="21"/>
+      <c r="D11" s="33">
         <f t="shared" si="1"/>
         <v>1.0000000000000004E-6</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <f>D11*(B5^2)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <v>6.3069414272900002E-3</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>1.5675302781E-4</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J11" s="28">
-        <f t="shared" si="7"/>
+      <c r="J11" s="26">
+        <f t="shared" si="13"/>
         <v>2.4854048450764582E-2</v>
       </c>
-      <c r="K11" s="28">
-        <f t="shared" si="8"/>
+      <c r="K11" s="26">
+        <f t="shared" si="14"/>
         <v>2.0868079495959236E-3</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="30">
         <v>4.3114861009499999E-5</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="29">
         <f>P11*L11*G11*F11</f>
         <v>4306792176.6963511</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="29">
         <f t="shared" si="4"/>
         <v>11884688.920349039</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="30">
+        <f t="shared" si="15"/>
+        <v>4318676865.6167002</v>
+      </c>
+      <c r="P11" s="31">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S11" s="47">
+        <f t="shared" si="5"/>
+        <v>682865415248.81677</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="6"/>
+        <v>6.3069414272900002E-3</v>
+      </c>
+      <c r="U11" s="47">
+        <f t="shared" si="7"/>
+        <v>65418.877173935172</v>
+      </c>
+      <c r="V11" s="47">
+        <f t="shared" si="8"/>
+        <v>2068.726538404343</v>
+      </c>
+      <c r="W11" s="10">
         <f t="shared" si="9"/>
-        <v>4318676865.6167002</v>
-      </c>
-      <c r="P11" s="33">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R11" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S11" s="13">
-        <f t="shared" si="5"/>
-        <v>65626.154669433061</v>
-      </c>
-      <c r="T11" s="13">
-        <f t="shared" si="5"/>
-        <v>3447.4177177053898</v>
-      </c>
-      <c r="U11" s="13">
-        <f t="shared" si="6"/>
-        <v>69073.572387138454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="38"/>
-      <c r="B12" s="28">
+        <v>75817922539.617187</v>
+      </c>
+      <c r="X11" s="13">
+        <f t="shared" si="10"/>
+        <v>1.5675302781E-4</v>
+      </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="11"/>
+        <v>3447.1475105333384</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="12"/>
+        <v>109.0083756386462</v>
+      </c>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="10"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="36"/>
+      <c r="B12" s="26">
         <v>1000</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="39">
+      <c r="C12" s="21"/>
+      <c r="D12" s="37">
         <f t="shared" si="1"/>
         <v>3.1622776601683809E-6</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="35">
         <f>D12*(B5^2)</f>
         <v>3.1622776601683809</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="35">
         <v>2.6973519019779998E-2</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="35">
         <v>1.6263458058200001E-3</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J12" s="37">
-        <f t="shared" si="7"/>
+      <c r="J12" s="35">
+        <f t="shared" si="13"/>
         <v>6.0294164978154374E-2</v>
       </c>
-      <c r="K12" s="37">
-        <f t="shared" si="8"/>
+      <c r="K12" s="26">
+        <f t="shared" si="14"/>
         <v>8.959879200355899E-3</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="38">
         <v>4.3114870276100001E-4</v>
       </c>
-      <c r="M12" s="41">
-        <f t="shared" ref="M12:M21" si="10">P12*L12*G12*F12</f>
+      <c r="M12" s="39">
+        <f t="shared" ref="M12:M21" si="16">P12*L12*G12*F12</f>
         <v>184192872249.87552</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="39">
         <f t="shared" si="4"/>
         <v>1233061868.3026469</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="40">
+        <f t="shared" si="15"/>
+        <v>185425934118.17816</v>
+      </c>
+      <c r="P12" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S12" s="47">
+        <f t="shared" si="5"/>
+        <v>6828655620158.5977</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="6"/>
+        <v>2.6973519019779998E-2</v>
+      </c>
+      <c r="U12" s="47">
+        <f t="shared" si="7"/>
+        <v>423349.19665323047</v>
+      </c>
+      <c r="V12" s="47">
+        <f t="shared" si="8"/>
+        <v>13387.477070267407</v>
+      </c>
+      <c r="W12" s="10">
         <f t="shared" si="9"/>
-        <v>185425934118.17816</v>
-      </c>
-      <c r="P12" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S12" s="13">
-        <f t="shared" si="5"/>
-        <v>429176.97078230506</v>
-      </c>
-      <c r="T12" s="13">
-        <f t="shared" si="5"/>
-        <v>35114.980682077083</v>
-      </c>
-      <c r="U12" s="13">
-        <f t="shared" si="6"/>
-        <v>464291.95146438212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="38"/>
-      <c r="B13" s="28">
+        <v>758179388350.27747</v>
+      </c>
+      <c r="X12" s="13">
+        <f t="shared" si="10"/>
+        <v>1.6263458058200001E-3</v>
+      </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="11"/>
+        <v>35086.414511956282</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="12"/>
+        <v>1109.5298478656698</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="10"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="36"/>
+      <c r="B13" s="26">
         <v>1000</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="39">
+      <c r="C13" s="21"/>
+      <c r="D13" s="37">
         <f>D12*(10^(0.25))</f>
         <v>5.6234132519034937E-6</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="35">
         <f>D13*(B5^2)</f>
         <v>5.6234132519034938</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <v>1.5089088069389999E-2</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>1.45958890021E-3</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J13" s="37">
-        <f t="shared" si="7"/>
+      <c r="J13" s="35">
+        <f t="shared" si="13"/>
         <v>9.6731418989524545E-2</v>
       </c>
-      <c r="K13" s="37">
-        <f t="shared" si="8"/>
+      <c r="K13" s="26">
+        <f t="shared" si="14"/>
         <v>5.0323325997497677E-3</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="38">
         <v>1.3634116179599999E-3</v>
       </c>
-      <c r="M13" s="41">
-        <f t="shared" si="10"/>
+      <c r="M13" s="39">
+        <f t="shared" si="16"/>
         <v>325835283863.50995</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="39">
         <f t="shared" si="4"/>
         <v>3499471269.4988475</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="40">
+        <f t="shared" si="15"/>
+        <v>329334755133.00885</v>
+      </c>
+      <c r="P13" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S13" s="47">
+        <f t="shared" si="5"/>
+        <v>21594100476125.219</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="6"/>
+        <v>1.5089088069389999E-2</v>
+      </c>
+      <c r="U13" s="47">
+        <f t="shared" si="7"/>
+        <v>566496.89016726194</v>
+      </c>
+      <c r="V13" s="47">
+        <f t="shared" si="8"/>
+        <v>17914.204603307924</v>
+      </c>
+      <c r="W13" s="10">
         <f t="shared" si="9"/>
-        <v>329334755133.00885</v>
-      </c>
-      <c r="P13" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R13" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S13" s="13">
-        <f t="shared" si="5"/>
-        <v>570819.83485466754</v>
-      </c>
-      <c r="T13" s="13">
-        <f t="shared" si="5"/>
-        <v>59156.329073894092</v>
-      </c>
-      <c r="U13" s="13">
-        <f t="shared" si="6"/>
-        <v>629976.16392856161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="38"/>
-      <c r="B14" s="28">
+        <v>2397573226951.3403</v>
+      </c>
+      <c r="X13" s="13">
+        <f t="shared" si="10"/>
+        <v>1.45958890021E-3</v>
+      </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="11"/>
+        <v>59113.141348411547</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="12"/>
+        <v>1869.3216630845754</v>
+      </c>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="10"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="36"/>
+      <c r="B14" s="26">
         <v>1000</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="39">
+      <c r="C14" s="21"/>
+      <c r="D14" s="37">
         <f>D12*SQRT(10)</f>
         <v>1.0000000000000006E-5</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="35">
         <f>D14*(B5^2)</f>
         <v>10.000000000000005</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="35">
         <v>2.1398983047100002E-3</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="35">
         <v>1.26474465616E-3</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J14" s="37">
-        <f t="shared" si="7"/>
+      <c r="J14" s="35">
+        <f t="shared" si="13"/>
         <v>0.59103026222145572</v>
       </c>
-      <c r="K14" s="37">
-        <f t="shared" si="8"/>
+      <c r="K14" s="26">
+        <f t="shared" si="14"/>
         <v>7.5242465723615831E-4</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="35">
         <v>4.3114861009499999E-3</v>
       </c>
-      <c r="M14" s="41">
-        <f t="shared" si="10"/>
+      <c r="M14" s="39">
+        <f t="shared" si="16"/>
         <v>146126254443.60333</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <f t="shared" si="4"/>
         <v>9589031237.3133659</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="40">
+        <f t="shared" si="15"/>
+        <v>155715285680.91669</v>
+      </c>
+      <c r="P14" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S14" s="47">
+        <f t="shared" si="5"/>
+        <v>68286541524881.68</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="6"/>
+        <v>2.1398983047100002E-3</v>
+      </c>
+      <c r="U14" s="47">
+        <f t="shared" si="7"/>
+        <v>381855.41651185969</v>
+      </c>
+      <c r="V14" s="47">
+        <f t="shared" si="8"/>
+        <v>12075.328530497456</v>
+      </c>
+      <c r="W14" s="10">
         <f t="shared" si="9"/>
-        <v>155715285680.91669</v>
-      </c>
-      <c r="P14" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R14" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="5"/>
-        <v>382264.63927965314</v>
-      </c>
-      <c r="T14" s="13">
-        <f t="shared" si="5"/>
-        <v>97923.5989806</v>
-      </c>
-      <c r="U14" s="13">
-        <f t="shared" si="6"/>
-        <v>480188.23826025316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37">
+        <v>7581792253961.7197</v>
+      </c>
+      <c r="X14" s="13">
+        <f t="shared" si="10"/>
+        <v>1.26474465616E-3</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="11"/>
+        <v>97861.655214380182</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="12"/>
+        <v>3094.6572607153485</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="10"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="36"/>
+      <c r="B15" s="35">
         <v>1000</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="39">
+      <c r="C15" s="42"/>
+      <c r="D15" s="37">
         <f>D14*(10^(0.125))</f>
         <v>1.3335214321633247E-5</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <f>D15*(B6^2)</f>
         <v>13.335214321633247</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="35">
         <v>2.1189477745000001E-4</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <v>3.3639387693000001E-4</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="35">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J15" s="37">
-        <f t="shared" si="7"/>
+      <c r="J15" s="35">
+        <f t="shared" si="13"/>
         <v>1.5875515242907654</v>
       </c>
-      <c r="K15" s="37">
-        <f t="shared" si="8"/>
+      <c r="K15" s="26">
+        <f t="shared" si="14"/>
         <v>8.2241702798460027E-5</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="35">
         <v>7.6670269580999999E-3</v>
       </c>
-      <c r="M15" s="41">
-        <f t="shared" si="10"/>
+      <c r="M15" s="39">
+        <f t="shared" si="16"/>
         <v>25730923315.627377</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="39">
         <f t="shared" si="4"/>
         <v>4535445601.293005</v>
       </c>
-      <c r="O15" s="42">
-        <f t="shared" si="9"/>
+      <c r="O15" s="40">
+        <f t="shared" si="15"/>
         <v>30266368916.92038</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="41">
         <v>4.8E+16</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="32">
         <v>0.5</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="44">
         <v>0.69199999999999995</v>
       </c>
       <c r="S15" s="47">
         <f t="shared" si="5"/>
-        <v>160408.61359549049</v>
-      </c>
-      <c r="T15" s="47">
-        <f t="shared" si="5"/>
-        <v>67345.717022636309</v>
+        <v>121432550746556.28</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="6"/>
+        <v>2.1189477745000001E-4</v>
       </c>
       <c r="U15" s="47">
-        <f t="shared" si="6"/>
-        <v>227754.33061812678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37">
+        <f t="shared" si="7"/>
+        <v>160391.61782137441</v>
+      </c>
+      <c r="V15" s="47">
+        <f t="shared" si="8"/>
+        <v>5072.028299147968</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="9"/>
+        <v>13482545053091.982</v>
+      </c>
+      <c r="X15" s="13">
+        <f t="shared" si="10"/>
+        <v>3.3639387693000001E-4</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="11"/>
+        <v>67334.388726441859</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="12"/>
+        <v>2129.3003323072066</v>
+      </c>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="10"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="36"/>
+      <c r="B16" s="35">
         <v>1000</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="39">
+      <c r="C16" s="42"/>
+      <c r="D16" s="37">
         <f>D15*(10^(0.125))</f>
         <v>1.7782794100389236E-5</v>
       </c>
-      <c r="E16" s="37">
-        <f t="shared" ref="E16" si="11">D16*(B6^2)</f>
+      <c r="E16" s="35">
+        <f t="shared" ref="E16" si="17">D16*(B6^2)</f>
         <v>17.782794100389236</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="35">
         <v>3.773607313E-5</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <v>4.4876935098000001E-4</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J16" s="37">
-        <f t="shared" si="7"/>
+      <c r="J16" s="35">
+        <f t="shared" si="13"/>
         <v>11.892317185044632</v>
       </c>
-      <c r="K16" s="37">
-        <f t="shared" si="8"/>
+      <c r="K16" s="26">
+        <f t="shared" si="14"/>
         <v>2.8892502559112829E-5</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="35">
         <v>1.3634116178599999E-2</v>
       </c>
-      <c r="M16" s="41">
-        <f t="shared" si="10"/>
+      <c r="M16" s="39">
+        <f t="shared" si="16"/>
         <v>8148765546.8386164</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="39">
         <f t="shared" si="4"/>
         <v>10759573809.070606</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="40">
+        <f t="shared" si="15"/>
+        <v>18908339355.909222</v>
+      </c>
+      <c r="P16" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S16" s="47">
+        <f t="shared" si="5"/>
+        <v>215941004745413.91</v>
+      </c>
+      <c r="T16" s="13">
+        <f t="shared" si="6"/>
+        <v>3.773607313E-5</v>
+      </c>
+      <c r="U16" s="47">
+        <f t="shared" si="7"/>
+        <v>90268.809920293192</v>
+      </c>
+      <c r="V16" s="47">
+        <f t="shared" si="8"/>
+        <v>2854.5504102092896</v>
+      </c>
+      <c r="W16" s="10">
         <f t="shared" si="9"/>
-        <v>18908339355.909222</v>
-      </c>
-      <c r="P16" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q16" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R16" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" si="5"/>
-        <v>90270.513163704876</v>
-      </c>
-      <c r="T16" s="13">
-        <f t="shared" si="5"/>
-        <v>103728.36549888659</v>
-      </c>
-      <c r="U16" s="13">
-        <f t="shared" si="6"/>
-        <v>193998.87866259145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37">
+        <v>23975732267754.891</v>
+      </c>
+      <c r="X16" s="13">
+        <f t="shared" si="10"/>
+        <v>4.4876935098000001E-4</v>
+      </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="11"/>
+        <v>103705.08783138602</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="12"/>
+        <v>3279.4428249499165</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="10"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="36"/>
+      <c r="B17" s="35">
         <v>1000</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="39">
+      <c r="C17" s="42"/>
+      <c r="D17" s="37">
         <f>D16*(10^(0.125))</f>
         <v>2.3713737056616561E-5</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="35">
         <f>D17*(B7^2)</f>
         <v>23.713737056616562</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="35">
         <v>8.4716690000000004E-8</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <v>1.7866261775E-4</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J17" s="37">
-        <f t="shared" si="7"/>
+      <c r="J17" s="35">
+        <f t="shared" si="13"/>
         <v>2108.9423790046567</v>
       </c>
-      <c r="K17" s="37">
-        <f t="shared" si="8"/>
+      <c r="K17" s="26">
+        <f t="shared" si="14"/>
         <v>6.5733708616118827E-6</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="35">
         <v>2.42452680824E-2</v>
       </c>
-      <c r="M17" s="41">
-        <f t="shared" si="10"/>
+      <c r="M17" s="39">
+        <f t="shared" si="16"/>
         <v>32531500.609682359</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="39">
         <f t="shared" si="4"/>
         <v>7617379159.1415224</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="40">
+        <f t="shared" si="15"/>
+        <v>7649910659.7512045</v>
+      </c>
+      <c r="P17" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S17" s="47">
+        <f t="shared" si="5"/>
+        <v>384003442647279.5</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="6"/>
+        <v>8.4716690000000004E-8</v>
+      </c>
+      <c r="U17" s="47">
+        <f t="shared" si="7"/>
+        <v>5703.6390009993884</v>
+      </c>
+      <c r="V17" s="47">
+        <f t="shared" si="8"/>
+        <v>180.36490194525459</v>
+      </c>
+      <c r="W17" s="10">
         <f t="shared" si="9"/>
-        <v>7649910659.7512045</v>
-      </c>
-      <c r="P17" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q17" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S17" s="13">
-        <f t="shared" si="5"/>
-        <v>5703.639242596113</v>
-      </c>
-      <c r="T17" s="13">
-        <f t="shared" si="5"/>
-        <v>87277.598266345085</v>
-      </c>
-      <c r="U17" s="13">
-        <f t="shared" si="6"/>
-        <v>92981.237508941194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37">
+        <v>42635551046276.562</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="10"/>
+        <v>1.7866261775E-4</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="11"/>
+        <v>87269.801295984144</v>
+      </c>
+      <c r="Z17" s="10">
+        <f t="shared" si="12"/>
+        <v>2759.7134304562414</v>
+      </c>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="10"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="36"/>
+      <c r="B18" s="35">
         <v>1000</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="39">
+      <c r="C18" s="42"/>
+      <c r="D18" s="37">
         <f>D14*SQRT(10)</f>
         <v>3.1622776601683816E-5</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="35">
         <f>D18*(B7^2)</f>
         <v>31.622776601683814</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="35">
         <v>5.7439999999999998E-11</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="35">
         <v>4.8907538800000002E-6</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J18" s="37">
-        <f t="shared" si="7"/>
+      <c r="J18" s="35">
+        <f t="shared" si="13"/>
         <v>85145.436629526477</v>
       </c>
-      <c r="K18" s="37">
-        <f t="shared" si="8"/>
+      <c r="K18" s="26">
+        <f t="shared" si="14"/>
         <v>1.7919479789014016E-7</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="35">
         <v>4.3114870276099997E-2</v>
       </c>
-      <c r="M18" s="41">
-        <f t="shared" si="10"/>
+      <c r="M18" s="39">
+        <f t="shared" si="16"/>
         <v>39223.797882190978</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="39">
         <f t="shared" si="4"/>
         <v>370806878.53101456</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="40">
+        <f t="shared" si="15"/>
+        <v>370846102.32889682</v>
+      </c>
+      <c r="P18" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S18" s="47">
+        <f t="shared" si="5"/>
+        <v>682865562015859.75</v>
+      </c>
+      <c r="T18" s="13">
+        <f t="shared" si="6"/>
+        <v>5.7439999999999998E-11</v>
+      </c>
+      <c r="U18" s="47">
+        <f t="shared" si="7"/>
+        <v>198.04998833612177</v>
+      </c>
+      <c r="V18" s="47">
+        <f t="shared" si="8"/>
+        <v>6.2628905371192598</v>
+      </c>
+      <c r="W18" s="10">
         <f t="shared" si="9"/>
-        <v>370846102.32889682</v>
-      </c>
-      <c r="P18" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S18" s="13">
-        <f t="shared" si="5"/>
-        <v>198.04998834180975</v>
-      </c>
-      <c r="T18" s="13">
-        <f t="shared" si="5"/>
-        <v>19256.346448145727</v>
-      </c>
-      <c r="U18" s="13">
-        <f t="shared" si="6"/>
-        <v>19454.396436487536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37">
+        <v>75817938835027.734</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="10"/>
+        <v>4.8907538800000002E-6</v>
+      </c>
+      <c r="Y18" s="10">
+        <f t="shared" si="11"/>
+        <v>19256.299359062599</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="12"/>
+        <v>608.93765280678338</v>
+      </c>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="10"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="36"/>
+      <c r="B19" s="35">
         <v>1000</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="39">
+      <c r="C19" s="42"/>
+      <c r="D19" s="37">
         <f>D18*(10^(0.125))</f>
         <v>4.2169650342858256E-5</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="35">
         <f>D19*(B8^2)</f>
         <v>42.169650342858255</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <v>3.4820001000000002E-15</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="35">
         <v>4.7213999999999998E-9</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="35">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J19" s="37">
-        <f t="shared" si="7"/>
+      <c r="J19" s="35">
+        <f t="shared" si="13"/>
         <v>1355944.8203347265</v>
       </c>
-      <c r="K19" s="37">
-        <f t="shared" si="8"/>
+      <c r="K19" s="26">
+        <f t="shared" si="14"/>
         <v>1.7297260775945929E-10</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="35">
         <v>7.66702695894E-2</v>
       </c>
-      <c r="M19" s="41">
-        <f t="shared" si="10"/>
+      <c r="M19" s="39">
+        <f t="shared" si="16"/>
         <v>4.228281538890891</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="39">
         <f t="shared" si="4"/>
         <v>636564.88220642693</v>
       </c>
-      <c r="O19" s="42">
-        <f t="shared" si="9"/>
+      <c r="O19" s="40">
+        <f t="shared" si="15"/>
         <v>636569.11048796575</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="41">
         <v>4.8E+16</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="32">
         <v>0.5</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="44">
         <v>0.69199999999999995</v>
       </c>
       <c r="S19" s="47">
         <f t="shared" si="5"/>
-        <v>2.0562785654893383</v>
-      </c>
-      <c r="T19" s="47">
-        <f t="shared" si="5"/>
-        <v>797.85016275390137</v>
+        <v>1214325507598604.2</v>
+      </c>
+      <c r="T19" s="13">
+        <f t="shared" si="6"/>
+        <v>3.4820001000000002E-15</v>
       </c>
       <c r="U19" s="47">
-        <f t="shared" si="6"/>
-        <v>799.90644131939075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="38"/>
-      <c r="B20" s="28">
+        <f t="shared" si="7"/>
+        <v>2.0562785654893347</v>
+      </c>
+      <c r="V19" s="47">
+        <f t="shared" si="8"/>
+        <v>6.5025237707300051E-2</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="9"/>
+        <v>134825450545691.31</v>
+      </c>
+      <c r="X19" s="13">
+        <f t="shared" si="10"/>
+        <v>4.7213999999999998E-9</v>
+      </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="11"/>
+        <v>797.85016087041652</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="12"/>
+        <v>25.230237398822659</v>
+      </c>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="10"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="36"/>
+      <c r="B20" s="26">
         <v>1000</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="39">
+      <c r="C20" s="21"/>
+      <c r="D20" s="37">
         <f>D18*(10^(0.25))</f>
         <v>5.6234132519034954E-5</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="35">
         <f>D20*(B8^2)</f>
         <v>56.234132519034958</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <v>6.8345000000000003E-29</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="38">
         <v>2.2324999999999998E-16</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J20" s="37">
-        <f t="shared" si="7"/>
+      <c r="J20" s="35">
+        <f t="shared" si="13"/>
         <v>3266515472968.0293</v>
       </c>
-      <c r="K20" s="37">
-        <f t="shared" si="8"/>
+      <c r="K20" s="26">
+        <f t="shared" si="14"/>
         <v>8.1789041772658878E-18</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="35">
         <v>0.136341161796</v>
       </c>
-      <c r="M20" s="41">
-        <f t="shared" si="10"/>
+      <c r="M20" s="39">
+        <f t="shared" si="16"/>
         <v>1.4758487970407779E-13</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="39">
         <f t="shared" si="4"/>
         <v>5.352582229168866E-2</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="40">
+        <f t="shared" si="15"/>
+        <v>5.3525822291836257E-2</v>
+      </c>
+      <c r="P20" s="41">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S20" s="47">
+        <f t="shared" si="5"/>
+        <v>2159410047612522</v>
+      </c>
+      <c r="T20" s="13">
+        <f t="shared" si="6"/>
+        <v>6.8345000000000003E-29</v>
+      </c>
+      <c r="U20" s="47">
+        <f t="shared" si="7"/>
+        <v>3.8416777546285401E-7</v>
+      </c>
+      <c r="V20" s="47">
+        <f t="shared" si="8"/>
+        <v>1.2148451741027653E-8</v>
+      </c>
+      <c r="W20" s="10">
         <f t="shared" si="9"/>
-        <v>5.3525822291836257E-2</v>
-      </c>
-      <c r="P20" s="43">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q20" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R20" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S20" s="13">
-        <f t="shared" si="5"/>
-        <v>3.8416777546285396E-7</v>
-      </c>
-      <c r="T20" s="13">
-        <f t="shared" si="5"/>
-        <v>0.23135648314168475</v>
-      </c>
-      <c r="U20" s="13">
-        <f t="shared" si="6"/>
-        <v>0.2313568673094602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28">
+        <v>239757322695134</v>
+      </c>
+      <c r="X20" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2324999999999998E-16</v>
+      </c>
+      <c r="Y20" s="10">
+        <f t="shared" si="11"/>
+        <v>0.23135648314168472</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" si="12"/>
+        <v>7.3161343817407191E-3</v>
+      </c>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="10"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="34"/>
+      <c r="B21" s="26">
         <v>1000</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="35">
+      <c r="C21" s="21"/>
+      <c r="D21" s="33">
         <f>D18*SQRT(10)</f>
         <v>1.0000000000000007E-4</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="35">
         <f>D21*(B9^2)</f>
         <v>100.00000000000007</v>
       </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="43">
         <v>4.23178778348E-24</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="26">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J21" s="37" t="e">
-        <f t="shared" si="7"/>
+      <c r="J21" s="35" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="37">
-        <f t="shared" si="8"/>
+      <c r="K21" s="26">
+        <f t="shared" si="14"/>
         <v>1.5503420729904542E-25</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="26">
         <v>0.431148610095</v>
       </c>
-      <c r="M21" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="41">
+      <c r="M21" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="39">
         <f t="shared" si="4"/>
         <v>3.2084535837198497E-9</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="40">
+        <f t="shared" si="15"/>
+        <v>3.2084535837198497E-9</v>
+      </c>
+      <c r="P21" s="31">
+        <v>4.8E+16</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="S21" s="47">
+        <f t="shared" si="5"/>
+        <v>6828654152488168</v>
+      </c>
+      <c r="T21" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="10">
         <f t="shared" si="9"/>
-        <v>3.2084535837198497E-9</v>
-      </c>
-      <c r="P21" s="33">
-        <v>4.8E+16</v>
-      </c>
-      <c r="Q21" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="34">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="S21" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="13">
-        <f t="shared" si="5"/>
+        <v>758179225396171.87</v>
+      </c>
+      <c r="X21" s="13">
+        <f t="shared" si="10"/>
+        <v>4.23178778348E-24</v>
+      </c>
+      <c r="Y21" s="10">
+        <f t="shared" si="11"/>
         <v>5.6643213041986328E-5</v>
       </c>
-      <c r="U21" s="13">
-        <f t="shared" si="6"/>
-        <v>5.6643213041986328E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="36"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="Z21" s="10">
+        <f t="shared" si="12"/>
+        <v>1.7912156720283157E-6</v>
+      </c>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="10"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="34"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="23"/>
+      <c r="R22" s="45"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="34"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="21"/>
       <c r="Q23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="R23" s="11"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dark Photons" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -154,6 +155,30 @@
   <si>
     <t>sigma</t>
   </si>
+  <si>
+    <t>Constant mass</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>0.2 GeV</t>
+  </si>
+  <si>
+    <t>Br(A'-&gt; e+e-)</t>
+  </si>
+  <si>
+    <t>Acceptance (pBrem)</t>
+  </si>
+  <si>
+    <t>No. Events</t>
+  </si>
+  <si>
+    <t>A' Production Rate per p.o.t</t>
+  </si>
+  <si>
+    <t>No. A' Detected (pbrem)</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,13 +443,22 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,9 +523,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474545"/>
-          <c:w val="0.75722462817147984"/>
-          <c:h val="0.72088764946048511"/>
+          <c:y val="0.15723521714474548"/>
+          <c:w val="0.75722462817147995"/>
+          <c:h val="0.72088764946048522"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -578,11 +612,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162458240"/>
-        <c:axId val="162513280"/>
+        <c:axId val="111928448"/>
+        <c:axId val="111930752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162458240"/>
+        <c:axId val="111928448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,14 +656,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162513280"/>
+        <c:crossAx val="111930752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162513280"/>
+        <c:axId val="111930752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162458240"/>
+        <c:crossAx val="111928448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,7 +764,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1292,7 +1326,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1367,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1386,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1383,7 +1417,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1692,7 +1726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1702,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1763,28 +1797,28 @@
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="57" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1830,7 +1864,7 @@
         <f>4.8*(10^16)*D2*E2</f>
         <v>2824557029.499639</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="58">
         <f>G2</f>
         <v>1.88311669E-6</v>
       </c>
@@ -1903,7 +1937,7 @@
         <f t="shared" ref="O3:O16" si="4">4.8*(10^16)*D3*E3</f>
         <v>2576658709.092452</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="58">
         <f t="shared" ref="P3:P16" si="5">G3</f>
         <v>4.8327330700000002E-6</v>
       </c>
@@ -1976,7 +2010,7 @@
         <f t="shared" si="4"/>
         <v>2432708463.9127293</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="58">
         <f t="shared" si="5"/>
         <v>5.3506629599999998E-6</v>
       </c>
@@ -2049,7 +2083,7 @@
         <f t="shared" si="4"/>
         <v>2276497773.8402863</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="58">
         <f t="shared" si="5"/>
         <v>6.6267680899999999E-6</v>
       </c>
@@ -2122,7 +2156,7 @@
         <f t="shared" si="4"/>
         <v>1538551911.6910033</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="58">
         <f t="shared" si="5"/>
         <v>7.0686097200000001E-6</v>
       </c>
@@ -2203,7 +2237,7 @@
         <f t="shared" si="4"/>
         <v>794042733.50457871</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="58">
         <f t="shared" si="5"/>
         <v>1.101573253E-5</v>
       </c>
@@ -2284,7 +2318,7 @@
         <f t="shared" si="4"/>
         <v>212992850.61848626</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="58">
         <f t="shared" si="5"/>
         <v>1.259418322E-5</v>
       </c>
@@ -2359,7 +2393,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2440,7 +2474,7 @@
         <f t="shared" si="4"/>
         <v>96214752.281548679</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="58">
         <f t="shared" si="5"/>
         <v>1.6168272070000001E-5</v>
       </c>
@@ -2515,7 +2549,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P11" s="59">
+      <c r="P11" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2596,7 +2630,7 @@
         <f t="shared" si="4"/>
         <v>49596674.763944879</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="58">
         <f t="shared" si="5"/>
         <v>2.3069834469999999E-5</v>
       </c>
@@ -2671,7 +2705,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2752,7 +2786,7 @@
         <f t="shared" si="4"/>
         <v>26237589.150703073</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="58">
         <f t="shared" si="5"/>
         <v>2.4667161229999999E-5</v>
       </c>
@@ -2827,7 +2861,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2908,7 +2942,7 @@
         <f t="shared" si="4"/>
         <v>13252129.775366491</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="58">
         <f t="shared" si="5"/>
         <v>2.9713407810000001E-5</v>
       </c>
@@ -3265,7 +3299,7 @@
         <v>489.08775388371544</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M14" si="3">(4.8*(10^16))*E3*G3*I3</f>
+        <f t="shared" ref="M3:M4" si="3">(4.8*(10^16))*E3*G3*I3</f>
         <v>1.7972349628097963</v>
       </c>
       <c r="N3" s="15">
@@ -3709,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3753,18 +3787,18 @@
       <c r="P1" s="21"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="20" t="s">
@@ -5739,4 +5773,141 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="60" customFormat="1">
+      <c r="A3" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="62">
+        <v>500</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.7751163600000001E-6</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="62">
+        <v>500</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5.4231040307999999E-4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B8" s="62">
+        <v>250</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
-    <sheet name="Dark Photons" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -155,30 +154,6 @@
   <si>
     <t>sigma</t>
   </si>
-  <si>
-    <t>Constant mass</t>
-  </si>
-  <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>0.2 GeV</t>
-  </si>
-  <si>
-    <t>Br(A'-&gt; e+e-)</t>
-  </si>
-  <si>
-    <t>Acceptance (pBrem)</t>
-  </si>
-  <si>
-    <t>No. Events</t>
-  </si>
-  <si>
-    <t>A' Production Rate per p.o.t</t>
-  </si>
-  <si>
-    <t>No. A' Detected (pbrem)</t>
-  </si>
 </sst>
 </file>
 
@@ -303,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,15 +425,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,9 +489,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474548"/>
-          <c:w val="0.75722462817147995"/>
-          <c:h val="0.72088764946048522"/>
+          <c:y val="0.1572352171447455"/>
+          <c:w val="0.75722462817148006"/>
+          <c:h val="0.72088764946048534"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -612,11 +578,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111928448"/>
-        <c:axId val="111930752"/>
+        <c:axId val="123176064"/>
+        <c:axId val="123177600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111928448"/>
+        <c:axId val="123176064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,14 +622,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111930752"/>
+        <c:crossAx val="123177600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111930752"/>
+        <c:axId val="123177600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111928448"/>
+        <c:crossAx val="123176064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -764,7 +730,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1326,7 +1292,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1333,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1352,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1417,7 +1383,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1726,7 +1692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1736,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1861,20 +1827,20 @@
       </c>
       <c r="M2" s="2"/>
       <c r="O2" s="10">
-        <f>4.8*(10^16)*D2*E2</f>
-        <v>2824557029.499639</v>
+        <f>4.8*(10^16)</f>
+        <v>4.8E+16</v>
       </c>
       <c r="P2" s="58">
-        <f>G2</f>
-        <v>1.88311669E-6</v>
+        <f>G2*E2*D2</f>
+        <v>1.1081188508557485E-13</v>
       </c>
       <c r="Q2">
         <f>SQRT(O2*P2*(1-P2))</f>
-        <v>72.931203663901641</v>
+        <v>72.931272332978011</v>
       </c>
       <c r="R2" s="10">
         <f>Q2/SQRT(1000)</f>
-        <v>2.3062871607554642</v>
+        <v>2.3062893322623257</v>
       </c>
       <c r="S2" s="10">
         <f>4.8*(10^16)*F2</f>
@@ -1934,20 +1900,20 @@
         <v>1.66287837877E-3</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O16" si="4">4.8*(10^16)*D3*E3</f>
-        <v>2576658709.092452</v>
+        <f t="shared" ref="O3:O16" si="4">4.8*(10^16)</f>
+        <v>4.8E+16</v>
       </c>
       <c r="P3" s="58">
-        <f t="shared" ref="P3:P16" si="5">G3</f>
-        <v>4.8327330700000002E-6</v>
+        <f t="shared" ref="P3:P16" si="5">G3*E3*D3</f>
+        <v>2.594229948653042E-13</v>
       </c>
       <c r="Q3" s="13">
         <f t="shared" ref="Q3:Q16" si="6">SQRT(O3*P3*(1-P3))</f>
-        <v>111.58962126862183</v>
+        <v>111.58989091101115</v>
       </c>
       <c r="R3" s="10">
         <f t="shared" ref="R3:R16" si="7">Q3/SQRT(1000)</f>
-        <v>3.5287736644441305</v>
+        <v>3.5287821912851705</v>
       </c>
       <c r="S3" s="10">
         <f t="shared" ref="S3:S15" si="8">4.8*(10^16)*F3</f>
@@ -2008,19 +1974,19 @@
       </c>
       <c r="O4" s="10">
         <f t="shared" si="4"/>
-        <v>2432708463.9127293</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P4" s="58">
         <f t="shared" si="5"/>
-        <v>5.3506629599999998E-6</v>
+        <v>2.71179230632007E-13</v>
       </c>
       <c r="Q4" s="13">
         <f t="shared" si="6"/>
-        <v>114.0900233275479</v>
+        <v>114.09032855738828</v>
       </c>
       <c r="R4" s="10">
         <f t="shared" si="7"/>
-        <v>3.6078433201679401</v>
+        <v>3.6078529723829944</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="8"/>
@@ -2081,19 +2047,19 @@
       </c>
       <c r="O5" s="10">
         <f t="shared" si="4"/>
-        <v>2276497773.8402863</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P5" s="58">
         <f t="shared" si="5"/>
-        <v>6.6267680899999999E-6</v>
+        <v>3.1428797509668427E-13</v>
       </c>
       <c r="Q5" s="13">
         <f t="shared" si="6"/>
-        <v>122.82395057313403</v>
+        <v>122.82435753805555</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="7"/>
-        <v>3.8840343503104697</v>
+        <v>3.8840472196712676</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="8"/>
@@ -2154,19 +2120,19 @@
       </c>
       <c r="O6" s="10">
         <f t="shared" si="4"/>
-        <v>1538551911.6910033</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P6" s="58">
         <f t="shared" si="5"/>
-        <v>7.0686097200000001E-6</v>
+        <v>2.2657131245215846E-13</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" si="6"/>
-        <v>104.28492759542435</v>
+        <v>104.28529617209294</v>
       </c>
       <c r="R6" s="10">
         <f t="shared" si="7"/>
-        <v>3.2977789682728735</v>
+        <v>3.297790623690525</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="8"/>
@@ -2235,19 +2201,19 @@
       </c>
       <c r="O7" s="10">
         <f t="shared" si="4"/>
-        <v>794042733.50457871</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P7" s="58">
         <f t="shared" si="5"/>
-        <v>1.101573253E-5</v>
+        <v>1.8222838270159395E-13</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="6"/>
-        <v>93.524681317172067</v>
+        <v>93.525196442856597</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" si="7"/>
-        <v>2.9575101040366025</v>
+        <v>2.9575263937410461</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="8"/>
@@ -2316,19 +2282,19 @@
       </c>
       <c r="O8" s="10">
         <f t="shared" si="4"/>
-        <v>212992850.61848626</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P8" s="58">
         <f t="shared" si="5"/>
-        <v>1.259418322E-5</v>
+        <v>5.5884812192485547E-14</v>
       </c>
       <c r="Q8" s="13">
         <f t="shared" si="6"/>
-        <v>51.792250402046015</v>
+        <v>51.792576545670677</v>
       </c>
       <c r="R8" s="10">
         <f t="shared" si="7"/>
-        <v>1.6378147641623688</v>
+        <v>1.6378250777293515</v>
       </c>
       <c r="S8" s="10">
         <f t="shared" si="8"/>
@@ -2391,7 +2357,7 @@
       </c>
       <c r="O9" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P9" s="58">
         <f t="shared" si="5"/>
@@ -2472,19 +2438,19 @@
       </c>
       <c r="O10" s="10">
         <f t="shared" si="4"/>
-        <v>96214752.281548679</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P10" s="58">
         <f t="shared" si="5"/>
-        <v>1.6168272070000001E-5</v>
+        <v>3.2408881084077758E-14</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="6"/>
-        <v>39.441109774530986</v>
+        <v>39.44142862569359</v>
       </c>
       <c r="R10" s="10">
         <f t="shared" si="7"/>
-        <v>1.2472374033224805</v>
+        <v>1.2472474862815646</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="8"/>
@@ -2547,7 +2513,7 @@
       </c>
       <c r="O11" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P11" s="58">
         <f t="shared" si="5"/>
@@ -2628,19 +2594,19 @@
       </c>
       <c r="O12" s="10">
         <f t="shared" si="4"/>
-        <v>49596674.763944879</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" si="5"/>
-        <v>2.3069834469999999E-5</v>
+        <v>2.3837230772221553E-14</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="6"/>
-        <v>33.82544428178533</v>
+        <v>33.825834462236216</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" si="7"/>
-        <v>1.0696544679755999</v>
+        <v>1.0696668065648327</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="8"/>
@@ -2703,7 +2669,7 @@
       </c>
       <c r="O13" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P13" s="58">
         <f t="shared" si="5"/>
@@ -2784,19 +2750,19 @@
       </c>
       <c r="O14" s="10">
         <f t="shared" si="4"/>
-        <v>26237589.150703073</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P14" s="58">
         <f t="shared" si="5"/>
-        <v>2.4667161229999999E-5</v>
+        <v>1.3483475872226906E-14</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="6"/>
-        <v>25.439946484050903</v>
+        <v>25.440260255486439</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="7"/>
-        <v>0.80448174442393283</v>
+        <v>0.80449166674794281</v>
       </c>
       <c r="S14" s="10">
         <f t="shared" si="8"/>
@@ -2859,7 +2825,7 @@
       </c>
       <c r="O15" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P15" s="58">
         <f t="shared" si="5"/>
@@ -2940,19 +2906,19 @@
       </c>
       <c r="O16" s="10">
         <f t="shared" si="4"/>
-        <v>13252129.775366491</v>
+        <v>4.8E+16</v>
       </c>
       <c r="P16" s="58">
         <f t="shared" si="5"/>
-        <v>2.9713407810000001E-5</v>
+        <v>8.2034570076355897E-15</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="6"/>
-        <v>19.843241575878153</v>
+        <v>19.843536387612595</v>
       </c>
       <c r="R16" s="10">
         <f t="shared" si="7"/>
-        <v>0.62749839540723873</v>
+        <v>0.62750771817285655</v>
       </c>
       <c r="S16" s="10">
         <f>4.8*(10^16)*F16</f>
@@ -3743,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5773,141 +5739,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="60" customFormat="1">
-      <c r="A3" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17">
-        <v>1E-8</v>
-      </c>
-      <c r="B4" s="62">
-        <v>500</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3.7751163600000001E-6</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B6" s="62">
-        <v>500</v>
-      </c>
-      <c r="C6" s="14">
-        <v>5.4231040307999999E-4</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B8" s="62">
-        <v>250</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -222,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +431,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +480,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -489,9 +521,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.1572352171447455"/>
-          <c:w val="0.75722462817148006"/>
-          <c:h val="0.72088764946048534"/>
+          <c:y val="0.15723521714474553"/>
+          <c:w val="0.75722462817148029"/>
+          <c:h val="0.72088764946048545"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -578,11 +610,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123176064"/>
-        <c:axId val="123177600"/>
+        <c:axId val="148357888"/>
+        <c:axId val="148359424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123176064"/>
+        <c:axId val="148357888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,14 +654,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123177600"/>
+        <c:crossAx val="148359424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123177600"/>
+        <c:axId val="148359424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123176064"/>
+        <c:crossAx val="148357888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,7 +762,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1292,7 +1324,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1365,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1384,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1383,7 +1415,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1692,7 +1724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3707,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4330,102 +4362,98 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="10"/>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="34"/>
-      <c r="B8" s="26">
+    <row r="8" spans="1:31" s="69" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61">
         <v>1000</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="33">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63">
         <f t="shared" si="1"/>
         <v>3.1622776601683799E-8</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="61">
         <f>D8*(B5^2)</f>
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="61">
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="61">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H8" s="26">
-        <v>8.8955709999999999E-8</v>
-      </c>
-      <c r="I8" s="26">
+      <c r="H8" s="13">
+        <v>3.1692788999999999E-7</v>
+      </c>
+      <c r="I8" s="61">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="61">
         <f t="shared" si="13"/>
-        <v>8.9511010440088291E-3</v>
-      </c>
-      <c r="K8" s="26">
+        <v>3.1890629247459383E-2</v>
+      </c>
+      <c r="K8" s="61">
         <f t="shared" si="14"/>
-        <v>3.2824314293281174E-6</v>
-      </c>
-      <c r="L8" s="30">
+        <v>3.2907833335399754E-6</v>
+      </c>
+      <c r="L8" s="64">
         <v>4.3114870276100002E-8</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="65">
         <f t="shared" si="3"/>
         <v>6786.2926141726075</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="65">
         <f t="shared" si="4"/>
-        <v>6.7444385798064657</v>
-      </c>
-      <c r="O8" s="30">
+        <v>24.028819379134397</v>
+      </c>
+      <c r="O8" s="64">
         <f t="shared" si="15"/>
-        <v>6793.0370527524137</v>
-      </c>
-      <c r="P8" s="31">
+        <v>6810.3214335517414</v>
+      </c>
+      <c r="P8" s="66">
         <v>4.8E+16</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="67">
         <v>0.5</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="67">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="68">
         <f t="shared" si="5"/>
         <v>682865562.01585984</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="69">
         <f t="shared" si="6"/>
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="68">
         <f t="shared" si="7"/>
         <v>82.378548010076315</v>
       </c>
-      <c r="V8" s="47">
+      <c r="V8" s="68">
         <f t="shared" si="8"/>
         <v>2.6050384204937265</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="70">
         <f t="shared" si="9"/>
         <v>75817938.835027739</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="69">
         <f t="shared" si="10"/>
-        <v>8.8955709999999999E-8</v>
-      </c>
-      <c r="Y8" s="10">
+        <v>3.1692788999999999E-7</v>
+      </c>
+      <c r="Y8" s="70">
         <f t="shared" si="11"/>
-        <v>2.5970055794799793</v>
-      </c>
-      <c r="Z8" s="10">
+        <v>4.9019191918810101</v>
+      </c>
+      <c r="Z8" s="70">
         <f t="shared" si="12"/>
-        <v>8.2124527273221753E-2</v>
-      </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="10"/>
+        <v>0.15501229552435955</v>
+      </c>
+      <c r="AE8" s="70"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="34"/>
@@ -5730,6 +5758,10 @@
       </c>
       <c r="R23" s="11"/>
     </row>
+    <row r="26" spans="1:31">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="S1:V1"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -154,6 +154,33 @@
   <si>
     <t>sigma</t>
   </si>
+  <si>
+    <t>Original Acceptance</t>
+  </si>
+  <si>
+    <t>New A (1)</t>
+  </si>
+  <si>
+    <t>New A(2)</t>
+  </si>
+  <si>
+    <t>% error</t>
+  </si>
+  <si>
+    <t>pbrem</t>
+  </si>
+  <si>
+    <t>meson</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>ratio (brem/meson)</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,33 +458,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,6 +490,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -521,9 +532,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474553"/>
-          <c:w val="0.75722462817148029"/>
-          <c:h val="0.72088764946048545"/>
+          <c:y val="0.15723521714474556"/>
+          <c:w val="0.75722462817148051"/>
+          <c:h val="0.72088764946048556"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -610,11 +621,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="148357888"/>
-        <c:axId val="148359424"/>
+        <c:axId val="151569152"/>
+        <c:axId val="151570688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148357888"/>
+        <c:axId val="151569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,14 +665,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148359424"/>
+        <c:crossAx val="151570688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148359424"/>
+        <c:axId val="151570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148357888"/>
+        <c:crossAx val="151569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,7 +773,199 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan3!$AB$3:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan3!$AC$3:$AC$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-6.1634279098730058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.249398611392019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2121843742196687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.23642376426411063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7344095082808921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8331676102275316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7463229455876901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7838846963899515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.63535071024579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.268170475529853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.517637564802442</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.192331246871476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.480960321388167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.276653388166322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8836563632315748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5691937188447849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8038455606593091</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2714366521220084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.4937042392090554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="82561280"/>
+        <c:axId val="82559744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82561280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82559744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82559744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82561280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1324,7 +1527,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1568,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1587,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1618,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1464,6 +1667,36 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1724,7 +1957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1732,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2993,6 +3226,9 @@
         <f>ABS(C19-D8)</f>
         <v>0</v>
       </c>
+      <c r="F19" s="14">
+        <v>2.3069834469999999E-5</v>
+      </c>
       <c r="K19">
         <v>12452.303764300001</v>
       </c>
@@ -3009,6 +3245,9 @@
         <f>ABS(C20-D10)</f>
         <v>0</v>
       </c>
+      <c r="F20">
+        <v>1.6522415190000001E-5</v>
+      </c>
       <c r="K20">
         <v>15085.822797299999</v>
       </c>
@@ -3132,6 +3371,234 @@
       <c r="L26">
         <f t="shared" ref="L26" si="14">ABS(K16-K26)</f>
         <v>5.0823700803448446E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="10">
+        <v>1.8831199999999999E-6</v>
+      </c>
+      <c r="D28" s="10">
+        <f>0.15*C28</f>
+        <v>2.8246799999999996E-7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>0.15*E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="10">
+        <v>4.8327299999999999E-6</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" ref="D29:D42" si="15">0.15*C29</f>
+        <v>7.2490949999999998E-7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" ref="F29:F42" si="16">0.15*E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="10">
+        <v>5.35066E-6</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="15"/>
+        <v>8.0259900000000003E-7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="10">
+        <v>6.6267700000000003E-6</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="15"/>
+        <v>9.9401550000000004E-7</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="10">
+        <v>7.0686100000000002E-6</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="15"/>
+        <v>1.0602914999999999E-6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="10">
+        <v>1.10157E-5</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="15"/>
+        <v>1.6523550000000001E-6</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2.36775E-7</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="16"/>
+        <v>3.5516249999999999E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="10">
+        <v>1.25942E-5</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="15"/>
+        <v>1.88913E-6</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3.0411399999999998E-6</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="16"/>
+        <v>4.5617099999999996E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="D35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>7.7434499999999995E-6</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="16"/>
+        <v>1.1615175E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="10">
+        <v>1.6168299999999999E-5</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="15"/>
+        <v>2.4252449999999999E-6</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.9381600000000001E-5</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="16"/>
+        <v>2.9072400000000001E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="D37" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2.2677999999999999E-5</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="16"/>
+        <v>3.4016999999999996E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="10">
+        <v>2.3069800000000001E-5</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="15"/>
+        <v>3.4604699999999998E-6</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.40348E-5</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="16"/>
+        <v>2.1052199999999999E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="D39" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2.67006E-5</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="16"/>
+        <v>4.0050900000000001E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="10">
+        <v>2.46672E-5</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="15"/>
+        <v>3.7000799999999998E-6</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2.8101799999999999E-5</v>
+      </c>
+      <c r="F40" s="13">
+        <f t="shared" si="16"/>
+        <v>4.2152699999999997E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="D41" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>4.0250300000000003E-5</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="16"/>
+        <v>6.037545E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="10">
+        <v>2.9713399999999999E-5</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="15"/>
+        <v>4.4570099999999997E-6</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3.4709999999999998E-5</v>
+      </c>
+      <c r="F42" s="13">
+        <f t="shared" si="16"/>
+        <v>5.2064999999999992E-6</v>
       </c>
     </row>
   </sheetData>
@@ -3739,10 +4206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3753,6 +4220,8 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.42578125" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -3760,11 +4229,13 @@
     <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:34">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -3798,7 +4269,7 @@
       <c r="Y1" s="59"/>
       <c r="Z1" s="59"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:34">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -3876,9 +4347,20 @@
       <c r="AA2" s="34"/>
       <c r="AB2" s="34"/>
       <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AD2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -3968,9 +4450,16 @@
         <f>Y3/SQRT(1000)</f>
         <v>1.5380244416876723E-6</v>
       </c>
-      <c r="AE3" s="10"/>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AB3">
+        <f>LOG10(D3)</f>
+        <v>-10</v>
+      </c>
+      <c r="AC3">
+        <f>LOG10(O3)</f>
+        <v>-6.1634279098730058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -4064,12 +4553,31 @@
         <v>1.417721255558829E-5</v>
       </c>
       <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="10"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AB4" s="60">
+        <f t="shared" ref="AB4:AB21" si="12">LOG10(D4)</f>
+        <v>-9.5</v>
+      </c>
+      <c r="AC4" s="60">
+        <f t="shared" ref="AC4:AC21" si="13">LOG10(O4)</f>
+        <v>-4.249398611392019</v>
+      </c>
+      <c r="AD4" s="10">
+        <f>F4</f>
+        <v>8.2169999999999996E-10</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>8.4034000000000002E-10</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>7.9021999999999999E-10</v>
+      </c>
+      <c r="AG4" s="64">
+        <f>100*(STDEV(AD4:AF4)/AVERAGE(AD4:AF4))</f>
+        <v>3.0990965572284024</v>
+      </c>
+      <c r="AH4" s="10"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -4159,16 +4667,24 @@
         <v>4.2493289385189779E-3</v>
       </c>
       <c r="Z5" s="10">
-        <f t="shared" ref="Z5:Z21" si="12">Y5/SQRT(1000)</f>
+        <f t="shared" ref="Z5:Z21" si="14">Y5/SQRT(1000)</f>
         <v>1.3437557972985578E-4</v>
       </c>
       <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="10"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AB5" s="13">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="AC5" s="13">
+        <f t="shared" si="13"/>
+        <v>-2.2121843742196687</v>
+      </c>
+      <c r="AG5" s="64" t="e">
+        <f t="shared" ref="AG5:AG21" si="15">100*(STDEV(AD5:AF5)/AVERAGE(AD5:AF5))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="34"/>
       <c r="B6" s="26">
         <v>1000</v>
@@ -4196,11 +4712,11 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J6" s="26">
-        <f t="shared" ref="J6:J21" si="13">H6/F6</f>
+        <f t="shared" ref="J6:J21" si="16">H6/F6</f>
         <v>3.3518542670208769E-2</v>
       </c>
       <c r="K6" s="26">
-        <f t="shared" ref="K6:K21" si="14">(F6*G6) + (H6*I6)</f>
+        <f t="shared" ref="K6:K21" si="17">(F6*G6) + (H6*I6)</f>
         <v>2.8035474738924896E-8</v>
       </c>
       <c r="L6" s="30">
@@ -4215,7 +4731,7 @@
         <v>2.1512202875356595E-3</v>
       </c>
       <c r="O6" s="30">
-        <f t="shared" ref="O6:O21" si="15">P6*L6*K6</f>
+        <f t="shared" ref="O6:O21" si="18">P6*L6*K6</f>
         <v>0.58019801111886027</v>
       </c>
       <c r="P6" s="31">
@@ -4256,16 +4772,24 @@
         <v>4.6381249243976755E-2</v>
       </c>
       <c r="Z6" s="10">
+        <f t="shared" si="14"/>
+        <v>1.4667038833492923E-3</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13">
         <f t="shared" si="12"/>
-        <v>1.4667038833492923E-3</v>
-      </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="10"/>
-    </row>
-    <row r="7" spans="1:31">
+        <v>-8.5</v>
+      </c>
+      <c r="AC6" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.23642376426411063</v>
+      </c>
+      <c r="AG6" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="34"/>
       <c r="B7" s="26">
         <v>1000</v>
@@ -4293,11 +4817,11 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J7" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.4265886370816659E-2</v>
       </c>
       <c r="K7" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.6214482004084626E-7</v>
       </c>
       <c r="L7" s="30">
@@ -4312,7 +4836,7 @@
         <v>0.26532989972820054</v>
       </c>
       <c r="O7" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>54.251219906023088</v>
       </c>
       <c r="P7" s="31">
@@ -4353,109 +4877,138 @@
         <v>0.51510182531495941</v>
       </c>
       <c r="Z7" s="10">
+        <f t="shared" si="14"/>
+        <v>1.6288949949054513E-2</v>
+      </c>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13">
         <f t="shared" si="12"/>
-        <v>1.6288949949054513E-2</v>
-      </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="1:31" s="69" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61">
+        <v>-8</v>
+      </c>
+      <c r="AC7" s="13">
+        <f t="shared" si="13"/>
+        <v>1.7344095082808921</v>
+      </c>
+      <c r="AG7" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="61" customFormat="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35">
         <v>1000</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63">
+      <c r="C8" s="42"/>
+      <c r="D8" s="37">
         <f t="shared" si="1"/>
         <v>3.1622776601683799E-8</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="35">
         <f>D8*(B5^2)</f>
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="35">
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="35">
         <v>0.32996425094699999</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="61">
         <v>3.1692788999999999E-7</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="35">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J8" s="61">
-        <f t="shared" si="13"/>
+      <c r="J8" s="35">
+        <f t="shared" si="16"/>
         <v>3.1890629247459383E-2</v>
       </c>
-      <c r="K8" s="61">
-        <f t="shared" si="14"/>
+      <c r="K8" s="35">
+        <f t="shared" si="17"/>
         <v>3.2907833335399754E-6</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="40">
         <v>4.3114870276100002E-8</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="39">
         <f t="shared" si="3"/>
         <v>6786.2926141726075</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="39">
         <f t="shared" si="4"/>
         <v>24.028819379134397</v>
       </c>
-      <c r="O8" s="64">
-        <f t="shared" si="15"/>
+      <c r="O8" s="40">
+        <f t="shared" si="18"/>
         <v>6810.3214335517414</v>
       </c>
-      <c r="P8" s="66">
+      <c r="P8" s="41">
         <v>4.8E+16</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="44">
         <v>0.5</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="44">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S8" s="68">
+      <c r="S8" s="62">
         <f t="shared" si="5"/>
         <v>682865562.01585984</v>
       </c>
-      <c r="T8" s="69">
+      <c r="T8" s="61">
         <f t="shared" si="6"/>
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="U8" s="68">
+      <c r="U8" s="62">
         <f t="shared" si="7"/>
         <v>82.378548010076315</v>
       </c>
-      <c r="V8" s="68">
+      <c r="V8" s="62">
         <f t="shared" si="8"/>
         <v>2.6050384204937265</v>
       </c>
-      <c r="W8" s="70">
+      <c r="W8" s="63">
         <f t="shared" si="9"/>
         <v>75817938.835027739</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="61">
         <f t="shared" si="10"/>
         <v>3.1692788999999999E-7</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="63">
         <f t="shared" si="11"/>
         <v>4.9019191918810101</v>
       </c>
-      <c r="Z8" s="70">
+      <c r="Z8" s="63">
+        <f t="shared" si="14"/>
+        <v>0.15501229552435955</v>
+      </c>
+      <c r="AB8" s="60">
         <f t="shared" si="12"/>
-        <v>0.15501229552435955</v>
-      </c>
-      <c r="AE8" s="70"/>
-    </row>
-    <row r="9" spans="1:31">
+        <v>-7.5</v>
+      </c>
+      <c r="AC8" s="60">
+        <f t="shared" si="13"/>
+        <v>3.8331676102275316</v>
+      </c>
+      <c r="AD8" s="63">
+        <f>F8</f>
+        <v>9.9379628899999994E-6</v>
+      </c>
+      <c r="AE8" s="63">
+        <v>9.8549307899999995E-6</v>
+      </c>
+      <c r="AF8" s="63">
+        <v>7.0399265599999999E-6</v>
+      </c>
+      <c r="AG8" s="64">
+        <f t="shared" si="15"/>
+        <v>18.444597348776544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="34"/>
       <c r="B9" s="26">
         <v>1000</v>
@@ -4483,11 +5036,11 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J9" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.6504064128926207E-2</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.6943543879515473E-5</v>
       </c>
       <c r="L9" s="30">
@@ -4502,7 +5055,7 @@
         <v>1636.0480351198978</v>
       </c>
       <c r="O9" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>557600.23174496356</v>
       </c>
       <c r="P9" s="31">
@@ -4543,16 +5096,24 @@
         <v>40.44804698313532</v>
       </c>
       <c r="Z9" s="10">
+        <f t="shared" si="14"/>
+        <v>1.2790795537220985</v>
+      </c>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13">
         <f t="shared" si="12"/>
-        <v>1.2790795537220985</v>
-      </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="10"/>
-    </row>
-    <row r="10" spans="1:31">
+        <v>-7</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="13"/>
+        <v>5.7463229455876901</v>
+      </c>
+      <c r="AG9" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="34"/>
       <c r="B10" s="26">
         <v>1000</v>
@@ -4580,11 +5141,11 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J10" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.252923770490451E-2</v>
       </c>
       <c r="K10" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.9377604195254798E-4</v>
       </c>
       <c r="L10" s="30">
@@ -4599,7 +5160,7 @@
         <v>151699.08738893401</v>
       </c>
       <c r="O10" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>60797356.507249042</v>
       </c>
       <c r="P10" s="31">
@@ -4640,16 +5201,24 @@
         <v>389.48177382576569</v>
       </c>
       <c r="Z10" s="10">
+        <f t="shared" si="14"/>
+        <v>12.316495124119722</v>
+      </c>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13">
         <f t="shared" si="12"/>
-        <v>12.316495124119722</v>
-      </c>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="10"/>
-    </row>
-    <row r="11" spans="1:31">
+        <v>-6.5</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="13"/>
+        <v>7.7838846963899515</v>
+      </c>
+      <c r="AG10" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="34"/>
       <c r="B11" s="26">
         <v>1000</v>
@@ -4677,11 +5246,11 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J11" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.4854048450764582E-2</v>
       </c>
       <c r="K11" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0868079495959236E-3</v>
       </c>
       <c r="L11" s="30">
@@ -4696,7 +5265,7 @@
         <v>11884688.920349039</v>
       </c>
       <c r="O11" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4318676865.6167002</v>
       </c>
       <c r="P11" s="31">
@@ -4737,16 +5306,24 @@
         <v>3447.1475105333384</v>
       </c>
       <c r="Z11" s="10">
+        <f t="shared" si="14"/>
+        <v>109.0083756386462</v>
+      </c>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13">
         <f t="shared" si="12"/>
-        <v>109.0083756386462</v>
-      </c>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="10"/>
-    </row>
-    <row r="12" spans="1:31">
+        <v>-6</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="13"/>
+        <v>9.63535071024579</v>
+      </c>
+      <c r="AG11" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="36"/>
       <c r="B12" s="26">
         <v>1000</v>
@@ -4774,18 +5351,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J12" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.0294164978154374E-2</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.959879200355899E-3</v>
       </c>
       <c r="L12" s="38">
         <v>4.3114870276100001E-4</v>
       </c>
       <c r="M12" s="39">
-        <f t="shared" ref="M12:M21" si="16">P12*L12*G12*F12</f>
+        <f t="shared" ref="M12:M21" si="19">P12*L12*G12*F12</f>
         <v>184192872249.87552</v>
       </c>
       <c r="N12" s="39">
@@ -4793,7 +5370,7 @@
         <v>1233061868.3026469</v>
       </c>
       <c r="O12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>185425934118.17816</v>
       </c>
       <c r="P12" s="41">
@@ -4834,16 +5411,24 @@
         <v>35086.414511956282</v>
       </c>
       <c r="Z12" s="10">
+        <f t="shared" si="14"/>
+        <v>1109.5298478656698</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13">
         <f t="shared" si="12"/>
-        <v>1109.5298478656698</v>
-      </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="10"/>
-    </row>
-    <row r="13" spans="1:31">
+        <v>-5.5</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="13"/>
+        <v>11.268170475529853</v>
+      </c>
+      <c r="AG12" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="36"/>
       <c r="B13" s="26">
         <v>1000</v>
@@ -4871,18 +5456,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J13" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.6731418989524545E-2</v>
       </c>
       <c r="K13" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.0323325997497677E-3</v>
       </c>
       <c r="L13" s="38">
         <v>1.3634116179599999E-3</v>
       </c>
       <c r="M13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>325835283863.50995</v>
       </c>
       <c r="N13" s="39">
@@ -4890,7 +5475,7 @@
         <v>3499471269.4988475</v>
       </c>
       <c r="O13" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>329334755133.00885</v>
       </c>
       <c r="P13" s="41">
@@ -4931,16 +5516,34 @@
         <v>59113.141348411547</v>
       </c>
       <c r="Z13" s="10">
+        <f t="shared" si="14"/>
+        <v>1869.3216630845754</v>
+      </c>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="60">
         <f t="shared" si="12"/>
-        <v>1869.3216630845754</v>
-      </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="10"/>
-    </row>
-    <row r="14" spans="1:31">
+        <v>-5.25</v>
+      </c>
+      <c r="AC13" s="60">
+        <f t="shared" si="13"/>
+        <v>11.517637564802442</v>
+      </c>
+      <c r="AD13" s="10">
+        <f>F13</f>
+        <v>1.5089088069389999E-2</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>1.6060804298319999E-2</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>1.472650992632E-2</v>
+      </c>
+      <c r="AG13" s="64">
+        <f t="shared" si="15"/>
+        <v>4.5116788420479397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="36"/>
       <c r="B14" s="26">
         <v>1000</v>
@@ -4968,18 +5571,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J14" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.59103026222145572</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.5242465723615831E-4</v>
       </c>
       <c r="L14" s="35">
         <v>4.3114861009499999E-3</v>
       </c>
       <c r="M14" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>146126254443.60333</v>
       </c>
       <c r="N14" s="39">
@@ -4987,7 +5590,7 @@
         <v>9589031237.3133659</v>
       </c>
       <c r="O14" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>155715285680.91669</v>
       </c>
       <c r="P14" s="41">
@@ -5028,16 +5631,24 @@
         <v>97861.655214380182</v>
       </c>
       <c r="Z14" s="10">
+        <f t="shared" si="14"/>
+        <v>3094.6572607153485</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13">
         <f t="shared" si="12"/>
-        <v>3094.6572607153485</v>
-      </c>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="10"/>
-    </row>
-    <row r="15" spans="1:31">
+        <v>-5</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="13"/>
+        <v>11.192331246871476</v>
+      </c>
+      <c r="AG14" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="36"/>
       <c r="B15" s="35">
         <v>1000</v>
@@ -5065,18 +5676,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J15" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5875515242907654</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.2241702798460027E-5</v>
       </c>
       <c r="L15" s="35">
         <v>7.6670269580999999E-3</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25730923315.627377</v>
       </c>
       <c r="N15" s="39">
@@ -5084,7 +5695,7 @@
         <v>4535445601.293005</v>
       </c>
       <c r="O15" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30266368916.92038</v>
       </c>
       <c r="P15" s="41">
@@ -5125,16 +5736,24 @@
         <v>67334.388726441859</v>
       </c>
       <c r="Z15" s="10">
+        <f t="shared" si="14"/>
+        <v>2129.3003323072066</v>
+      </c>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13">
         <f t="shared" si="12"/>
-        <v>2129.3003323072066</v>
-      </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="10"/>
-    </row>
-    <row r="16" spans="1:31">
+        <v>-4.875</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="13"/>
+        <v>10.480960321388167</v>
+      </c>
+      <c r="AG15" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="36"/>
       <c r="B16" s="35">
         <v>1000</v>
@@ -5145,7 +5764,7 @@
         <v>1.7782794100389236E-5</v>
       </c>
       <c r="E16" s="35">
-        <f t="shared" ref="E16" si="17">D16*(B6^2)</f>
+        <f t="shared" ref="E16" si="20">D16*(B6^2)</f>
         <v>17.782794100389236</v>
       </c>
       <c r="F16" s="35">
@@ -5162,18 +5781,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J16" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>11.892317185044632</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8892502559112829E-5</v>
       </c>
       <c r="L16" s="35">
         <v>1.3634116178599999E-2</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8148765546.8386164</v>
       </c>
       <c r="N16" s="39">
@@ -5181,7 +5800,7 @@
         <v>10759573809.070606</v>
       </c>
       <c r="O16" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18908339355.909222</v>
       </c>
       <c r="P16" s="41">
@@ -5222,16 +5841,24 @@
         <v>103705.08783138602</v>
       </c>
       <c r="Z16" s="10">
+        <f t="shared" si="14"/>
+        <v>3279.4428249499165</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13">
         <f t="shared" si="12"/>
-        <v>3279.4428249499165</v>
-      </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="10"/>
-    </row>
-    <row r="17" spans="1:31">
+        <v>-4.75</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="13"/>
+        <v>10.276653388166322</v>
+      </c>
+      <c r="AG16" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="36"/>
       <c r="B17" s="35">
         <v>1000</v>
@@ -5259,18 +5886,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J17" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2108.9423790046567</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.5733708616118827E-6</v>
       </c>
       <c r="L17" s="35">
         <v>2.42452680824E-2</v>
       </c>
       <c r="M17" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32531500.609682359</v>
       </c>
       <c r="N17" s="39">
@@ -5278,7 +5905,7 @@
         <v>7617379159.1415224</v>
       </c>
       <c r="O17" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7649910659.7512045</v>
       </c>
       <c r="P17" s="41">
@@ -5319,16 +5946,24 @@
         <v>87269.801295984144</v>
       </c>
       <c r="Z17" s="10">
+        <f t="shared" si="14"/>
+        <v>2759.7134304562414</v>
+      </c>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13">
         <f t="shared" si="12"/>
-        <v>2759.7134304562414</v>
-      </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="10"/>
-    </row>
-    <row r="18" spans="1:31">
+        <v>-4.625</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="13"/>
+        <v>9.8836563632315748</v>
+      </c>
+      <c r="AG17" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="36"/>
       <c r="B18" s="35">
         <v>1000</v>
@@ -5356,18 +5991,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J18" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>85145.436629526477</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7919479789014016E-7</v>
       </c>
       <c r="L18" s="35">
         <v>4.3114870276099997E-2</v>
       </c>
       <c r="M18" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>39223.797882190978</v>
       </c>
       <c r="N18" s="39">
@@ -5375,7 +6010,7 @@
         <v>370806878.53101456</v>
       </c>
       <c r="O18" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>370846102.32889682</v>
       </c>
       <c r="P18" s="41">
@@ -5416,16 +6051,24 @@
         <v>19256.299359062599</v>
       </c>
       <c r="Z18" s="10">
+        <f t="shared" si="14"/>
+        <v>608.93765280678338</v>
+      </c>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13">
         <f t="shared" si="12"/>
-        <v>608.93765280678338</v>
-      </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="10"/>
-    </row>
-    <row r="19" spans="1:31">
+        <v>-4.5</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="13"/>
+        <v>8.5691937188447849</v>
+      </c>
+      <c r="AG18" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="36"/>
       <c r="B19" s="35">
         <v>1000</v>
@@ -5453,18 +6096,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J19" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1355944.8203347265</v>
       </c>
       <c r="K19" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7297260775945929E-10</v>
       </c>
       <c r="L19" s="35">
         <v>7.66702695894E-2</v>
       </c>
       <c r="M19" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.228281538890891</v>
       </c>
       <c r="N19" s="39">
@@ -5472,7 +6115,7 @@
         <v>636564.88220642693</v>
       </c>
       <c r="O19" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>636569.11048796575</v>
       </c>
       <c r="P19" s="41">
@@ -5513,16 +6156,24 @@
         <v>797.85016087041652</v>
       </c>
       <c r="Z19" s="10">
+        <f t="shared" si="14"/>
+        <v>25.230237398822659</v>
+      </c>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13">
         <f t="shared" si="12"/>
-        <v>25.230237398822659</v>
-      </c>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="10"/>
-    </row>
-    <row r="20" spans="1:31">
+        <v>-4.375</v>
+      </c>
+      <c r="AC19" s="13">
+        <f t="shared" si="13"/>
+        <v>5.8038455606593091</v>
+      </c>
+      <c r="AG19" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="36"/>
       <c r="B20" s="26">
         <v>1000</v>
@@ -5550,18 +6201,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J20" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3266515472968.0293</v>
       </c>
       <c r="K20" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.1789041772658878E-18</v>
       </c>
       <c r="L20" s="35">
         <v>0.136341161796</v>
       </c>
       <c r="M20" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4758487970407779E-13</v>
       </c>
       <c r="N20" s="39">
@@ -5569,7 +6220,7 @@
         <v>5.352582229168866E-2</v>
       </c>
       <c r="O20" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.3525822291836257E-2</v>
       </c>
       <c r="P20" s="41">
@@ -5610,16 +6261,24 @@
         <v>0.23135648314168472</v>
       </c>
       <c r="Z20" s="10">
+        <f t="shared" si="14"/>
+        <v>7.3161343817407191E-3</v>
+      </c>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13">
         <f t="shared" si="12"/>
-        <v>7.3161343817407191E-3</v>
-      </c>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="10"/>
-    </row>
-    <row r="21" spans="1:31">
+        <v>-4.25</v>
+      </c>
+      <c r="AC20" s="13">
+        <f t="shared" si="13"/>
+        <v>-1.2714366521220084</v>
+      </c>
+      <c r="AG20" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="34"/>
       <c r="B21" s="26">
         <v>1000</v>
@@ -5647,18 +6306,18 @@
         <v>3.6635629013408E-2</v>
       </c>
       <c r="J21" s="35" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5503420729904542E-25</v>
       </c>
       <c r="L21" s="26">
         <v>0.431148610095</v>
       </c>
       <c r="M21" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N21" s="39">
@@ -5666,7 +6325,7 @@
         <v>3.2084535837198497E-9</v>
       </c>
       <c r="O21" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.2084535837198497E-9</v>
       </c>
       <c r="P21" s="31">
@@ -5707,16 +6366,24 @@
         <v>5.6643213041986328E-5</v>
       </c>
       <c r="Z21" s="10">
+        <f t="shared" si="14"/>
+        <v>1.7912156720283157E-6</v>
+      </c>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13">
         <f t="shared" si="12"/>
-        <v>1.7912156720283157E-6</v>
-      </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="10"/>
-    </row>
-    <row r="22" spans="1:31">
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="AC21" s="13">
+        <f t="shared" si="13"/>
+        <v>-8.4937042392090554</v>
+      </c>
+      <c r="AG21" s="64" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="34"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -5736,7 +6403,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="45"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:33">
       <c r="A23" s="34"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -5758,9 +6425,969 @@
       </c>
       <c r="R23" s="11"/>
     </row>
-    <row r="26" spans="1:31">
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+    <row r="26" spans="1:33">
+      <c r="L26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" s="13"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="L27" s="10">
+        <v>1.7352100000000001E-7</v>
+      </c>
+      <c r="M27" s="10">
+        <v>2.6028200000000001E-8</v>
+      </c>
+      <c r="N27" s="10">
+        <v>4.1121199999999999E-8</v>
+      </c>
+      <c r="O27" s="10">
+        <v>6.1681799999999997E-9</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0.23698</v>
+      </c>
+      <c r="Q27" s="10">
+        <f>SQRT(   ((O27^2)/(L27^2)) + (  ((M27^2)*(N27^2))/(L27^4)))</f>
+        <v>5.0271334246057599E-2</v>
+      </c>
+      <c r="AC27" s="13"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="L28" s="10">
+        <v>5.1503800000000001E-6</v>
+      </c>
+      <c r="M28" s="10">
+        <v>7.72557E-7</v>
+      </c>
+      <c r="N28" s="10">
+        <v>1.52687E-6</v>
+      </c>
+      <c r="O28" s="10">
+        <v>2.2903000000000001E-7</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0.29646</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" ref="Q28:Q56" si="21">SQRT(   ((O28^2)/(L28^2)) + (  ((M28^2)*(N28^2))/(L28^4)))</f>
+        <v>6.2888114225337452E-2</v>
+      </c>
+      <c r="AD28" s="64"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="L29" s="10">
+        <v>2.0060299999999998E-5</v>
+      </c>
+      <c r="M29" s="10">
+        <v>3.00905E-6</v>
+      </c>
+      <c r="N29" s="10">
+        <v>3.7751200000000002E-6</v>
+      </c>
+      <c r="O29" s="10">
+        <v>5.6626800000000005E-7</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0.18819</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="21"/>
+        <v>3.9920866132878395E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="L30" s="10">
+        <v>5.1404599999999999E-4</v>
+      </c>
+      <c r="M30" s="10">
+        <v>7.7106899999999999E-5</v>
+      </c>
+      <c r="N30" s="10">
+        <v>1.09576E-4</v>
+      </c>
+      <c r="O30" s="10">
+        <v>1.6436400000000001E-5</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0.21315999999999999</v>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="21"/>
+        <v>4.5218871067159626E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="L31" s="10">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="M31" s="10">
+        <v>3.7649999999999999E-4</v>
+      </c>
+      <c r="N31" s="10">
+        <v>5.4230999999999995E-4</v>
+      </c>
+      <c r="O31" s="10">
+        <v>8.1346499999999998E-5</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0.21606</v>
+      </c>
+      <c r="Q31" s="10">
+        <f t="shared" si="21"/>
+        <v>4.5833196634096803E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="L32" s="13">
+        <v>2.8680000000000001E-2</v>
+      </c>
+      <c r="M32" s="10">
+        <v>4.3E-3</v>
+      </c>
+      <c r="N32" s="10">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1.41E-3</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0.32706000000000002</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="21"/>
+        <v>6.9437201887276881E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:28">
+      <c r="L33" s="13">
+        <v>3.4290000000000001E-2</v>
+      </c>
+      <c r="M33" s="10">
+        <v>5.1399999999999996E-3</v>
+      </c>
+      <c r="N33" s="13">
+        <v>3.2739999999999998E-2</v>
+      </c>
+      <c r="O33" s="10">
+        <v>4.9100000000000003E-3</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" si="21"/>
+        <v>0.20245356934152614</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="4:28">
+      <c r="L34" s="10">
+        <v>1.772E-2</v>
+      </c>
+      <c r="M34" s="10">
+        <v>2.66E-3</v>
+      </c>
+      <c r="N34" s="13">
+        <v>4.9750000000000003E-2</v>
+      </c>
+      <c r="O34" s="10">
+        <v>7.4599999999999996E-3</v>
+      </c>
+      <c r="P34" s="13">
+        <v>2.8075600000000001</v>
+      </c>
+      <c r="Q34" s="10">
+        <f t="shared" si="21"/>
+        <v>0.59569825024377854</v>
+      </c>
+    </row>
+    <row r="35" spans="4:28">
+      <c r="L35" s="10">
+        <v>1.48E-3</v>
+      </c>
+      <c r="M35" s="10">
+        <v>2.22E-4</v>
+      </c>
+      <c r="N35" s="13">
+        <v>2.3820000000000001E-2</v>
+      </c>
+      <c r="O35" s="10">
+        <v>3.5699999999999998E-3</v>
+      </c>
+      <c r="P35" s="13">
+        <v>16.09459</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" si="21"/>
+        <v>3.4127460699215217</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1.7352100000000001E-7</v>
+      </c>
+      <c r="X35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>4.1121199999999999E-8</v>
+      </c>
+      <c r="AA35" s="10">
+        <f>W35/Y35</f>
+        <v>4.2197455327179174</v>
+      </c>
+      <c r="AB35" s="10">
+        <f>Y35/W35</f>
+        <v>0.23698111467776234</v>
+      </c>
+    </row>
+    <row r="36" spans="4:28">
+      <c r="L36" s="10">
+        <v>1.08434E-4</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1.6265100000000001E-5</v>
+      </c>
+      <c r="N36" s="10">
+        <v>6.6E-3</v>
+      </c>
+      <c r="O36" s="10">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="P36" s="13">
+        <v>60.866520000000001</v>
+      </c>
+      <c r="Q36" s="10">
+        <f t="shared" si="21"/>
+        <v>12.911738262439494</v>
+      </c>
+      <c r="W36" s="10">
+        <v>5.1503800000000001E-6</v>
+      </c>
+      <c r="X36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>1.52687E-6</v>
+      </c>
+      <c r="AA36" s="10">
+        <f t="shared" ref="AA36:AA47" si="22">W36/Y36</f>
+        <v>3.3731620897653372</v>
+      </c>
+      <c r="AB36" s="10">
+        <f t="shared" ref="AB36:AB47" si="23">Y36/W36</f>
+        <v>0.29645773709901013</v>
+      </c>
+    </row>
+    <row r="37" spans="4:28">
+      <c r="L37" s="10">
+        <v>1E-14</v>
+      </c>
+      <c r="M37" s="10">
+        <v>1.4999999999999999E-15</v>
+      </c>
+      <c r="N37" s="10">
+        <v>4.2757499999999998E-5</v>
+      </c>
+      <c r="O37" s="10">
+        <v>6.4136199999999996E-6</v>
+      </c>
+      <c r="P37" s="10">
+        <v>4275750000</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" si="21"/>
+        <v>907023192.34419239</v>
+      </c>
+      <c r="W37" s="10">
+        <v>2.0060299999999998E-5</v>
+      </c>
+      <c r="X37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>3.7751200000000002E-6</v>
+      </c>
+      <c r="AA37" s="10">
+        <f t="shared" si="22"/>
+        <v>5.3138178389031339</v>
+      </c>
+      <c r="AB37" s="10">
+        <f t="shared" si="23"/>
+        <v>0.18818861133681952</v>
+      </c>
+    </row>
+    <row r="38" spans="4:28">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="Q38" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="10">
+        <v>5.1404599999999999E-4</v>
+      </c>
+      <c r="X38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>1.09576E-4</v>
+      </c>
+      <c r="AA38" s="10">
+        <f t="shared" si="22"/>
+        <v>4.6912280061327296</v>
+      </c>
+      <c r="AB38" s="10">
+        <f t="shared" si="23"/>
+        <v>0.21316380246125832</v>
+      </c>
+    </row>
+    <row r="39" spans="4:28">
+      <c r="L39" s="10">
+        <v>1.0017E-10</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1.5025499999999999E-11</v>
+      </c>
+      <c r="N39" s="10">
+        <v>3.12E-12</v>
+      </c>
+      <c r="O39" s="10">
+        <v>4.6800000000000003E-13</v>
+      </c>
+      <c r="P39" s="13">
+        <v>3.1150000000000001E-2</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" si="21"/>
+        <v>6.6072870838635176E-3</v>
+      </c>
+      <c r="W39" s="13">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="X39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>5.4230999999999995E-4</v>
+      </c>
+      <c r="AA39" s="10">
+        <f t="shared" si="22"/>
+        <v>4.6283490992236915</v>
+      </c>
+      <c r="AB39" s="10">
+        <f t="shared" si="23"/>
+        <v>0.21605976095617527</v>
+      </c>
+    </row>
+    <row r="40" spans="4:28">
+      <c r="L40" s="10">
+        <v>8.2169999999999996E-10</v>
+      </c>
+      <c r="M40" s="10">
+        <v>1.2325500000000001E-10</v>
+      </c>
+      <c r="N40" s="10">
+        <v>2.6510000000000001E-11</v>
+      </c>
+      <c r="O40" s="10">
+        <v>3.9765000000000003E-12</v>
+      </c>
+      <c r="P40" s="13">
+        <v>3.2259999999999997E-2</v>
+      </c>
+      <c r="Q40" s="10">
+        <f t="shared" si="21"/>
+        <v>6.8438849102794366E-3</v>
+      </c>
+      <c r="W40" s="13">
+        <v>2.8680000000000001E-2</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="AA40" s="10">
+        <f t="shared" si="22"/>
+        <v>3.057569296375267</v>
+      </c>
+      <c r="AB40" s="10">
+        <f t="shared" si="23"/>
+        <v>0.32705718270571826</v>
+      </c>
+    </row>
+    <row r="41" spans="4:28">
+      <c r="L41" s="10">
+        <v>8.9577799999999992E-9</v>
+      </c>
+      <c r="M41" s="10">
+        <v>1.34367E-9</v>
+      </c>
+      <c r="N41" s="10">
+        <v>2.3815999999999998E-10</v>
+      </c>
+      <c r="O41" s="10">
+        <v>3.5724000000000002E-11</v>
+      </c>
+      <c r="P41" s="13">
+        <v>2.6589999999999999E-2</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="21"/>
+        <v>5.6399489272648184E-3</v>
+      </c>
+      <c r="W41" s="13">
+        <v>3.4290000000000001E-2</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>3.2739999999999998E-2</v>
+      </c>
+      <c r="AA41" s="10">
+        <f t="shared" si="22"/>
+        <v>1.0473427000610875</v>
+      </c>
+      <c r="AB41" s="10">
+        <f t="shared" si="23"/>
+        <v>0.95479731700204129</v>
+      </c>
+    </row>
+    <row r="42" spans="4:28">
+      <c r="L42" s="10">
+        <v>8.4650200000000004E-8</v>
+      </c>
+      <c r="M42" s="10">
+        <v>1.26975E-8</v>
+      </c>
+      <c r="N42" s="10">
+        <v>2.8373499999999999E-9</v>
+      </c>
+      <c r="O42" s="10">
+        <v>4.2560199999999997E-10</v>
+      </c>
+      <c r="P42" s="13">
+        <v>3.3520000000000001E-2</v>
+      </c>
+      <c r="Q42" s="10">
+        <f t="shared" si="21"/>
+        <v>7.1103407090743103E-3</v>
+      </c>
+      <c r="W42" s="13">
+        <v>1.772E-2</v>
+      </c>
+      <c r="X42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>4.9750000000000003E-2</v>
+      </c>
+      <c r="AA42" s="10">
+        <f t="shared" si="22"/>
+        <v>0.35618090452261303</v>
+      </c>
+      <c r="AB42" s="10">
+        <f t="shared" si="23"/>
+        <v>2.807562076749436</v>
+      </c>
+    </row>
+    <row r="43" spans="4:28">
+      <c r="L43" s="10">
+        <v>7.9057899999999995E-7</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1.18587E-7</v>
+      </c>
+      <c r="N43" s="10">
+        <v>3.4995700000000001E-8</v>
+      </c>
+      <c r="O43" s="10">
+        <v>5.2493600000000002E-9</v>
+      </c>
+      <c r="P43" s="13">
+        <v>4.4269999999999997E-2</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" si="21"/>
+        <v>9.3902282572063504E-3</v>
+      </c>
+      <c r="W43" s="13">
+        <v>1.48E-3</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>2.3820000000000001E-2</v>
+      </c>
+      <c r="AA43" s="10">
+        <f t="shared" si="22"/>
+        <v>6.2132661628883291E-2</v>
+      </c>
+      <c r="AB43" s="10">
+        <f t="shared" si="23"/>
+        <v>16.094594594594597</v>
+      </c>
+    </row>
+    <row r="44" spans="4:28">
+      <c r="L44" s="10">
+        <v>9.9379599999999993E-6</v>
+      </c>
+      <c r="M44" s="10">
+        <v>1.4906899999999999E-6</v>
+      </c>
+      <c r="N44" s="10">
+        <v>3.1692800000000002E-7</v>
+      </c>
+      <c r="O44" s="10">
+        <v>4.7539199999999997E-8</v>
+      </c>
+      <c r="P44" s="13">
+        <v>3.1890000000000002E-2</v>
+      </c>
+      <c r="Q44" s="10">
+        <f t="shared" si="21"/>
+        <v>6.7650192981305243E-3</v>
+      </c>
+      <c r="W44" s="10">
+        <v>1.08434E-4</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AA44" s="10">
+        <f t="shared" si="22"/>
+        <v>1.6429393939393938E-2</v>
+      </c>
+      <c r="AB44" s="10">
+        <f t="shared" si="23"/>
+        <v>60.866517881845176</v>
+      </c>
+    </row>
+    <row r="45" spans="4:28">
+      <c r="L45" s="10">
+        <v>8.1416399999999995E-5</v>
+      </c>
+      <c r="M45" s="10">
+        <v>1.22125E-5</v>
+      </c>
+      <c r="N45" s="10">
+        <v>2.1578599999999999E-6</v>
+      </c>
+      <c r="O45" s="10">
+        <v>3.2367900000000002E-7</v>
+      </c>
+      <c r="P45" s="13">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="Q45" s="10">
+        <f t="shared" si="21"/>
+        <v>5.622355954110079E-3</v>
+      </c>
+      <c r="W45" s="10">
+        <v>1E-14</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>4.2757499999999998E-5</v>
+      </c>
+      <c r="AA45" s="10">
+        <f t="shared" si="22"/>
+        <v>2.3387709758521896E-10</v>
+      </c>
+      <c r="AB45" s="10">
+        <f t="shared" si="23"/>
+        <v>4275750000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:28">
+      <c r="L46" s="10">
+        <v>8.8810500000000004E-4</v>
+      </c>
+      <c r="M46" s="10">
+        <v>1.3321599999999999E-4</v>
+      </c>
+      <c r="N46" s="10">
+        <v>2.00083E-5</v>
+      </c>
+      <c r="O46" s="10">
+        <v>3.00124E-6</v>
+      </c>
+      <c r="P46" s="13">
+        <v>2.2530000000000001E-2</v>
+      </c>
+      <c r="Q46" s="10">
+        <f t="shared" si="21"/>
+        <v>4.779166686501796E-3</v>
+      </c>
+      <c r="W46" s="13">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB46" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="4:28">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="L47" s="10">
+        <v>6.3099999999999996E-3</v>
+      </c>
+      <c r="M47" s="10">
+        <v>9.4649999999999997E-4</v>
+      </c>
+      <c r="N47" s="10">
+        <v>1.5675300000000001E-4</v>
+      </c>
+      <c r="O47" s="10">
+        <v>2.3513E-5</v>
+      </c>
+      <c r="P47" s="13">
+        <v>2.4850000000000001E-2</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" si="21"/>
+        <v>5.2697889281708909E-3</v>
+      </c>
+      <c r="W47" s="13">
+        <v>0</v>
+      </c>
+      <c r="X47" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB47" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="4:28">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="67"/>
+      <c r="L48" s="13">
+        <v>2.6970000000000001E-2</v>
+      </c>
+      <c r="M48" s="10">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="N48" s="10">
+        <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="O48" s="10">
+        <v>2.4449999999999998E-4</v>
+      </c>
+      <c r="P48" s="13">
+        <v>6.0290000000000003E-2</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" si="21"/>
+        <v>1.2827867277373915E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:22">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="L49" s="10">
+        <v>1.5089999999999999E-2</v>
+      </c>
+      <c r="M49" s="10">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="N49" s="13">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="O49" s="10">
+        <v>2.1900000000000001E-4</v>
+      </c>
+      <c r="P49" s="13">
+        <v>9.6729999999999997E-2</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" si="21"/>
+        <v>2.0508509727744408E-2</v>
+      </c>
+      <c r="V49" s="13"/>
+    </row>
+    <row r="50" spans="4:22">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="L50" s="13">
+        <v>2.14E-3</v>
+      </c>
+      <c r="M50" s="10">
+        <v>3.21E-4</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="O50" s="10">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="P50" s="13">
+        <v>0.59103000000000006</v>
+      </c>
+      <c r="Q50" s="10">
+        <f t="shared" si="21"/>
+        <v>0.12490016976098831</v>
+      </c>
+    </row>
+    <row r="51" spans="4:22">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="L51" s="10">
+        <v>3.7736099999999999E-5</v>
+      </c>
+      <c r="M51" s="10">
+        <v>5.6604199999999998E-6</v>
+      </c>
+      <c r="N51" s="10">
+        <v>4.4876900000000001E-4</v>
+      </c>
+      <c r="O51" s="10">
+        <v>6.7315299999999996E-5</v>
+      </c>
+      <c r="P51" s="13">
+        <v>11.89232</v>
+      </c>
+      <c r="Q51" s="10">
+        <f t="shared" si="21"/>
+        <v>2.522737845622943</v>
+      </c>
+    </row>
+    <row r="52" spans="4:22">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="L52" s="10">
+        <v>8.47167E-8</v>
+      </c>
+      <c r="M52" s="10">
+        <v>1.27075E-8</v>
+      </c>
+      <c r="N52" s="10">
+        <v>1.7866299999999999E-4</v>
+      </c>
+      <c r="O52" s="10">
+        <v>2.67995E-5</v>
+      </c>
+      <c r="P52" s="13">
+        <v>2108.94238</v>
+      </c>
+      <c r="Q52" s="10">
+        <f t="shared" si="21"/>
+        <v>447.37547087233708</v>
+      </c>
+    </row>
+    <row r="53" spans="4:22">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="L53" s="10">
+        <v>5.7439999999999998E-11</v>
+      </c>
+      <c r="M53" s="10">
+        <v>8.6159999999999996E-12</v>
+      </c>
+      <c r="N53" s="10">
+        <v>4.8907499999999997E-6</v>
+      </c>
+      <c r="O53" s="10">
+        <v>7.3361199999999997E-7</v>
+      </c>
+      <c r="P53" s="13">
+        <v>85145.436629999997</v>
+      </c>
+      <c r="Q53" s="10">
+        <f t="shared" si="21"/>
+        <v>18062.054203918902</v>
+      </c>
+    </row>
+    <row r="54" spans="4:22">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="L54" s="10">
+        <v>3.4820000000000002E-15</v>
+      </c>
+      <c r="M54" s="10">
+        <v>5.2230000000000003E-16</v>
+      </c>
+      <c r="N54" s="10">
+        <v>4.7213999999999998E-9</v>
+      </c>
+      <c r="O54" s="10">
+        <v>7.0820999999999998E-10</v>
+      </c>
+      <c r="P54" s="10">
+        <v>1355940</v>
+      </c>
+      <c r="Q54" s="10">
+        <f t="shared" si="21"/>
+        <v>287639.34147278848</v>
+      </c>
+    </row>
+    <row r="55" spans="4:22">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="L55" s="10">
+        <v>6.8345000000000003E-29</v>
+      </c>
+      <c r="M55" s="10">
+        <v>1.02518E-29</v>
+      </c>
+      <c r="N55" s="10">
+        <v>2.2324999999999998E-16</v>
+      </c>
+      <c r="O55" s="10">
+        <v>3.3487500000000003E-17</v>
+      </c>
+      <c r="P55" s="10">
+        <v>3266520000000</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" si="21"/>
+        <v>692934262328.94763</v>
+      </c>
+    </row>
+    <row r="56" spans="4:22">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="L56" s="13">
+        <v>0</v>
+      </c>
+      <c r="M56" s="13">
+        <v>0</v>
+      </c>
+      <c r="N56" s="10">
+        <v>4.2317900000000002E-24</v>
+      </c>
+      <c r="O56" s="10">
+        <v>6.3476800000000004E-25</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="4:22">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="4:22">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="4:22">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="4:22">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="4:22">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="4:22">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="4:22">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="4:22">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="13"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5DB39B-4FAC-4ADC-B270-A7752E745EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -166,7 +167,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,9 +429,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,6 +456,9 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +477,21 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -514,6 +526,7 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -528,6 +541,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -603,13 +617,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE65-446F-B5B0-96B8AF12F512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="148357888"/>
         <c:axId val="148359424"/>
       </c:lineChart>
@@ -618,9 +641,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -659,12 +684,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="148359424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -682,6 +709,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -723,6 +751,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1324,7 +1353,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1394,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1413,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1444,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1724,21 +1753,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1755,7 +1784,7 @@
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="37.5" customHeight="1">
+    <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +1849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1891,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1964,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="13" customFormat="1">
+    <row r="4" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>0.85</v>
       </c>
@@ -2037,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.9</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.95</v>
       </c>
@@ -2183,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2264,7 +2293,7 @@
         <v>645.26812941664195</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -2345,7 +2374,7 @@
         <v>4494.8107705424736</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -2420,7 +2449,7 @@
         <v>7433.9492350506998</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -2501,7 +2530,7 @@
         <v>11993.615143059737</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1.25</v>
       </c>
@@ -2576,7 +2605,7 @@
         <v>13132.077241247989</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -2657,7 +2686,7 @@
         <v>10415.737427766337</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1.35</v>
       </c>
@@ -2732,7 +2761,7 @@
         <v>14450.431517772464</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1.4</v>
       </c>
@@ -2813,7 +2842,7 @@
         <v>14889.386607373599</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1.45</v>
       </c>
@@ -2888,7 +2917,7 @@
         <v>17879.237293458085</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2969,7 +2998,7 @@
         <v>16647.421261615298</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="10">
         <v>5.0134391530400001E-8</v>
       </c>
@@ -2985,7 +3014,7 @@
         <v>1.3137592759449035E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="10">
         <v>4.1948867536799998E-8</v>
       </c>
@@ -3001,7 +3030,7 @@
         <v>1.0765397746581584E-5</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="10">
         <v>3.3808652123E-8</v>
       </c>
@@ -3017,7 +3046,7 @@
         <v>7.3408464231761172E-6</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="10">
         <v>2.5938578555499999E-8</v>
       </c>
@@ -3040,7 +3069,7 @@
         <v>3.7665085983462632E-6</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="10">
         <v>1.8582804287899999E-8</v>
       </c>
@@ -3063,7 +3092,7 @@
         <v>6.3069364841794595E-7</v>
       </c>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="10">
         <v>1.20043081179E-8</v>
       </c>
@@ -3086,7 +3115,7 @@
         <v>1.7426759768568445E-7</v>
       </c>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>5689.9093270000003</v>
       </c>
@@ -3102,7 +3131,7 @@
         <v>6.3365405367221683E-8</v>
       </c>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>11906.962123900001</v>
       </c>
@@ -3118,7 +3147,7 @@
         <v>1.3891394701204263E-8</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>9615.4596280000005</v>
       </c>
@@ -3142,14 +3171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -3158,7 +3187,7 @@
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60">
+    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -3205,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3255,7 +3284,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3307,7 +3336,7 @@
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -3357,10 +3386,10 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" s="50"/>
       <c r="E6" s="51"/>
       <c r="F6" s="12"/>
@@ -3377,7 +3406,7 @@
       <c r="Q6" s="50"/>
       <c r="R6" s="50"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" s="50"/>
       <c r="E7" s="51"/>
       <c r="F7" s="12"/>
@@ -3394,7 +3423,7 @@
       <c r="Q7" s="50"/>
       <c r="R7" s="50"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
       <c r="F8" s="12"/>
@@ -3411,7 +3440,7 @@
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
       <c r="F9" s="12"/>
@@ -3428,7 +3457,7 @@
       <c r="Q9" s="50"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="12"/>
@@ -3445,7 +3474,7 @@
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="12"/>
@@ -3462,7 +3491,7 @@
       <c r="Q11" s="50"/>
       <c r="R11" s="50"/>
     </row>
-    <row r="12" spans="1:18" ht="18">
+    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="12"/>
@@ -3479,7 +3508,7 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
       <c r="F13" s="12"/>
@@ -3496,7 +3525,7 @@
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="12"/>
@@ -3513,7 +3542,7 @@
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
       <c r="F15" s="12"/>
@@ -3530,7 +3559,7 @@
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
@@ -3547,7 +3576,7 @@
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="4:18">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3564,7 +3593,7 @@
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="4:18">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
@@ -3581,154 +3610,154 @@
       <c r="Q18" s="50"/>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="4:18">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="4:18">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="4:18">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="4:18">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="4:18">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F25" s="48"/>
     </row>
-    <row r="26" spans="4:18">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F26" s="48"/>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F27" s="48"/>
     </row>
-    <row r="28" spans="4:18">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F28" s="48"/>
     </row>
-    <row r="29" spans="4:18">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F29" s="48"/>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F30" s="48"/>
     </row>
-    <row r="31" spans="4:18">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F31" s="48"/>
     </row>
-    <row r="32" spans="4:18">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F32" s="48"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="48"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="49"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="49"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="48"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="48"/>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="48"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="48"/>
     </row>
-    <row r="41" spans="6:6">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="48"/>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="48"/>
     </row>
-    <row r="43" spans="6:6">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="48"/>
     </row>
-    <row r="44" spans="6:6">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="48"/>
     </row>
-    <row r="45" spans="6:6">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="48"/>
     </row>
-    <row r="46" spans="6:6">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="48"/>
     </row>
-    <row r="47" spans="6:6">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="48"/>
     </row>
-    <row r="48" spans="6:6">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="48"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="48"/>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="48"/>
     </row>
-    <row r="51" spans="6:6">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="48"/>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="48"/>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="48"/>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="48"/>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="49"/>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="48"/>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="49"/>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="48"/>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="48"/>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="48"/>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="48"/>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="48"/>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="48"/>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="48"/>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="48"/>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="48"/>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="48"/>
     </row>
-    <row r="68" spans="6:6">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="48"/>
     </row>
   </sheetData>
@@ -3738,14 +3767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -3764,7 +3793,7 @@
     <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -3785,20 +3814,20 @@
       <c r="P1" s="21"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -3878,7 +3907,7 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="34"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -3970,7 +3999,7 @@
       </c>
       <c r="AE3" s="10"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -4069,7 +4098,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -4168,7 +4197,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="10"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="26">
         <v>1000</v>
@@ -4265,7 +4294,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="10"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="26">
         <v>1000</v>
@@ -4362,100 +4391,100 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="10"/>
     </row>
-    <row r="8" spans="1:31" s="69" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61">
+    <row r="8" spans="1:31" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60">
         <v>1000</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62">
         <f t="shared" si="1"/>
         <v>3.1622776601683799E-8</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="60">
         <f>D8*(B5^2)</f>
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="60">
         <v>0.32996425094699999</v>
       </c>
       <c r="H8" s="13">
         <v>3.1692788999999999E-7</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="60">
         <f t="shared" si="2"/>
         <v>3.6635629013408E-2</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="60">
         <f t="shared" si="13"/>
         <v>3.1890629247459383E-2</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="60">
         <f t="shared" si="14"/>
         <v>3.2907833335399754E-6</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="63">
         <v>4.3114870276100002E-8</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="64">
         <f t="shared" si="3"/>
         <v>6786.2926141726075</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="64">
         <f t="shared" si="4"/>
         <v>24.028819379134397</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="63">
         <f t="shared" si="15"/>
         <v>6810.3214335517414</v>
       </c>
-      <c r="P8" s="66">
+      <c r="P8" s="65">
         <v>4.8E+16</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="66">
         <v>0.5</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="66">
         <v>0.69199999999999995</v>
       </c>
-      <c r="S8" s="68">
+      <c r="S8" s="67">
         <f t="shared" si="5"/>
         <v>682865562.01585984</v>
       </c>
-      <c r="T8" s="69">
+      <c r="T8" s="68">
         <f t="shared" si="6"/>
         <v>9.9379628899999994E-6</v>
       </c>
-      <c r="U8" s="68">
+      <c r="U8" s="67">
         <f t="shared" si="7"/>
         <v>82.378548010076315</v>
       </c>
-      <c r="V8" s="68">
+      <c r="V8" s="67">
         <f t="shared" si="8"/>
         <v>2.6050384204937265</v>
       </c>
-      <c r="W8" s="70">
+      <c r="W8" s="69">
         <f t="shared" si="9"/>
         <v>75817938.835027739</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="68">
         <f t="shared" si="10"/>
         <v>3.1692788999999999E-7</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="69">
         <f t="shared" si="11"/>
         <v>4.9019191918810101</v>
       </c>
-      <c r="Z8" s="70">
+      <c r="Z8" s="69">
         <f t="shared" si="12"/>
         <v>0.15501229552435955</v>
       </c>
-      <c r="AE8" s="70"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AE8" s="69"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="26">
         <v>1000</v>
@@ -4552,7 +4581,7 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="10"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="26">
         <v>1000</v>
@@ -4649,7 +4678,7 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="10"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="26">
         <v>1000</v>
@@ -4726,7 +4755,7 @@
       </c>
       <c r="W11" s="10">
         <f t="shared" si="9"/>
-        <v>75817922539.617187</v>
+        <v>75817922539.617188</v>
       </c>
       <c r="X11" s="13">
         <f t="shared" si="10"/>
@@ -4746,7 +4775,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="10"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="26">
         <v>1000</v>
@@ -4843,7 +4872,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="10"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="26">
         <v>1000</v>
@@ -4940,7 +4969,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="10"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="26">
         <v>1000</v>
@@ -5037,7 +5066,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="10"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="35">
         <v>1000</v>
@@ -5134,7 +5163,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="10"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="35">
         <v>1000</v>
@@ -5231,7 +5260,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="10"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="35">
         <v>1000</v>
@@ -5308,7 +5337,7 @@
       </c>
       <c r="W17" s="10">
         <f t="shared" si="9"/>
-        <v>42635551046276.562</v>
+        <v>42635551046276.563</v>
       </c>
       <c r="X17" s="13">
         <f t="shared" si="10"/>
@@ -5328,7 +5357,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="10"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="35">
         <v>1000</v>
@@ -5425,7 +5454,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="10"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="35">
         <v>1000</v>
@@ -5486,7 +5515,7 @@
       </c>
       <c r="S19" s="47">
         <f t="shared" si="5"/>
-        <v>1214325507598604.2</v>
+        <v>1214325507598604.3</v>
       </c>
       <c r="T19" s="13">
         <f t="shared" si="6"/>
@@ -5522,7 +5551,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="10"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="26">
         <v>1000</v>
@@ -5619,7 +5648,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="10"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="26">
         <v>1000</v>
@@ -5696,7 +5725,7 @@
       </c>
       <c r="W21" s="10">
         <f t="shared" si="9"/>
-        <v>758179225396171.87</v>
+        <v>758179225396171.88</v>
       </c>
       <c r="X21" s="13">
         <f t="shared" si="10"/>
@@ -5716,7 +5745,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="10"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -5736,7 +5765,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="45"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -5758,7 +5787,7 @@
       </c>
       <c r="R23" s="11"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
